--- a/Results_water_Up_Down_Baffle.xlsx
+++ b/Results_water_Up_Down_Baffle.xlsx
@@ -2,27 +2,28 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr hidePivotFieldList="1" defaultThemeVersion="153222"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s137552\Documents\aTUe\2017-2018\kwartiel 3\introduction to CFD\final assignment\git\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9120"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9120" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="LengthBaffle" sheetId="2" r:id="rId1"/>
     <sheet name="Baffle_Down_Up" sheetId="3" r:id="rId2"/>
-    <sheet name="Baffle_Down_Up_Re " sheetId="5" r:id="rId3"/>
+    <sheet name="Baffle_Down_Up_Rep " sheetId="5" r:id="rId3"/>
     <sheet name="Mesh_analyses" sheetId="4" r:id="rId4"/>
-    <sheet name="oud" sheetId="1" r:id="rId5"/>
+    <sheet name="Baffle_down_up Re" sheetId="7" r:id="rId5"/>
+    <sheet name="oud" sheetId="1" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="41" r:id="rId6"/>
-    <pivotCache cacheId="44" r:id="rId7"/>
-    <pivotCache cacheId="47" r:id="rId8"/>
+    <pivotCache cacheId="88" r:id="rId7"/>
+    <pivotCache cacheId="91" r:id="rId8"/>
+    <pivotCache cacheId="98" r:id="rId9"/>
   </pivotCaches>
   <fileRecoveryPr repairLoad="1"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="102">
   <si>
     <t>LengthBaffle</t>
   </si>
@@ -78,9 +79,6 @@
     <t>velocity (U_IN) 0.1</t>
   </si>
   <si>
-    <t>velocity (U_IN) 0.2</t>
-  </si>
-  <si>
     <t>0.1 NPJ</t>
   </si>
   <si>
@@ -120,25 +118,13 @@
     <t>0.7 NPJ</t>
   </si>
   <si>
-    <t>Convergeerde niet, steeds 100 iteraties</t>
-  </si>
-  <si>
     <t>1 Baffle located at the bottom, 1 baffle located at the top</t>
   </si>
   <si>
     <t>PosBaffleUp = variable</t>
   </si>
   <si>
-    <t>LengthBaffle = 0.5*NPJ</t>
-  </si>
-  <si>
     <t>Positie baffle Up</t>
-  </si>
-  <si>
-    <t>0.115 * NPI</t>
-  </si>
-  <si>
-    <t>PosBaffleLow = 0,1*NPI  = 20 gridcels</t>
   </si>
   <si>
     <t>gridcels</t>
@@ -213,19 +199,7 @@
     <t>360 sec</t>
   </si>
   <si>
-    <t>0.120 * NPI</t>
-  </si>
-  <si>
-    <t>0.150 * NPI</t>
-  </si>
-  <si>
     <t>IoS*dp</t>
-  </si>
-  <si>
-    <t>0.125 * NPI</t>
-  </si>
-  <si>
-    <t>0.200 * NPI</t>
   </si>
   <si>
     <t>0.250 * NPI</t>
@@ -267,9 +241,6 @@
     <t>abs(dp)</t>
   </si>
   <si>
-    <t>Sum of abs(dp)</t>
-  </si>
-  <si>
     <t>Nor(IoS*dp)</t>
   </si>
   <si>
@@ -294,13 +265,7 @@
     <t>nor(IoS * dp)</t>
   </si>
   <si>
-    <t>nor(IoS + dp)</t>
-  </si>
-  <si>
     <t>Sum of nor(IoS * dp)</t>
-  </si>
-  <si>
-    <t>Sum of nor(IoS + dp)</t>
   </si>
   <si>
     <t>dp*L</t>
@@ -309,19 +274,73 @@
     <t>nor(dp*L)</t>
   </si>
   <si>
-    <t>Sum of nor(dp*L)</t>
-  </si>
-  <si>
-    <t>sim time [s]</t>
-  </si>
-  <si>
-    <t>Diameter [m]</t>
-  </si>
-  <si>
     <t>U_in = 0,1</t>
   </si>
   <si>
     <t>dP [bar]</t>
+  </si>
+  <si>
+    <t>Domain 5 x 0.1</t>
+  </si>
+  <si>
+    <t>(nor(IoS) + nor(dp))</t>
+  </si>
+  <si>
+    <t>dp (Pa)</t>
+  </si>
+  <si>
+    <t>0.0 NPJ</t>
+  </si>
+  <si>
+    <t>0.75 NPJ</t>
+  </si>
+  <si>
+    <t>0.13 * NPI</t>
+  </si>
+  <si>
+    <t>0.15 * NPI</t>
+  </si>
+  <si>
+    <t>0.20 * NPI</t>
+  </si>
+  <si>
+    <t>PosBaffleLow = 0,1*NPI  = 10 gridcels</t>
+  </si>
+  <si>
+    <t>LengthBaffle = 0.35*NPJ</t>
+  </si>
+  <si>
+    <t>Repetitions</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>Reynolds</t>
+  </si>
+  <si>
+    <t>Density</t>
+  </si>
+  <si>
+    <t>Viscosity</t>
+  </si>
+  <si>
+    <t>U_init</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>IoS Dens</t>
+  </si>
+  <si>
+    <t>IoS Visco</t>
+  </si>
+  <si>
+    <t>Sum of IoS Visco</t>
+  </si>
+  <si>
+    <t>Sum of IoS Dens</t>
   </si>
 </sst>
 </file>
@@ -353,7 +372,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -370,11 +389,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -386,6 +414,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -421,6 +451,37 @@
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:pivotFmts>
       <c:pivotFmt>
@@ -525,6 +586,81 @@
           <c:symbol val="none"/>
         </c:marker>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -536,11 +672,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>LengthBaffle!$E$21</c:f>
+              <c:f>LengthBaffle!$E$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Sum of nor(IoS * dp)</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -559,194 +695,107 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>LengthBaffle!$D$22:$D$33</c:f>
+              <c:f>LengthBaffle!$D$23:$D$38</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="8">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="10">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>24</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="12">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="14">
                   <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>48</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>LengthBaffle!$E$22:$E$33</c:f>
+              <c:f>LengthBaffle!$E$23:$E$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.98991713271012771</c:v>
+                  <c:v>1.008443721434658</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.96362819937135136</c:v>
+                  <c:v>1.046157107852131</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.92207889401423293</c:v>
+                  <c:v>1.0596768472424378</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.87187546774434965</c:v>
+                  <c:v>1.0464995861720301</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.82905389775618776</c:v>
+                  <c:v>1.0259794268380689</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.79138261827978928</c:v>
+                  <c:v>1.0109960003424783</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.75873236178579695</c:v>
+                  <c:v>1.0146124083156995</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.74058047924235604</c:v>
+                  <c:v>1.0238674771986904</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.73155216284987268</c:v>
+                  <c:v>1.0408894651222524</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.72357839735477814</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>LengthBaffle!$F$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Sum of nor(IoS + dp)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>LengthBaffle!$D$22:$D$33</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>48</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>LengthBaffle!$F$22:$F$33</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.96143122676579928</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.90311338289962817</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.82783457249070636</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.74721189591078063</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.67193308550185871</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.60478624535315995</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.54739776951672869</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.50697026022304836</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.48443308550185876</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.48303903345724908</c:v>
+                  <c:v>1.0641290654011275</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0701632072279235</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.0937289773352739</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.066534567886134</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.0471641571975487</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1243,6 +1292,66 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -1258,7 +1367,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Sum of IoS</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1277,230 +1386,89 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Baffle_Down_Up!$B$39:$B$53</c:f>
+              <c:f>Baffle_Down_Up!$B$39:$B$51</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>23</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>25</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>70</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>80</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>120</c:v>
-                </c:pt>
                 <c:pt idx="11">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>180</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Baffle_Down_Up!$C$39:$C$53</c:f>
+              <c:f>Baffle_Down_Up!$C$39:$C$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>4.0899999999999999E-3</c:v>
+                  <c:v>3.5699999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.2199999999999998E-3</c:v>
+                  <c:v>6.9199999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.3899999999999998E-3</c:v>
+                  <c:v>1.2200000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.2200000000000001E-2</c:v>
+                  <c:v>1.5599999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.4199999999999999E-2</c:v>
+                  <c:v>1.7100000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.7E-2</c:v>
+                  <c:v>1.8100000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.7799999999999998E-2</c:v>
+                  <c:v>1.8800000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.7799999999999998E-2</c:v>
+                  <c:v>1.8800000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.8000000000000001E-2</c:v>
+                  <c:v>1.9199999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.8400000000000002E-2</c:v>
+                  <c:v>1.9400000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.92E-2</c:v>
+                  <c:v>1.83E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.04E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3.1600000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.0200000000000001E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Baffle_Down_Up!$D$38</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Sum of abs(dp)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Baffle_Down_Up!$B$39:$B$53</c:f>
-              <c:strCache>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>180</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Baffle_Down_Up!$D$39:$D$53</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0.28499999999999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.25900000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.24299999999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.21199999999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.20399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.19</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.18099999999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.17399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.16800000000000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.158</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.14799999999999999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.13900000000000001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.129</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.121</c:v>
+                  <c:v>1.5599999999999999E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2046,6 +2014,51 @@
           <c:symbol val="none"/>
         </c:marker>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -2061,7 +2074,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Sum of nor(dp*L)</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2080,230 +2093,89 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Baffle_Down_Up!$I$39:$I$53</c:f>
+              <c:f>Baffle_Down_Up!$I$39:$I$51</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>23</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>25</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>70</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>80</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>120</c:v>
-                </c:pt>
                 <c:pt idx="11">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>180</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Baffle_Down_Up!$J$39:$J$53</c:f>
+              <c:f>Baffle_Down_Up!$J$39:$J$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>9.6792935161515201E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.92990616075071408</c:v>
+                  <c:v>0.18338898606031692</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.89228886168910659</c:v>
+                  <c:v>0.32580288741840657</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.86495308037535701</c:v>
+                  <c:v>0.39115916679917312</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.9987760097919216</c:v>
+                  <c:v>0.39460841273530095</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0852713178294575</c:v>
+                  <c:v>0.38373880320135684</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.1815585475316199</c:v>
+                  <c:v>0.36638656832646338</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.2778457772337821</c:v>
+                  <c:v>0.30430014147616313</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.3708690330477358</c:v>
+                  <c:v>0.26380615727093698</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.5471236230110161</c:v>
+                  <c:v>0.22146931353482474</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.6907384740922073</c:v>
+                  <c:v>0.16563719314554104</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.8147694818441455</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.8947368421052633</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.9747042023663812</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Baffle_Down_Up!$K$38</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Sum of Nor(IoS*dp)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Baffle_Down_Up!$I$39:$I$53</c:f>
-              <c:strCache>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>180</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Baffle_Down_Up!$K$39:$K$53</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.1598507270621543</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.332106549993566</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.2188478531291556</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.2352335606743026</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.4009779951100247</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.3167331531763393</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.1497876721142708</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.0355166645219418</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.8495260155278177</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.7074593574400554</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.6251018744906283</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3.4971046197400604</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.1349032728520574</c:v>
+                  <c:v>0.10240101764986484</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2517,6 +2389,482 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Results_water_Up_Down_Baffle.xlsx]Baffle_down_up Re!PivotTable1</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Baffle_down_up Re'!$G$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sum of IoS Visco</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Baffle_down_up Re'!$F$39:$F$47</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Baffle_down_up Re'!$G$39:$G$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.5900000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4200000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.34E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.18E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2200000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.18E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.14E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Baffle_down_up Re'!$H$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sum of IoS Dens</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Baffle_down_up Re'!$F$39:$F$47</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Baffle_down_up Re'!$H$39:$H$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6.8900000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.41E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.41E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.34E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.23E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.23E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1900000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="481038792"/>
+        <c:axId val="481040752"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="481038792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="481040752"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="481040752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="481038792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2637,6 +2985,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -4185,20 +4573,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>259080</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>563880</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4285,62 +5189,94 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Admin" refreshedDate="43195.511395717593" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="14">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Admin" refreshedDate="43195.669390162038" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="13">
   <cacheSource type="worksheet">
-    <worksheetSource ref="C1:N15" sheet="Baffle_Down_Up"/>
+    <worksheetSource ref="C1:M14" sheet="Baffle_Down_Up"/>
   </cacheSource>
-  <cacheFields count="12">
+  <cacheFields count="11">
     <cacheField name="gridcels" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="23" maxValue="180" count="14">
-        <n v="23"/>
-        <n v="24"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="13" maxValue="90" count="14">
+        <m/>
+        <n v="13"/>
+        <n v="15"/>
+        <n v="20"/>
         <n v="25"/>
         <n v="30"/>
+        <n v="35"/>
         <n v="40"/>
         <n v="50"/>
         <n v="60"/>
         <n v="70"/>
         <n v="80"/>
-        <n v="100"/>
-        <n v="120"/>
-        <n v="140"/>
-        <n v="160"/>
-        <n v="180"/>
+        <n v="90"/>
+        <n v="14" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="IoS" numFmtId="11">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="4.0899999999999999E-3" maxValue="3.1600000000000003E-2"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="3.5699999999999998E-3" maxValue="0.99299999999999999"/>
     </cacheField>
-    <cacheField name="dp" numFmtId="11">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-0.28499999999999998" maxValue="-0.121"/>
-    </cacheField>
-    <cacheField name="mean frac" numFmtId="11">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-0.48799999999999999" maxValue="0.52"/>
+    <cacheField name="dp" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-66.5" maxValue="-2.4700000000000002"/>
     </cacheField>
     <cacheField name="abs(dp)" numFmtId="11">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.121" maxValue="0.28499999999999998"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2.4700000000000002" maxValue="66.5"/>
     </cacheField>
     <cacheField name="IoS*dp" numFmtId="11">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.1656499999999998E-3" maxValue="5.13E-3"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.23740499999999998" maxValue="2.4527100000000002"/>
     </cacheField>
     <cacheField name="Nor(IoS*dp)" numFmtId="11">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1" maxValue="4.4009779951100247"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="9.6792935161515201E-2" maxValue="1"/>
     </cacheField>
     <cacheField name="nor(IoS)" numFmtId="11">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1" maxValue="7.7261613691931554"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="3.5951661631419937E-3" maxValue="1"/>
     </cacheField>
     <cacheField name="nor(dp)" numFmtId="11">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.42456140350877197" maxValue="1"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1" maxValue="26.92307692307692"/>
     </cacheField>
     <cacheField name="nor(IoS) + nor(dp)" numFmtId="11">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1" maxValue="4.089396474070262"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1" maxValue="13.46333604462003"/>
     </cacheField>
     <cacheField name="dp*L" numFmtId="11">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="10.6" maxValue="24.2"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="49.400000000000006" maxValue="2868"/>
     </cacheField>
     <cacheField name="nor(dp*L)" numFmtId="11">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.86495308037535701" maxValue="1.9747042023663812"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1" maxValue="58.056680161943312"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -4352,46 +5288,47 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Admin" refreshedDate="43195.511396064816" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="11">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Admin" refreshedDate="43195.669390625" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="15">
   <cacheSource type="worksheet">
-    <worksheetSource ref="C1:J12" sheet="LengthBaffle"/>
+    <worksheetSource ref="C1:I16" sheet="LengthBaffle"/>
   </cacheSource>
-  <cacheFields count="8">
+  <cacheFields count="7">
     <cacheField name="LengthBaffle" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="8" maxValue="48" count="11">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="32" count="15">
+        <n v="0"/>
+        <n v="4"/>
+        <n v="6"/>
         <n v="8"/>
+        <n v="10"/>
         <n v="12"/>
+        <n v="14"/>
         <n v="16"/>
+        <n v="18"/>
         <n v="20"/>
+        <n v="22"/>
         <n v="24"/>
+        <n v="26"/>
         <n v="28"/>
         <n v="32"/>
-        <n v="36"/>
-        <n v="40"/>
-        <n v="44"/>
-        <n v="48"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="IoS" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="9.0899999999999995E-2" maxValue="0.39300000000000002"/>
+    <cacheField name="IoS" numFmtId="11">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="4.7300000000000002E-2" maxValue="0.99299999999999999"/>
     </cacheField>
-    <cacheField name="dp" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-0.11700000000000001" maxValue="-3.7400000000000003E-2"/>
-    </cacheField>
-    <cacheField name="mean frac" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.48699999999999999" maxValue="0.503"/>
+    <cacheField name="dp (Pa)" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-54.3" maxValue="-2.4700000000000002"/>
     </cacheField>
     <cacheField name="IoS * dp" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.06353E-2" maxValue="1.4698200000000002E-2"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2.4527100000000002" maxValue="2.6825999999999999"/>
     </cacheField>
     <cacheField name="IoS + dp" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.2079" maxValue="0.4304"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="3.4630000000000001" maxValue="54.347299999999997"/>
     </cacheField>
     <cacheField name="nor(IoS * dp)" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.72357839735477814" maxValue="1"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1" maxValue="1.0937289773352739"/>
     </cacheField>
-    <cacheField name="nor(IoS + dp)" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.48303903345724908" maxValue="1"/>
+    <cacheField name="(nor(IoS) + nor(dp))" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1" maxValue="11.01571955102723"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -4403,47 +5340,86 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Admin" refreshedDate="43195.511396296293" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="14">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Admin" refreshedDate="43195.79275335648" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="8">
   <cacheSource type="worksheet">
-    <worksheetSource ref="C1:I15" sheet="Baffle_Down_Up"/>
+    <worksheetSource ref="D7:W15" sheet="Baffle_down_up Re"/>
   </cacheSource>
-  <cacheFields count="7">
-    <cacheField name="gridcels" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="180" count="15">
-        <n v="23"/>
-        <n v="24"/>
-        <n v="25"/>
-        <n v="30"/>
-        <n v="40"/>
-        <n v="50"/>
-        <n v="60"/>
-        <n v="70"/>
-        <n v="80"/>
+  <cacheFields count="20">
+    <cacheField name="Reynolds" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="100" maxValue="999999.99999999988" count="8">
+        <n v="20000"/>
+        <n v="50000"/>
+        <n v="100000"/>
+        <n v="999999.99999999988"/>
+        <n v="5000"/>
+        <n v="2000"/>
+        <n v="1000"/>
         <n v="100"/>
-        <n v="120"/>
-        <n v="140"/>
-        <n v="160"/>
-        <n v="180"/>
-        <n v="0" u="1"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="IoS" numFmtId="11">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="4.0899999999999999E-3" maxValue="3.1600000000000003E-2"/>
+    <cacheField name="IoS Visco" numFmtId="11">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.14E-2" maxValue="1.5900000000000001E-2"/>
     </cacheField>
     <cacheField name="dp" numFmtId="11">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-0.28499999999999998" maxValue="-0.121"/>
-    </cacheField>
-    <cacheField name="mean frac" numFmtId="11">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-0.48799999999999999" maxValue="0.52"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-138" maxValue="-65.599999999999994"/>
     </cacheField>
     <cacheField name="abs(dp)" numFmtId="11">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.121" maxValue="0.28499999999999998"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="65.599999999999994" maxValue="138"/>
     </cacheField>
     <cacheField name="IoS*dp" numFmtId="11">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.1656499999999998E-3" maxValue="5.13E-3"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.74783999999999995" maxValue="2.1941999999999999"/>
     </cacheField>
     <cacheField name="Nor(IoS*dp)" numFmtId="11">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1" maxValue="4.4009779951100247"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.93585283443874345" maxValue="2.7458390689525713"/>
+    </cacheField>
+    <cacheField name="nor(IoS)" numFmtId="11">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.93442622950819665" maxValue="1.3032786885245902"/>
+    </cacheField>
+    <cacheField name="nor(dp)" numFmtId="11">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.0015267175572518" maxValue="2.1068702290076335"/>
+    </cacheField>
+    <cacheField name="nor(IoS) + nor(dp)" numFmtId="11">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.9679764735327242" maxValue="1.705074458766112"/>
+    </cacheField>
+    <cacheField name="Density" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="10" maxValue="100000"/>
+    </cacheField>
+    <cacheField name="Viscosity" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1E-3" maxValue="1E-3"/>
+    </cacheField>
+    <cacheField name="Reynolds2" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="100" maxValue="1000000"/>
+    </cacheField>
+    <cacheField name="IoS Dens" numFmtId="11">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="6.8900000000000003E-3" maxValue="1.41E-2" count="6">
+        <m/>
+        <n v="1.23E-2"/>
+        <n v="1.1900000000000001E-2"/>
+        <n v="1.34E-2"/>
+        <n v="1.41E-2"/>
+        <n v="6.8900000000000003E-3"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="dp2" numFmtId="11">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="-6560" maxValue="-1.38"/>
+    </cacheField>
+    <cacheField name="abs(dp)2" numFmtId="11">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="6560"/>
+    </cacheField>
+    <cacheField name="IoS*dp2" numFmtId="11">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="78.064000000000007"/>
+    </cacheField>
+    <cacheField name="Nor(IoS*dp)2" numFmtId="11">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="97.689901138781138"/>
+    </cacheField>
+    <cacheField name="nor(IoS)2" numFmtId="11">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="1.1557377049180326"/>
+    </cacheField>
+    <cacheField name="nor(dp)2" numFmtId="11">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="100.15267175572519"/>
+    </cacheField>
+    <cacheField name="nor(IoS) + nor(dp)2" numFmtId="11">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="50.564040795895387"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -4455,571 +5431,506 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="14">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="13">
   <r>
     <x v="0"/>
-    <n v="4.0899999999999999E-3"/>
-    <n v="-0.28499999999999998"/>
-    <n v="0.52"/>
-    <n v="0.28499999999999998"/>
-    <n v="1.1656499999999998E-3"/>
+    <n v="0.99299999999999999"/>
+    <n v="-2.4700000000000002"/>
+    <n v="2.4700000000000002"/>
+    <n v="2.4527100000000002"/>
     <n v="1"/>
     <n v="1"/>
     <n v="1"/>
     <n v="1"/>
-    <n v="12.254999999999999"/>
+    <n v="49.400000000000006"/>
     <n v="1"/>
   </r>
   <r>
     <x v="1"/>
-    <n v="5.2199999999999998E-3"/>
-    <n v="-0.25900000000000001"/>
-    <n v="0.49199999999999999"/>
-    <n v="0.25900000000000001"/>
-    <n v="1.35198E-3"/>
-    <n v="1.1598507270621543"/>
-    <n v="1.2762836185819071"/>
-    <n v="0.90877192982456156"/>
-    <n v="1.0925277742032344"/>
-    <n v="11.396000000000001"/>
-    <n v="0.92990616075071408"/>
+    <n v="3.5699999999999998E-3"/>
+    <n v="-66.5"/>
+    <n v="66.5"/>
+    <n v="0.23740499999999998"/>
+    <n v="9.6792935161515201E-2"/>
+    <n v="3.5951661631419937E-3"/>
+    <n v="26.92307692307692"/>
+    <n v="13.46333604462003"/>
+    <n v="2194.5"/>
+    <n v="44.42307692307692"/>
   </r>
   <r>
     <x v="2"/>
-    <n v="6.3899999999999998E-3"/>
-    <n v="-0.24299999999999999"/>
-    <n v="0.48799999999999999"/>
-    <n v="0.24299999999999999"/>
-    <n v="1.55277E-3"/>
-    <n v="1.332106549993566"/>
-    <n v="1.5623471882640587"/>
-    <n v="0.85263157894736852"/>
-    <n v="1.2074893836057137"/>
-    <n v="10.935"/>
-    <n v="0.89228886168910659"/>
+    <n v="6.9199999999999999E-3"/>
+    <n v="-65"/>
+    <n v="65"/>
+    <n v="0.44979999999999998"/>
+    <n v="0.18338898606031692"/>
+    <n v="6.9687814702920443E-3"/>
+    <n v="26.315789473684209"/>
+    <n v="13.16137912757725"/>
+    <n v="2275"/>
+    <n v="46.052631578947363"/>
   </r>
   <r>
     <x v="3"/>
     <n v="1.2200000000000001E-2"/>
-    <n v="-0.21199999999999999"/>
-    <n v="-0.48799999999999999"/>
-    <n v="0.21199999999999999"/>
-    <n v="2.5864E-3"/>
-    <n v="2.2188478531291556"/>
-    <n v="2.9828850855745723"/>
-    <n v="0.74385964912280711"/>
-    <n v="1.8633723673486897"/>
-    <n v="10.6"/>
-    <n v="0.86495308037535701"/>
+    <n v="-65.5"/>
+    <n v="65.5"/>
+    <n v="0.79910000000000003"/>
+    <n v="0.32580288741840657"/>
+    <n v="1.2286002014098692E-2"/>
+    <n v="26.518218623481779"/>
+    <n v="13.26525231274794"/>
+    <n v="2620"/>
+    <n v="53.036437246963558"/>
   </r>
   <r>
     <x v="4"/>
-    <n v="2.4199999999999999E-2"/>
-    <n v="-0.20399999999999999"/>
-    <n v="0.48699999999999999"/>
-    <n v="0.20399999999999999"/>
-    <n v="4.9367999999999999E-3"/>
-    <n v="4.2352335606743026"/>
-    <n v="5.9168704156479217"/>
-    <n v="0.71578947368421053"/>
-    <n v="3.3163299446660659"/>
-    <n v="12.239999999999998"/>
-    <n v="0.9987760097919216"/>
+    <n v="1.5599999999999999E-2"/>
+    <n v="-61.5"/>
+    <n v="61.5"/>
+    <n v="0.95939999999999992"/>
+    <n v="0.39115916679917312"/>
+    <n v="1.5709969788519636E-2"/>
+    <n v="24.898785425101213"/>
+    <n v="12.457247697444867"/>
+    <n v="2767.5"/>
+    <n v="56.022267206477729"/>
   </r>
   <r>
     <x v="5"/>
-    <n v="2.7E-2"/>
-    <n v="-0.19"/>
-    <n v="0.48699999999999999"/>
-    <n v="0.19"/>
-    <n v="5.13E-3"/>
-    <n v="4.4009779951100247"/>
-    <n v="6.6014669926650367"/>
-    <n v="0.66666666666666674"/>
-    <n v="3.6340668296658518"/>
-    <n v="13.3"/>
-    <n v="1.0852713178294575"/>
+    <n v="1.7100000000000001E-2"/>
+    <n v="-56.6"/>
+    <n v="56.6"/>
+    <n v="0.96786000000000005"/>
+    <n v="0.39460841273530095"/>
+    <n v="1.7220543806646525E-2"/>
+    <n v="22.914979757085018"/>
+    <n v="11.466100150445833"/>
+    <n v="2830"/>
+    <n v="57.287449392712546"/>
   </r>
   <r>
     <x v="6"/>
-    <n v="2.7799999999999998E-2"/>
-    <n v="-0.18099999999999999"/>
-    <n v="0.48599999999999999"/>
-    <n v="0.18099999999999999"/>
-    <n v="5.0317999999999995E-3"/>
-    <n v="4.3167331531763393"/>
-    <n v="6.7970660146699267"/>
-    <n v="0.6350877192982457"/>
-    <n v="3.716076866984086"/>
-    <n v="14.48"/>
-    <n v="1.1815585475316199"/>
+    <n v="1.8100000000000002E-2"/>
+    <n v="-52"/>
+    <n v="52"/>
+    <n v="0.94120000000000004"/>
+    <n v="0.38373880320135684"/>
+    <n v="1.8227593152064452E-2"/>
+    <n v="21.052631578947366"/>
+    <n v="10.535429586049716"/>
+    <n v="2860"/>
+    <n v="57.894736842105253"/>
   </r>
   <r>
     <x v="7"/>
-    <n v="2.7799999999999998E-2"/>
-    <n v="-0.17399999999999999"/>
-    <n v="0.48499999999999999"/>
-    <n v="0.17399999999999999"/>
-    <n v="4.837199999999999E-3"/>
-    <n v="4.1497876721142708"/>
-    <n v="6.7970660146699267"/>
-    <n v="0.61052631578947369"/>
-    <n v="3.7037961652297002"/>
-    <n v="15.659999999999998"/>
-    <n v="1.2778457772337821"/>
+    <n v="1.8800000000000001E-2"/>
+    <n v="-47.8"/>
+    <n v="47.8"/>
+    <n v="0.89863999999999999"/>
+    <n v="0.36638656832646338"/>
+    <n v="1.8932527693857001E-2"/>
+    <n v="19.352226720647771"/>
+    <n v="9.6855796241708134"/>
+    <n v="2868"/>
+    <n v="58.056680161943312"/>
   </r>
   <r>
     <x v="8"/>
-    <n v="2.8000000000000001E-2"/>
-    <n v="-0.16800000000000001"/>
-    <n v="0.48499999999999999"/>
-    <n v="0.16800000000000001"/>
-    <n v="4.7040000000000007E-3"/>
-    <n v="4.0355166645219418"/>
-    <n v="6.8459657701711496"/>
-    <n v="0.58947368421052637"/>
-    <n v="3.717719727190838"/>
-    <n v="16.8"/>
-    <n v="1.3708690330477358"/>
+    <n v="1.8800000000000001E-2"/>
+    <n v="-39.700000000000003"/>
+    <n v="39.700000000000003"/>
+    <n v="0.74636000000000013"/>
+    <n v="0.30430014147616313"/>
+    <n v="1.8932527693857001E-2"/>
+    <n v="16.072874493927124"/>
+    <n v="8.0459035108104899"/>
+    <n v="2779"/>
+    <n v="56.25506072874493"/>
   </r>
   <r>
     <x v="9"/>
-    <n v="2.8400000000000002E-2"/>
-    <n v="-0.158"/>
-    <n v="0.48299999999999998"/>
-    <n v="0.158"/>
-    <n v="4.4872000000000002E-3"/>
-    <n v="3.8495260155278177"/>
-    <n v="6.9437652811735946"/>
-    <n v="0.55438596491228076"/>
-    <n v="3.7490756230429376"/>
-    <n v="18.96"/>
-    <n v="1.5471236230110161"/>
+    <n v="1.9199999999999998E-2"/>
+    <n v="-33.700000000000003"/>
+    <n v="33.700000000000003"/>
+    <n v="0.64703999999999995"/>
+    <n v="0.26380615727093698"/>
+    <n v="1.9335347432024169E-2"/>
+    <n v="13.643724696356275"/>
+    <n v="6.8315300218941495"/>
+    <n v="2696"/>
+    <n v="54.574898785425098"/>
   </r>
   <r>
     <x v="10"/>
-    <n v="2.92E-2"/>
-    <n v="-0.14799999999999999"/>
-    <n v="0.48199999999999998"/>
-    <n v="0.14799999999999999"/>
-    <n v="4.3216000000000001E-3"/>
-    <n v="3.7074593574400554"/>
-    <n v="7.1393643031784846"/>
-    <n v="0.51929824561403515"/>
-    <n v="3.8293312743962598"/>
-    <n v="20.72"/>
-    <n v="1.6907384740922073"/>
+    <n v="1.9400000000000001E-2"/>
+    <n v="-28"/>
+    <n v="28"/>
+    <n v="0.54320000000000002"/>
+    <n v="0.22146931353482474"/>
+    <n v="1.9536757301107755E-2"/>
+    <n v="11.336032388663966"/>
+    <n v="5.6777845729825369"/>
+    <n v="2520"/>
+    <n v="51.012145748987848"/>
   </r>
   <r>
     <x v="11"/>
-    <n v="3.04E-2"/>
-    <n v="-0.13900000000000001"/>
-    <n v="0.48"/>
-    <n v="0.13900000000000001"/>
-    <n v="4.2256000000000004E-3"/>
-    <n v="3.6251018744906283"/>
-    <n v="7.4327628361858196"/>
-    <n v="0.48771929824561411"/>
-    <n v="3.9602410672157169"/>
-    <n v="22.240000000000002"/>
-    <n v="1.8147694818441455"/>
+    <n v="1.83E-2"/>
+    <n v="-22.2"/>
+    <n v="22.2"/>
+    <n v="0.40626000000000001"/>
+    <n v="0.16563719314554104"/>
+    <n v="1.8429003021148038E-2"/>
+    <n v="8.9878542510121449"/>
+    <n v="4.5031416270166469"/>
+    <n v="2220"/>
+    <n v="44.939271255060724"/>
   </r>
   <r>
     <x v="12"/>
-    <n v="3.1600000000000003E-2"/>
-    <n v="-0.129"/>
-    <n v="0.48"/>
-    <n v="0.129"/>
-    <n v="4.0764000000000009E-3"/>
-    <n v="3.4971046197400604"/>
-    <n v="7.7261613691931554"/>
-    <n v="0.4526315789473685"/>
-    <n v="4.089396474070262"/>
-    <n v="23.22"/>
-    <n v="1.8947368421052633"/>
-  </r>
-  <r>
-    <x v="13"/>
-    <n v="3.0200000000000001E-2"/>
-    <n v="-0.121"/>
-    <n v="0.48599999999999999"/>
-    <n v="0.121"/>
-    <n v="3.6542000000000002E-3"/>
-    <n v="3.1349032728520574"/>
-    <n v="7.3838630806845966"/>
-    <n v="0.42456140350877197"/>
-    <n v="3.9042122420966843"/>
-    <n v="24.2"/>
-    <n v="1.9747042023663812"/>
+    <n v="1.5599999999999999E-2"/>
+    <n v="-16.100000000000001"/>
+    <n v="16.100000000000001"/>
+    <n v="0.25115999999999999"/>
+    <n v="0.10240101764986484"/>
+    <n v="1.5709969788519636E-2"/>
+    <n v="6.5182186234817818"/>
+    <n v="3.2669642966351509"/>
+    <n v="1771.0000000000002"/>
+    <n v="35.850202429149796"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="11">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="15">
   <r>
     <x v="0"/>
-    <n v="0.39300000000000002"/>
-    <n v="-3.7400000000000003E-2"/>
-    <n v="0.501"/>
-    <n v="1.4698200000000002E-2"/>
-    <n v="0.4304"/>
+    <n v="0.99299999999999999"/>
+    <n v="-2.4700000000000002"/>
+    <n v="2.4527100000000002"/>
+    <n v="3.4630000000000001"/>
     <n v="1"/>
     <n v="1"/>
   </r>
   <r>
     <x v="1"/>
-    <n v="0.375"/>
-    <n v="-3.8800000000000001E-2"/>
-    <n v="0.502"/>
-    <n v="1.455E-2"/>
-    <n v="0.4138"/>
-    <n v="0.98991713271012771"/>
-    <n v="0.96143122676579928"/>
+    <n v="0.874"/>
+    <n v="-2.83"/>
+    <n v="2.47342"/>
+    <n v="3.7040000000000002"/>
+    <n v="1.008443721434658"/>
+    <n v="1.012955057874759"/>
   </r>
   <r>
     <x v="2"/>
-    <n v="0.34799999999999998"/>
-    <n v="-4.07E-2"/>
-    <n v="0.503"/>
-    <n v="1.4163599999999998E-2"/>
-    <n v="0.38869999999999999"/>
-    <n v="0.96362819937135136"/>
-    <n v="0.90311338289962817"/>
+    <n v="0.81200000000000006"/>
+    <n v="-3.16"/>
+    <n v="2.5659200000000002"/>
+    <n v="3.9720000000000004"/>
+    <n v="1.046157107852131"/>
+    <n v="1.0485381476000015"/>
   </r>
   <r>
     <x v="3"/>
-    <n v="0.313"/>
-    <n v="-4.3299999999999998E-2"/>
-    <n v="0.503"/>
-    <n v="1.35529E-2"/>
-    <n v="0.35630000000000001"/>
-    <n v="0.92207889401423293"/>
-    <n v="0.82783457249070636"/>
+    <n v="0.72599999999999998"/>
+    <n v="-3.58"/>
+    <n v="2.5990799999999998"/>
+    <n v="4.306"/>
+    <n v="1.0596768472424378"/>
+    <n v="1.0902552686620106"/>
   </r>
   <r>
     <x v="4"/>
-    <n v="0.27500000000000002"/>
-    <n v="-4.6600000000000003E-2"/>
-    <n v="0.503"/>
-    <n v="1.2815000000000002E-2"/>
-    <n v="0.3216"/>
-    <n v="0.87187546774434965"/>
-    <n v="0.74721189591078063"/>
+    <n v="0.623"/>
+    <n v="-4.12"/>
+    <n v="2.5667599999999999"/>
+    <n v="4.7430000000000003"/>
+    <n v="1.0464995861720301"/>
+    <n v="1.1477039682636756"/>
   </r>
   <r>
     <x v="5"/>
-    <n v="0.23799999999999999"/>
-    <n v="-5.1200000000000002E-2"/>
-    <n v="0.502"/>
-    <n v="1.21856E-2"/>
-    <n v="0.28920000000000001"/>
-    <n v="0.82905389775618776"/>
-    <n v="0.67193308550185871"/>
+    <n v="0.52100000000000002"/>
+    <n v="-4.83"/>
+    <n v="2.5164300000000002"/>
+    <n v="5.351"/>
+    <n v="1.0259794268380689"/>
+    <n v="1.2400691480036368"/>
   </r>
   <r>
     <x v="6"/>
-    <n v="0.20300000000000001"/>
-    <n v="-5.7299999999999997E-2"/>
-    <n v="0.5"/>
-    <n v="1.1631900000000001E-2"/>
-    <n v="0.26030000000000003"/>
-    <n v="0.79138261827978928"/>
-    <n v="0.60478624535315995"/>
+    <n v="0.432"/>
+    <n v="-5.74"/>
+    <n v="2.4796800000000001"/>
+    <n v="6.1720000000000006"/>
+    <n v="1.0109960003424783"/>
+    <n v="1.3794659784483285"/>
   </r>
   <r>
     <x v="7"/>
-    <n v="0.17"/>
-    <n v="-6.5600000000000006E-2"/>
-    <n v="0.498"/>
-    <n v="1.1152000000000002E-2"/>
-    <n v="0.23560000000000003"/>
-    <n v="0.75873236178579695"/>
-    <n v="0.54739776951672869"/>
+    <n v="0.35499999999999998"/>
+    <n v="-7.01"/>
+    <n v="2.4885499999999996"/>
+    <n v="7.3650000000000002"/>
+    <n v="1.0146124083156995"/>
+    <n v="1.5977795988926533"/>
   </r>
   <r>
     <x v="8"/>
-    <n v="0.14099999999999999"/>
-    <n v="-7.7200000000000005E-2"/>
-    <n v="0.495"/>
-    <n v="1.0885199999999999E-2"/>
-    <n v="0.21820000000000001"/>
-    <n v="0.74058047924235604"/>
-    <n v="0.50697026022304836"/>
+    <n v="0.28699999999999998"/>
+    <n v="-8.75"/>
+    <n v="2.51125"/>
+    <n v="9.0370000000000008"/>
+    <n v="1.0238674771986904"/>
+    <n v="1.9157666417962171"/>
   </r>
   <r>
     <x v="9"/>
-    <n v="0.115"/>
-    <n v="-9.35E-2"/>
-    <n v="0.49099999999999999"/>
-    <n v="1.07525E-2"/>
-    <n v="0.20850000000000002"/>
-    <n v="0.73155216284987268"/>
-    <n v="0.48443308550185876"/>
+    <n v="0.23"/>
+    <n v="-11.1"/>
+    <n v="2.5529999999999999"/>
+    <n v="11.33"/>
+    <n v="1.0408894651222524"/>
+    <n v="2.3627742374760978"/>
   </r>
   <r>
     <x v="10"/>
-    <n v="9.0899999999999995E-2"/>
-    <n v="-0.11700000000000001"/>
-    <n v="0.48699999999999999"/>
-    <n v="1.06353E-2"/>
-    <n v="0.2079"/>
-    <n v="0.72357839735477814"/>
-    <n v="0.48303903345724908"/>
+    <n v="0.18"/>
+    <n v="-14.5"/>
+    <n v="2.61"/>
+    <n v="14.68"/>
+    <n v="1.0641290654011275"/>
+    <n v="3.0258571131523904"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="0.13600000000000001"/>
+    <n v="-19.3"/>
+    <n v="2.6248000000000005"/>
+    <n v="19.436"/>
+    <n v="1.0701632072279235"/>
+    <n v="3.9753619465815362"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <n v="0.10199999999999999"/>
+    <n v="-26.3"/>
+    <n v="2.6825999999999999"/>
+    <n v="26.402000000000001"/>
+    <n v="1.0937289773352739"/>
+    <n v="5.3752461562924267"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <n v="7.0699999999999999E-2"/>
+    <n v="-37"/>
+    <n v="2.6158999999999999"/>
+    <n v="37.070700000000002"/>
+    <n v="1.066534567886134"/>
+    <n v="7.5254777368706449"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <n v="4.7300000000000002E-2"/>
+    <n v="-54.3"/>
+    <n v="2.56839"/>
+    <n v="54.347299999999997"/>
+    <n v="1.0471641571975487"/>
+    <n v="11.01571955102723"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="14">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="8">
   <r>
     <x v="0"/>
-    <n v="4.0899999999999999E-3"/>
-    <n v="-0.28499999999999998"/>
-    <n v="0.52"/>
-    <n v="0.28499999999999998"/>
-    <n v="1.1656499999999998E-3"/>
-    <n v="1"/>
+    <n v="1.18E-2"/>
+    <n v="-65.900000000000006"/>
+    <n v="65.900000000000006"/>
+    <n v="0.77762000000000009"/>
+    <n v="0.973119759729696"/>
+    <n v="0.96721311475409832"/>
+    <n v="1.0061068702290077"/>
+    <n v="0.98665999249155301"/>
+    <n v="2000"/>
+    <n v="1E-3"/>
+    <n v="20000"/>
+    <x v="0"/>
+    <m/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="1"/>
-    <n v="5.2199999999999998E-3"/>
-    <n v="-0.25900000000000001"/>
-    <n v="0.49199999999999999"/>
-    <n v="0.25900000000000001"/>
-    <n v="1.35198E-3"/>
-    <n v="1.1598507270621543"/>
+    <n v="1.2200000000000001E-2"/>
+    <n v="-66"/>
+    <n v="66"/>
+    <n v="0.80520000000000003"/>
+    <n v="1.0076335877862594"/>
+    <n v="1"/>
+    <n v="1.0076335877862594"/>
+    <n v="1.0038167938931297"/>
+    <n v="5000"/>
+    <n v="1E-3"/>
+    <n v="50000"/>
+    <x v="1"/>
+    <n v="-330"/>
+    <n v="330"/>
+    <n v="4.0590000000000002"/>
+    <n v="5.0794643974471283"/>
+    <n v="1.0081967213114753"/>
+    <n v="5.0381679389312977"/>
+    <n v="3.0231823301213865"/>
   </r>
   <r>
     <x v="2"/>
-    <n v="6.3899999999999998E-3"/>
-    <n v="-0.24299999999999999"/>
-    <n v="0.48799999999999999"/>
-    <n v="0.24299999999999999"/>
-    <n v="1.55277E-3"/>
-    <n v="1.332106549993566"/>
+    <n v="1.18E-2"/>
+    <n v="-65.900000000000006"/>
+    <n v="65.900000000000006"/>
+    <n v="0.77762000000000009"/>
+    <n v="0.973119759729696"/>
+    <n v="0.96721311475409832"/>
+    <n v="1.0061068702290077"/>
+    <n v="0.98665999249155301"/>
+    <n v="10000"/>
+    <n v="1E-3"/>
+    <n v="100000"/>
+    <x v="1"/>
+    <n v="-658"/>
+    <n v="658"/>
+    <n v="8.0934000000000008"/>
+    <n v="10.128144162182457"/>
+    <n v="1.0081967213114753"/>
+    <n v="10.045801526717558"/>
+    <n v="5.526999124014516"/>
   </r>
   <r>
     <x v="3"/>
-    <n v="1.2200000000000001E-2"/>
-    <n v="-0.21199999999999999"/>
-    <n v="-0.48799999999999999"/>
-    <n v="0.21199999999999999"/>
-    <n v="2.5864E-3"/>
-    <n v="2.2188478531291556"/>
+    <n v="1.14E-2"/>
+    <n v="-65.599999999999994"/>
+    <n v="65.599999999999994"/>
+    <n v="0.74783999999999995"/>
+    <n v="0.93585283443874345"/>
+    <n v="0.93442622950819665"/>
+    <n v="1.0015267175572518"/>
+    <n v="0.9679764735327242"/>
+    <n v="100000"/>
+    <n v="1E-3"/>
+    <n v="1000000"/>
+    <x v="2"/>
+    <n v="-6560"/>
+    <n v="6560"/>
+    <n v="78.064000000000007"/>
+    <n v="97.689901138781138"/>
+    <n v="0.97540983606557374"/>
+    <n v="100.15267175572519"/>
+    <n v="50.564040795895387"/>
   </r>
   <r>
     <x v="4"/>
-    <n v="2.4199999999999999E-2"/>
-    <n v="-0.20399999999999999"/>
-    <n v="0.48699999999999999"/>
-    <n v="0.20399999999999999"/>
-    <n v="4.9367999999999999E-3"/>
-    <n v="4.2352335606743026"/>
+    <n v="1.34E-2"/>
+    <n v="-66.400000000000006"/>
+    <n v="66.400000000000006"/>
+    <n v="0.88976000000000011"/>
+    <n v="1.1134526342134903"/>
+    <n v="1.0983606557377048"/>
+    <n v="1.0137404580152674"/>
+    <n v="1.0560505568764862"/>
+    <n v="500"/>
+    <n v="1E-3"/>
+    <n v="5000"/>
+    <x v="3"/>
+    <n v="-33.200000000000003"/>
+    <n v="33.200000000000003"/>
+    <n v="0.44488000000000005"/>
+    <n v="0.55672631710674514"/>
+    <n v="1.0983606557377048"/>
+    <n v="0.50687022900763368"/>
+    <n v="0.80261544237266924"/>
   </r>
   <r>
     <x v="5"/>
-    <n v="2.7E-2"/>
-    <n v="-0.19"/>
-    <n v="0.48699999999999999"/>
-    <n v="0.19"/>
-    <n v="5.13E-3"/>
-    <n v="4.4009779951100247"/>
+    <n v="1.4200000000000001E-2"/>
+    <n v="-70.099999999999994"/>
+    <n v="70.099999999999994"/>
+    <n v="0.99541999999999997"/>
+    <n v="1.245676385934176"/>
+    <n v="1.1639344262295082"/>
+    <n v="1.0702290076335876"/>
+    <n v="1.1170817169315479"/>
+    <n v="200"/>
+    <n v="1E-3"/>
+    <n v="2000"/>
+    <x v="4"/>
+    <n v="-14"/>
+    <n v="14"/>
+    <n v="0.19739999999999999"/>
+    <n v="0.24702790639469402"/>
+    <n v="1.1557377049180326"/>
+    <n v="0.21374045801526717"/>
+    <n v="0.68473908146664986"/>
   </r>
   <r>
     <x v="6"/>
-    <n v="2.7799999999999998E-2"/>
-    <n v="-0.18099999999999999"/>
-    <n v="0.48599999999999999"/>
-    <n v="0.18099999999999999"/>
-    <n v="5.0317999999999995E-3"/>
-    <n v="4.3167331531763393"/>
+    <n v="1.4500000000000001E-2"/>
+    <n v="-77"/>
+    <n v="77"/>
+    <n v="1.1165"/>
+    <n v="1.3971968464522588"/>
+    <n v="1.1885245901639343"/>
+    <n v="1.1755725190839694"/>
+    <n v="1.1820485546239519"/>
+    <n v="100"/>
+    <n v="1E-3"/>
+    <n v="1000"/>
+    <x v="4"/>
+    <n v="-7.7"/>
+    <n v="7.7"/>
+    <n v="0.10857"/>
+    <n v="0.13586534851708171"/>
+    <n v="1.1557377049180326"/>
+    <n v="0.11755725190839694"/>
+    <n v="0.63664747841321478"/>
   </r>
   <r>
     <x v="7"/>
-    <n v="2.7799999999999998E-2"/>
-    <n v="-0.17399999999999999"/>
-    <n v="0.48499999999999999"/>
-    <n v="0.17399999999999999"/>
-    <n v="4.837199999999999E-3"/>
-    <n v="4.1497876721142708"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <n v="2.8000000000000001E-2"/>
-    <n v="-0.16800000000000001"/>
-    <n v="0.48499999999999999"/>
-    <n v="0.16800000000000001"/>
-    <n v="4.7040000000000007E-3"/>
-    <n v="4.0355166645219418"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <n v="2.8400000000000002E-2"/>
-    <n v="-0.158"/>
-    <n v="0.48299999999999998"/>
-    <n v="0.158"/>
-    <n v="4.4872000000000002E-3"/>
-    <n v="3.8495260155278177"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <n v="2.92E-2"/>
-    <n v="-0.14799999999999999"/>
-    <n v="0.48199999999999998"/>
-    <n v="0.14799999999999999"/>
-    <n v="4.3216000000000001E-3"/>
-    <n v="3.7074593574400554"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <n v="3.04E-2"/>
-    <n v="-0.13900000000000001"/>
-    <n v="0.48"/>
-    <n v="0.13900000000000001"/>
-    <n v="4.2256000000000004E-3"/>
-    <n v="3.6251018744906283"/>
-  </r>
-  <r>
-    <x v="12"/>
-    <n v="3.1600000000000003E-2"/>
-    <n v="-0.129"/>
-    <n v="0.48"/>
-    <n v="0.129"/>
-    <n v="4.0764000000000009E-3"/>
-    <n v="3.4971046197400604"/>
-  </r>
-  <r>
-    <x v="13"/>
-    <n v="3.0200000000000001E-2"/>
-    <n v="-0.121"/>
-    <n v="0.48599999999999999"/>
-    <n v="0.121"/>
-    <n v="3.6542000000000002E-3"/>
-    <n v="3.1349032728520574"/>
+    <n v="1.5900000000000001E-2"/>
+    <n v="-138"/>
+    <n v="138"/>
+    <n v="2.1941999999999999"/>
+    <n v="2.7458390689525713"/>
+    <n v="1.3032786885245902"/>
+    <n v="2.1068702290076335"/>
+    <n v="1.705074458766112"/>
+    <n v="10"/>
+    <n v="1E-3"/>
+    <n v="100"/>
+    <x v="5"/>
+    <n v="-1.38"/>
+    <n v="1.38"/>
+    <n v="9.5081999999999996E-3"/>
+    <n v="1.1898635965461143E-2"/>
+    <n v="0.56475409836065571"/>
+    <n v="2.1068702290076333E-2"/>
+    <n v="0.292911400325366"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="44" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
-  <location ref="D21:F33" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="8">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="12">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="12">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Sum of nor(IoS * dp)" fld="6" baseField="0" baseItem="0"/>
-    <dataField name="Sum of nor(IoS + dp)" fld="7" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="0" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="41" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="I38:K53" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="12">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="15">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="91" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="D22:E38" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField axis="axisRow" showAll="0" sortType="ascending">
+      <items count="16">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -5034,150 +5945,24 @@
         <item x="11"/>
         <item x="12"/>
         <item x="13"/>
+        <item x="14"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="11" showAll="0"/>
-    <pivotField dataField="1" numFmtId="11" showAll="0"/>
-    <pivotField numFmtId="11" showAll="0" defaultSubtotal="0"/>
-    <pivotField numFmtId="11" showAll="0" defaultSubtotal="0"/>
-    <pivotField numFmtId="11" showAll="0" defaultSubtotal="0"/>
-    <pivotField numFmtId="11" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" numFmtId="11" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="15">
+  <rowItems count="16">
     <i>
       <x/>
     </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Sum of nor(dp*L)" fld="11" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Nor(IoS*dp)" fld="6" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="0" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="47" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
-  <location ref="B38:D53" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="7">
-    <pivotField axis="axisRow" showAll="0" sortType="ascending">
-      <items count="16">
-        <item m="1" x="14"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="11" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="15">
     <i>
       <x v="1"/>
     </i>
@@ -5224,6 +6009,317 @@
       <x/>
     </i>
   </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of nor(IoS * dp)" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="88" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="I38:J51" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="11">
+    <pivotField axis="axisRow" showAll="0" sortType="ascending">
+      <items count="15">
+        <item x="1"/>
+        <item m="1" x="13"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item h="1" x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="11" showAll="0"/>
+    <pivotField dataField="1" numFmtId="11" showAll="0"/>
+    <pivotField numFmtId="11" showAll="0" defaultSubtotal="0"/>
+    <pivotField numFmtId="11" showAll="0" defaultSubtotal="0"/>
+    <pivotField numFmtId="11" showAll="0" defaultSubtotal="0"/>
+    <pivotField numFmtId="11" showAll="0" defaultSubtotal="0"/>
+    <pivotField numFmtId="11" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="13">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Nor(IoS*dp)" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="88" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+  <location ref="B38:C51" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="11">
+    <pivotField axis="axisRow" showAll="0" sortType="ascending">
+      <items count="15">
+        <item x="1"/>
+        <item m="1" x="13"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item h="1" x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="11" showAll="0" defaultSubtotal="0"/>
+    <pivotField numFmtId="11" showAll="0" defaultSubtotal="0"/>
+    <pivotField numFmtId="11" showAll="0" defaultSubtotal="0"/>
+    <pivotField numFmtId="11" showAll="0" defaultSubtotal="0"/>
+    <pivotField numFmtId="11" showAll="0" defaultSubtotal="0"/>
+    <pivotField numFmtId="11" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="13">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of IoS" fld="1" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="98" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="F38:H47" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="20">
+    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
+      <items count="8">
+        <item x="7"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" numFmtId="11" showAll="0" defaultSubtotal="0"/>
+    <pivotField numFmtId="11" showAll="0" defaultSubtotal="0"/>
+    <pivotField numFmtId="11" showAll="0" defaultSubtotal="0"/>
+    <pivotField numFmtId="11" showAll="0" defaultSubtotal="0"/>
+    <pivotField numFmtId="11" showAll="0" defaultSubtotal="0"/>
+    <pivotField numFmtId="11" showAll="0" defaultSubtotal="0"/>
+    <pivotField numFmtId="11" showAll="0" defaultSubtotal="0"/>
+    <pivotField numFmtId="11" showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" showAll="0" defaultSubtotal="0">
+      <items count="6">
+        <item x="5"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="0"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField numFmtId="11" showAll="0" defaultSubtotal="0"/>
+    <pivotField numFmtId="11" showAll="0" defaultSubtotal="0"/>
+    <pivotField numFmtId="11" showAll="0" defaultSubtotal="0"/>
+    <pivotField numFmtId="11" showAll="0" defaultSubtotal="0"/>
+    <pivotField numFmtId="11" showAll="0" defaultSubtotal="0"/>
+    <pivotField numFmtId="11" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="9">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
   <colFields count="1">
     <field x="-2"/>
   </colFields>
@@ -5236,11 +6332,11 @@
     </i>
   </colItems>
   <dataFields count="2">
-    <dataField name="Sum of IoS" fld="1" baseField="0" baseItem="0"/>
-    <dataField name="Sum of abs(dp)" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Sum of IoS Visco" fld="1" baseField="0" baseItem="0"/>
+    <dataField name="Sum of IoS Dens" fld="12" baseField="0" baseItem="0"/>
   </dataFields>
   <chartFormats count="2">
-    <chartFormat chart="0" format="0" series="1">
+    <chartFormat chart="0" format="2" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -5249,7 +6345,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="2" series="1">
+    <chartFormat chart="0" format="3" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -5531,20 +6627,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.44140625" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="1" max="1" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
@@ -5561,22 +6661,19 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="F1" t="s">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="G1" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I1" t="s">
-        <v>85</v>
-      </c>
-      <c r="J1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>4</v>
@@ -5584,583 +6681,648 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="E2">
+        <v>-2.4700000000000002</v>
+      </c>
+      <c r="F2">
+        <f>D2*ABS(E2)</f>
+        <v>2.4527100000000002</v>
+      </c>
+      <c r="G2">
+        <f>D2+ABS(E2)</f>
+        <v>3.4630000000000001</v>
+      </c>
+      <c r="H2">
+        <f>F2/$F$2</f>
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2">
-        <v>8</v>
-      </c>
-      <c r="D2">
-        <v>0.39300000000000002</v>
-      </c>
-      <c r="E2">
-        <v>-3.7400000000000003E-2</v>
-      </c>
-      <c r="F2">
-        <v>0.501</v>
-      </c>
-      <c r="G2">
-        <f>D2*ABS(E2)</f>
-        <v>1.4698200000000002E-2</v>
-      </c>
-      <c r="H2">
-        <f>D2+ABS(E2)</f>
-        <v>0.4304</v>
-      </c>
       <c r="I2">
-        <f>G2/$G$2</f>
+        <f>(D2/$D$2+E2/$E$2)/2</f>
         <v>1</v>
       </c>
-      <c r="J2">
-        <f>H2/$H$2</f>
-        <v>1</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="L2" s="3"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C3">
-        <v>12</v>
-      </c>
-      <c r="D3">
-        <v>0.375</v>
+        <v>4</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.874</v>
       </c>
       <c r="E3">
-        <v>-3.8800000000000001E-2</v>
+        <v>-2.83</v>
       </c>
       <c r="F3">
-        <v>0.502</v>
+        <f>D3*ABS(E3)</f>
+        <v>2.47342</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G12" si="0">D3*ABS(E3)</f>
-        <v>1.455E-2</v>
+        <f>D3+ABS(E3)</f>
+        <v>3.7040000000000002</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H12" si="1">D3+ABS(E3)</f>
-        <v>0.4138</v>
+        <f>F3/$F$2</f>
+        <v>1.008443721434658</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I12" si="2">G3/$G$2</f>
-        <v>0.98991713271012771</v>
-      </c>
-      <c r="J3">
-        <f t="shared" ref="J3:J12" si="3">H3/$H$2</f>
-        <v>0.96143122676579928</v>
+        <f>(D3/$D$2+E3/$E$2)/2</f>
+        <v>1.012955057874759</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C4">
-        <v>16</v>
-      </c>
-      <c r="D4">
-        <v>0.34799999999999998</v>
+        <v>6</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.81200000000000006</v>
       </c>
       <c r="E4">
-        <v>-4.07E-2</v>
+        <v>-3.16</v>
       </c>
       <c r="F4">
-        <v>0.503</v>
+        <f t="shared" ref="F4:F16" si="0">D4*ABS(E4)</f>
+        <v>2.5659200000000002</v>
       </c>
       <c r="G4">
-        <f t="shared" si="0"/>
-        <v>1.4163599999999998E-2</v>
+        <f t="shared" ref="G4:G16" si="1">D4+ABS(E4)</f>
+        <v>3.9720000000000004</v>
       </c>
       <c r="H4">
-        <f t="shared" si="1"/>
-        <v>0.38869999999999999</v>
+        <f t="shared" ref="H4:H16" si="2">F4/$F$2</f>
+        <v>1.046157107852131</v>
       </c>
       <c r="I4">
-        <f t="shared" si="2"/>
-        <v>0.96362819937135136</v>
-      </c>
-      <c r="J4">
-        <f t="shared" si="3"/>
-        <v>0.90311338289962817</v>
+        <f t="shared" ref="I4:I16" si="3">(D4/$D$2+E4/$E$2)/2</f>
+        <v>1.0485381476000015</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5">
-        <v>20</v>
-      </c>
-      <c r="D5">
-        <v>0.313</v>
+        <v>8</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.72599999999999998</v>
       </c>
       <c r="E5">
-        <v>-4.3299999999999998E-2</v>
+        <v>-3.58</v>
       </c>
       <c r="F5">
-        <v>0.503</v>
+        <f t="shared" si="0"/>
+        <v>2.5990799999999998</v>
       </c>
       <c r="G5">
-        <f t="shared" si="0"/>
-        <v>1.35529E-2</v>
+        <f t="shared" si="1"/>
+        <v>4.306</v>
       </c>
       <c r="H5">
-        <f t="shared" si="1"/>
-        <v>0.35630000000000001</v>
+        <f t="shared" si="2"/>
+        <v>1.0596768472424378</v>
       </c>
       <c r="I5">
-        <f t="shared" si="2"/>
-        <v>0.92207889401423293</v>
-      </c>
-      <c r="J5">
         <f t="shared" si="3"/>
-        <v>0.82783457249070636</v>
+        <v>1.0902552686620106</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C6">
-        <v>24</v>
-      </c>
-      <c r="D6">
-        <v>0.27500000000000002</v>
+        <v>10</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.623</v>
       </c>
       <c r="E6">
-        <v>-4.6600000000000003E-2</v>
+        <v>-4.12</v>
       </c>
       <c r="F6">
-        <v>0.503</v>
+        <f t="shared" si="0"/>
+        <v>2.5667599999999999</v>
       </c>
       <c r="G6">
-        <f t="shared" si="0"/>
-        <v>1.2815000000000002E-2</v>
+        <f t="shared" si="1"/>
+        <v>4.7430000000000003</v>
       </c>
       <c r="H6">
-        <f t="shared" si="1"/>
-        <v>0.3216</v>
+        <f t="shared" si="2"/>
+        <v>1.0464995861720301</v>
       </c>
       <c r="I6">
-        <f t="shared" si="2"/>
-        <v>0.87187546774434965</v>
-      </c>
-      <c r="J6">
         <f t="shared" si="3"/>
-        <v>0.74721189591078063</v>
-      </c>
-      <c r="L6" s="3"/>
+        <v>1.1477039682636756</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C7">
-        <v>28</v>
-      </c>
-      <c r="D7">
-        <v>0.23799999999999999</v>
+        <v>12</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.52100000000000002</v>
       </c>
       <c r="E7">
-        <v>-5.1200000000000002E-2</v>
+        <v>-4.83</v>
       </c>
       <c r="F7">
-        <v>0.502</v>
+        <f t="shared" si="0"/>
+        <v>2.5164300000000002</v>
       </c>
       <c r="G7">
-        <f t="shared" si="0"/>
-        <v>1.21856E-2</v>
+        <f t="shared" si="1"/>
+        <v>5.351</v>
       </c>
       <c r="H7">
-        <f t="shared" si="1"/>
-        <v>0.28920000000000001</v>
+        <f t="shared" si="2"/>
+        <v>1.0259794268380689</v>
       </c>
       <c r="I7">
-        <f t="shared" si="2"/>
-        <v>0.82905389775618776</v>
-      </c>
-      <c r="J7">
         <f t="shared" si="3"/>
-        <v>0.67193308550185871</v>
+        <v>1.2400691480036368</v>
       </c>
       <c r="L7" s="3"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C8">
-        <v>32</v>
-      </c>
-      <c r="D8">
-        <v>0.20300000000000001</v>
+        <v>14</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.432</v>
       </c>
       <c r="E8">
-        <v>-5.7299999999999997E-2</v>
+        <v>-5.74</v>
       </c>
       <c r="F8">
-        <v>0.5</v>
+        <f t="shared" si="0"/>
+        <v>2.4796800000000001</v>
       </c>
       <c r="G8">
-        <f t="shared" si="0"/>
-        <v>1.1631900000000001E-2</v>
+        <f t="shared" si="1"/>
+        <v>6.1720000000000006</v>
       </c>
       <c r="H8">
-        <f t="shared" si="1"/>
-        <v>0.26030000000000003</v>
+        <f t="shared" si="2"/>
+        <v>1.0109960003424783</v>
       </c>
       <c r="I8">
-        <f t="shared" si="2"/>
-        <v>0.79138261827978928</v>
-      </c>
-      <c r="J8">
         <f t="shared" si="3"/>
-        <v>0.60478624535315995</v>
-      </c>
+        <v>1.3794659784483285</v>
+      </c>
+      <c r="L8" s="3"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C9">
-        <v>36</v>
-      </c>
-      <c r="D9">
-        <v>0.17</v>
+        <v>16</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.35499999999999998</v>
       </c>
       <c r="E9">
-        <v>-6.5600000000000006E-2</v>
+        <v>-7.01</v>
       </c>
       <c r="F9">
-        <v>0.498</v>
+        <f t="shared" si="0"/>
+        <v>2.4885499999999996</v>
       </c>
       <c r="G9">
-        <f t="shared" si="0"/>
-        <v>1.1152000000000002E-2</v>
+        <f t="shared" si="1"/>
+        <v>7.3650000000000002</v>
       </c>
       <c r="H9">
-        <f t="shared" si="1"/>
-        <v>0.23560000000000003</v>
+        <f t="shared" si="2"/>
+        <v>1.0146124083156995</v>
       </c>
       <c r="I9">
-        <f t="shared" si="2"/>
-        <v>0.75873236178579695</v>
-      </c>
-      <c r="J9">
         <f t="shared" si="3"/>
-        <v>0.54739776951672869</v>
+        <v>1.5977795988926533</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C10">
-        <v>40</v>
-      </c>
-      <c r="D10">
-        <v>0.14099999999999999</v>
+        <v>18</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.28699999999999998</v>
       </c>
       <c r="E10">
-        <v>-7.7200000000000005E-2</v>
+        <v>-8.75</v>
       </c>
       <c r="F10">
-        <v>0.495</v>
+        <f t="shared" si="0"/>
+        <v>2.51125</v>
       </c>
       <c r="G10">
-        <f t="shared" si="0"/>
-        <v>1.0885199999999999E-2</v>
+        <f t="shared" si="1"/>
+        <v>9.0370000000000008</v>
       </c>
       <c r="H10">
-        <f t="shared" si="1"/>
-        <v>0.21820000000000001</v>
+        <f t="shared" si="2"/>
+        <v>1.0238674771986904</v>
       </c>
       <c r="I10">
-        <f t="shared" si="2"/>
-        <v>0.74058047924235604</v>
-      </c>
-      <c r="J10">
         <f t="shared" si="3"/>
-        <v>0.50697026022304836</v>
+        <v>1.9157666417962171</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C11">
-        <v>44</v>
-      </c>
-      <c r="D11">
-        <v>0.115</v>
+        <v>20</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.23</v>
       </c>
       <c r="E11">
-        <v>-9.35E-2</v>
+        <v>-11.1</v>
       </c>
       <c r="F11">
-        <v>0.49099999999999999</v>
+        <f t="shared" si="0"/>
+        <v>2.5529999999999999</v>
       </c>
       <c r="G11">
-        <f t="shared" si="0"/>
-        <v>1.07525E-2</v>
+        <f t="shared" si="1"/>
+        <v>11.33</v>
       </c>
       <c r="H11">
-        <f t="shared" si="1"/>
-        <v>0.20850000000000002</v>
+        <f t="shared" si="2"/>
+        <v>1.0408894651222524</v>
       </c>
       <c r="I11">
-        <f t="shared" si="2"/>
-        <v>0.73155216284987268</v>
-      </c>
-      <c r="J11">
         <f t="shared" si="3"/>
-        <v>0.48443308550185876</v>
+        <v>2.3627742374760978</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C12">
-        <v>48</v>
-      </c>
-      <c r="D12">
-        <v>9.0899999999999995E-2</v>
+        <v>22</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.18</v>
       </c>
       <c r="E12">
-        <v>-0.11700000000000001</v>
+        <v>-14.5</v>
       </c>
       <c r="F12">
-        <v>0.48699999999999999</v>
+        <f t="shared" si="0"/>
+        <v>2.61</v>
       </c>
       <c r="G12">
-        <f t="shared" si="0"/>
-        <v>1.06353E-2</v>
+        <f t="shared" si="1"/>
+        <v>14.68</v>
       </c>
       <c r="H12">
-        <f t="shared" si="1"/>
-        <v>0.2079</v>
+        <f t="shared" si="2"/>
+        <v>1.0641290654011275</v>
       </c>
       <c r="I12">
-        <f t="shared" si="2"/>
-        <v>0.72357839735477814</v>
-      </c>
-      <c r="J12">
         <f t="shared" si="3"/>
-        <v>0.48303903345724908</v>
+        <v>3.0258571131523904</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C13">
-        <v>52</v>
-      </c>
-      <c r="D13" t="s">
-        <v>28</v>
+        <v>24</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="E13">
+        <v>-19.3</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>2.6248000000000005</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>19.436</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="2"/>
+        <v>1.0701632072279235</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="3"/>
+        <v>3.9753619465815362</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14">
+        <v>26</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="E14">
+        <v>-26.3</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>2.6825999999999999</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>26.402000000000001</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="2"/>
+        <v>1.0937289773352739</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="3"/>
+        <v>5.3752461562924267</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14">
-        <v>56</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15">
         <v>28</v>
       </c>
-    </row>
-    <row r="21" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D21" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="E21" t="s">
-        <v>87</v>
-      </c>
-      <c r="F21" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="22" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D22" s="6">
+      <c r="D15" s="4">
+        <v>7.0699999999999999E-2</v>
+      </c>
+      <c r="E15">
+        <v>-37</v>
+      </c>
+      <c r="F15" s="4">
+        <f>D15*ABS(E15)</f>
+        <v>2.6158999999999999</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>37.070700000000002</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="2"/>
+        <v>1.066534567886134</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="3"/>
+        <v>7.5254777368706449</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16">
+        <v>32</v>
+      </c>
+      <c r="D16" s="4">
+        <v>4.7300000000000002E-2</v>
+      </c>
+      <c r="E16">
+        <v>-54.3</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>2.56839</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>54.347299999999997</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="2"/>
+        <v>1.0471641571975487</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="3"/>
+        <v>11.01571955102723</v>
+      </c>
+    </row>
+    <row r="22" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D22" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D23" s="6">
+        <v>0</v>
+      </c>
+      <c r="E23" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D24" s="6">
+        <v>4</v>
+      </c>
+      <c r="E24" s="7">
+        <v>1.008443721434658</v>
+      </c>
+    </row>
+    <row r="25" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D25" s="6">
+        <v>6</v>
+      </c>
+      <c r="E25" s="7">
+        <v>1.046157107852131</v>
+      </c>
+    </row>
+    <row r="26" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D26" s="6">
         <v>8</v>
       </c>
-      <c r="E22" s="7">
-        <v>1</v>
-      </c>
-      <c r="F22" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D23" s="6">
+      <c r="E26" s="7">
+        <v>1.0596768472424378</v>
+      </c>
+    </row>
+    <row r="27" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D27" s="6">
+        <v>10</v>
+      </c>
+      <c r="E27" s="7">
+        <v>1.0464995861720301</v>
+      </c>
+    </row>
+    <row r="28" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D28" s="6">
         <v>12</v>
       </c>
-      <c r="E23" s="7">
-        <v>0.98991713271012771</v>
-      </c>
-      <c r="F23" s="7">
-        <v>0.96143122676579928</v>
-      </c>
-    </row>
-    <row r="24" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D24" s="6">
+      <c r="E28" s="7">
+        <v>1.0259794268380689</v>
+      </c>
+    </row>
+    <row r="29" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D29" s="6">
+        <v>14</v>
+      </c>
+      <c r="E29" s="7">
+        <v>1.0109960003424783</v>
+      </c>
+    </row>
+    <row r="30" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D30" s="6">
         <v>16</v>
       </c>
-      <c r="E24" s="7">
-        <v>0.96362819937135136</v>
-      </c>
-      <c r="F24" s="7">
-        <v>0.90311338289962817</v>
-      </c>
-    </row>
-    <row r="25" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D25" s="6">
+      <c r="E30" s="7">
+        <v>1.0146124083156995</v>
+      </c>
+    </row>
+    <row r="31" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D31" s="6">
+        <v>18</v>
+      </c>
+      <c r="E31" s="7">
+        <v>1.0238674771986904</v>
+      </c>
+    </row>
+    <row r="32" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D32" s="6">
         <v>20</v>
       </c>
-      <c r="E25" s="7">
-        <v>0.92207889401423293</v>
-      </c>
-      <c r="F25" s="7">
-        <v>0.82783457249070636</v>
-      </c>
-    </row>
-    <row r="26" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D26" s="6">
+      <c r="E32" s="7">
+        <v>1.0408894651222524</v>
+      </c>
+    </row>
+    <row r="33" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D33" s="6">
+        <v>22</v>
+      </c>
+      <c r="E33" s="7">
+        <v>1.0641290654011275</v>
+      </c>
+    </row>
+    <row r="34" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D34" s="6">
         <v>24</v>
       </c>
-      <c r="E26" s="7">
-        <v>0.87187546774434965</v>
-      </c>
-      <c r="F26" s="7">
-        <v>0.74721189591078063</v>
-      </c>
-    </row>
-    <row r="27" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D27" s="6">
+      <c r="E34" s="7">
+        <v>1.0701632072279235</v>
+      </c>
+    </row>
+    <row r="35" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D35" s="6">
+        <v>26</v>
+      </c>
+      <c r="E35" s="7">
+        <v>1.0937289773352739</v>
+      </c>
+    </row>
+    <row r="36" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D36" s="6">
         <v>28</v>
       </c>
-      <c r="E27" s="7">
-        <v>0.82905389775618776</v>
-      </c>
-      <c r="F27" s="7">
-        <v>0.67193308550185871</v>
-      </c>
-    </row>
-    <row r="28" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D28" s="6">
+      <c r="E36" s="7">
+        <v>1.066534567886134</v>
+      </c>
+    </row>
+    <row r="37" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D37" s="6">
         <v>32</v>
       </c>
-      <c r="E28" s="7">
-        <v>0.79138261827978928</v>
-      </c>
-      <c r="F28" s="7">
-        <v>0.60478624535315995</v>
-      </c>
-    </row>
-    <row r="29" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D29" s="6">
-        <v>36</v>
-      </c>
-      <c r="E29" s="7">
-        <v>0.75873236178579695</v>
-      </c>
-      <c r="F29" s="7">
-        <v>0.54739776951672869</v>
-      </c>
-    </row>
-    <row r="30" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D30" s="6">
-        <v>40</v>
-      </c>
-      <c r="E30" s="7">
-        <v>0.74058047924235604</v>
-      </c>
-      <c r="F30" s="7">
-        <v>0.50697026022304836</v>
-      </c>
-    </row>
-    <row r="31" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D31" s="6">
-        <v>44</v>
-      </c>
-      <c r="E31" s="7">
-        <v>0.73155216284987268</v>
-      </c>
-      <c r="F31" s="7">
-        <v>0.48443308550185876</v>
-      </c>
-    </row>
-    <row r="32" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D32" s="6">
-        <v>48</v>
-      </c>
-      <c r="E32" s="7">
-        <v>0.72357839735477814</v>
-      </c>
-      <c r="F32" s="7">
-        <v>0.48303903345724908</v>
-      </c>
-    </row>
-    <row r="33" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D33" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="E33" s="7">
-        <v>9.3223796111088433</v>
-      </c>
-      <c r="F33" s="7">
-        <v>7.738150557620818</v>
+      <c r="E37" s="7">
+        <v>1.0471641571975487</v>
+      </c>
+    </row>
+    <row r="38" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D38" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E38" s="7">
+        <v>15.618842015566454</v>
       </c>
     </row>
   </sheetData>
@@ -6172,21 +7334,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R53"/>
+  <dimension ref="A1:Q53"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D4" sqref="D4:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="12.5546875" customWidth="1"/>
     <col min="3" max="3" width="10.109375" customWidth="1"/>
-    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="4" max="4" width="23" customWidth="1"/>
     <col min="5" max="8" width="13.44140625" customWidth="1"/>
     <col min="9" max="9" width="12.5546875" customWidth="1"/>
-    <col min="10" max="10" width="15.88671875" customWidth="1"/>
-    <col min="11" max="11" width="18" customWidth="1"/>
+    <col min="10" max="11" width="18" customWidth="1"/>
     <col min="12" max="12" width="16" customWidth="1"/>
     <col min="13" max="13" width="23" customWidth="1"/>
     <col min="14" max="16" width="18" customWidth="1"/>
@@ -6197,15 +7358,15 @@
     <col min="22" max="22" width="10.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -6214,792 +7375,704 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="M1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="4">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="E2">
+        <v>-2.4700000000000002</v>
+      </c>
+      <c r="F2" s="4">
+        <f>ABS(E2)</f>
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="G2" s="4">
+        <f>D2*ABS(E2)</f>
+        <v>2.4527100000000002</v>
+      </c>
+      <c r="H2" s="4">
+        <f>G2/$G$2</f>
+        <v>1</v>
+      </c>
+      <c r="I2" s="4">
+        <f>D2/$D$2</f>
+        <v>1</v>
+      </c>
+      <c r="J2" s="4">
+        <f>E2/$E$2</f>
+        <v>1</v>
+      </c>
+      <c r="K2" s="4">
+        <f t="shared" ref="K2" si="0">(I2+J2)/2</f>
+        <v>1</v>
+      </c>
+      <c r="L2" s="4">
+        <f>F2*(C2+20)</f>
+        <v>49.400000000000006</v>
+      </c>
+      <c r="M2" s="4">
+        <f>L2/$L$2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3">
+        <v>13</v>
+      </c>
+      <c r="D3" s="8">
+        <v>3.5699999999999998E-3</v>
+      </c>
+      <c r="E3" s="8">
+        <v>-66.5</v>
+      </c>
+      <c r="F3" s="4">
+        <f>ABS(E3)</f>
+        <v>66.5</v>
+      </c>
+      <c r="G3" s="4">
+        <f>D3*ABS(E3)</f>
+        <v>0.23740499999999998</v>
+      </c>
+      <c r="H3" s="4">
+        <f>G3/$G$2</f>
+        <v>9.6792935161515201E-2</v>
+      </c>
+      <c r="I3" s="4">
+        <f>D3/$D$2</f>
+        <v>3.5951661631419937E-3</v>
+      </c>
+      <c r="J3" s="4">
+        <f>E3/$E$2</f>
+        <v>26.92307692307692</v>
+      </c>
+      <c r="K3" s="4">
+        <f t="shared" ref="K3" si="1">(I3+J3)/2</f>
+        <v>13.46333604462003</v>
+      </c>
+      <c r="L3" s="4">
+        <f>F3*(C3+20)</f>
+        <v>2194.5</v>
+      </c>
+      <c r="M3" s="4">
+        <f>L3/$L$2</f>
+        <v>44.42307692307692</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q3" s="4"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="1">
+        <v>15</v>
+      </c>
+      <c r="D4" s="8">
+        <v>6.9199999999999999E-3</v>
+      </c>
+      <c r="E4" s="8">
+        <v>-65</v>
+      </c>
+      <c r="F4" s="4">
+        <f t="shared" ref="F4:F14" si="2">ABS(E4)</f>
+        <v>65</v>
+      </c>
+      <c r="G4" s="4">
+        <f t="shared" ref="G4:G14" si="3">D4*ABS(E4)</f>
+        <v>0.44979999999999998</v>
+      </c>
+      <c r="H4" s="4">
+        <f t="shared" ref="H4:H14" si="4">G4/$G$2</f>
+        <v>0.18338898606031692</v>
+      </c>
+      <c r="I4" s="4">
+        <f t="shared" ref="I4:I14" si="5">D4/$D$2</f>
+        <v>6.9687814702920443E-3</v>
+      </c>
+      <c r="J4" s="4">
+        <f t="shared" ref="J4:J14" si="6">E4/$E$2</f>
+        <v>26.315789473684209</v>
+      </c>
+      <c r="K4" s="4">
+        <f t="shared" ref="K4:K14" si="7">(I4+J4)/2</f>
+        <v>13.16137912757725</v>
+      </c>
+      <c r="L4" s="4">
+        <f t="shared" ref="L4:L14" si="8">F4*(C4+20)</f>
+        <v>2275</v>
+      </c>
+      <c r="M4" s="4">
+        <f t="shared" ref="M4:M14" si="9">L4/$L$2</f>
+        <v>46.052631578947363</v>
+      </c>
+      <c r="P4" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2">
-        <v>23</v>
-      </c>
-      <c r="D2" s="8">
-        <v>4.0899999999999999E-3</v>
-      </c>
-      <c r="E2" s="8">
-        <v>-0.28499999999999998</v>
-      </c>
-      <c r="F2" s="4">
-        <v>0.52</v>
-      </c>
-      <c r="G2" s="4">
-        <f t="shared" ref="G2:G15" si="0">ABS(E2)</f>
-        <v>0.28499999999999998</v>
-      </c>
-      <c r="H2" s="4">
-        <f t="shared" ref="H2:H15" si="1">D2*ABS(E2)</f>
-        <v>1.1656499999999998E-3</v>
-      </c>
-      <c r="I2" s="4">
-        <f t="shared" ref="I2:I15" si="2">H2/$H$2</f>
-        <v>1</v>
-      </c>
-      <c r="J2" s="4">
-        <f t="shared" ref="J2:J15" si="3">D2/$D$2</f>
-        <v>1</v>
-      </c>
-      <c r="K2" s="4">
-        <f t="shared" ref="K2:K15" si="4">E2/$E$2</f>
-        <v>1</v>
-      </c>
-      <c r="L2" s="4">
-        <f t="shared" ref="L2:L15" si="5">(J2+K2)/2</f>
-        <v>1</v>
-      </c>
-      <c r="M2" s="4">
-        <f>G2*(C2+20)</f>
-        <v>12.254999999999999</v>
-      </c>
-      <c r="N2" s="4">
-        <f>M2/$M$2</f>
-        <v>1</v>
-      </c>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3">
-        <v>24</v>
-      </c>
-      <c r="D3" s="8">
-        <v>5.2199999999999998E-3</v>
-      </c>
-      <c r="E3" s="8">
-        <v>-0.25900000000000001</v>
-      </c>
-      <c r="F3" s="4">
-        <v>0.49199999999999999</v>
-      </c>
-      <c r="G3" s="4">
-        <f t="shared" si="0"/>
-        <v>0.25900000000000001</v>
-      </c>
-      <c r="H3" s="4">
-        <f t="shared" si="1"/>
-        <v>1.35198E-3</v>
-      </c>
-      <c r="I3" s="4">
-        <f t="shared" si="2"/>
-        <v>1.1598507270621543</v>
-      </c>
-      <c r="J3" s="4">
-        <f t="shared" si="3"/>
-        <v>1.2762836185819071</v>
-      </c>
-      <c r="K3" s="4">
-        <f t="shared" si="4"/>
-        <v>0.90877192982456156</v>
-      </c>
-      <c r="L3" s="4">
-        <f t="shared" si="5"/>
-        <v>1.0925277742032344</v>
-      </c>
-      <c r="M3" s="4">
-        <f t="shared" ref="M3:M15" si="6">G3*(C3+20)</f>
-        <v>11.396000000000001</v>
-      </c>
-      <c r="N3" s="4">
-        <f t="shared" ref="N3:N15" si="7">M3/$M$2</f>
-        <v>0.92990616075071408</v>
-      </c>
-      <c r="Q3" s="4"/>
-      <c r="R3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4">
-        <v>25</v>
-      </c>
-      <c r="D4" s="8">
-        <v>6.3899999999999998E-3</v>
-      </c>
-      <c r="E4" s="8">
-        <v>-0.24299999999999999</v>
-      </c>
-      <c r="F4" s="4">
-        <v>0.48799999999999999</v>
-      </c>
-      <c r="G4" s="4">
-        <f t="shared" si="0"/>
-        <v>0.24299999999999999</v>
-      </c>
-      <c r="H4" s="4">
-        <f t="shared" si="1"/>
-        <v>1.55277E-3</v>
-      </c>
-      <c r="I4" s="4">
-        <f t="shared" si="2"/>
-        <v>1.332106549993566</v>
-      </c>
-      <c r="J4" s="4">
-        <f t="shared" si="3"/>
-        <v>1.5623471882640587</v>
-      </c>
-      <c r="K4" s="4">
-        <f t="shared" si="4"/>
-        <v>0.85263157894736852</v>
-      </c>
-      <c r="L4" s="4">
-        <f t="shared" si="5"/>
-        <v>1.2074893836057137</v>
-      </c>
-      <c r="M4" s="4">
-        <f t="shared" si="6"/>
-        <v>10.935</v>
-      </c>
-      <c r="N4" s="4">
-        <f t="shared" si="7"/>
-        <v>0.89228886168910659</v>
-      </c>
       <c r="Q4" s="4"/>
-      <c r="R4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" s="1">
-        <v>30</v>
+      <c r="B5" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="3">
+        <v>20</v>
       </c>
       <c r="D5" s="8">
         <v>1.2200000000000001E-2</v>
       </c>
       <c r="E5" s="8">
-        <v>-0.21199999999999999</v>
+        <v>-65.5</v>
       </c>
       <c r="F5" s="4">
-        <v>-0.48799999999999999</v>
+        <f t="shared" si="2"/>
+        <v>65.5</v>
       </c>
       <c r="G5" s="4">
-        <f t="shared" si="0"/>
-        <v>0.21199999999999999</v>
+        <f t="shared" si="3"/>
+        <v>0.79910000000000003</v>
       </c>
       <c r="H5" s="4">
-        <f t="shared" si="1"/>
-        <v>2.5864E-3</v>
+        <f t="shared" si="4"/>
+        <v>0.32580288741840657</v>
       </c>
       <c r="I5" s="4">
-        <f t="shared" si="2"/>
-        <v>2.2188478531291556</v>
+        <f t="shared" si="5"/>
+        <v>1.2286002014098692E-2</v>
       </c>
       <c r="J5" s="4">
-        <f t="shared" si="3"/>
-        <v>2.9828850855745723</v>
+        <f t="shared" si="6"/>
+        <v>26.518218623481779</v>
       </c>
       <c r="K5" s="4">
-        <f t="shared" si="4"/>
-        <v>0.74385964912280711</v>
+        <f t="shared" si="7"/>
+        <v>13.26525231274794</v>
       </c>
       <c r="L5" s="4">
-        <f t="shared" si="5"/>
-        <v>1.8633723673486897</v>
+        <f t="shared" si="8"/>
+        <v>2620</v>
       </c>
       <c r="M5" s="4">
-        <f t="shared" si="6"/>
-        <v>10.6</v>
-      </c>
-      <c r="N5" s="4">
-        <f t="shared" si="7"/>
-        <v>0.86495308037535701</v>
+        <f t="shared" si="9"/>
+        <v>53.036437246963558</v>
+      </c>
+      <c r="P5" t="s">
+        <v>28</v>
       </c>
       <c r="Q5" s="4"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C6">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D6" s="8">
-        <v>2.4199999999999999E-2</v>
+        <v>1.5599999999999999E-2</v>
       </c>
       <c r="E6" s="8">
-        <v>-0.20399999999999999</v>
+        <v>-61.5</v>
       </c>
       <c r="F6" s="4">
-        <v>0.48699999999999999</v>
+        <f t="shared" si="2"/>
+        <v>61.5</v>
       </c>
       <c r="G6" s="4">
-        <f t="shared" si="0"/>
-        <v>0.20399999999999999</v>
+        <f t="shared" si="3"/>
+        <v>0.95939999999999992</v>
       </c>
       <c r="H6" s="4">
-        <f t="shared" si="1"/>
-        <v>4.9367999999999999E-3</v>
+        <f t="shared" si="4"/>
+        <v>0.39115916679917312</v>
       </c>
       <c r="I6" s="4">
-        <f t="shared" si="2"/>
-        <v>4.2352335606743026</v>
+        <f t="shared" si="5"/>
+        <v>1.5709969788519636E-2</v>
       </c>
       <c r="J6" s="4">
-        <f t="shared" si="3"/>
-        <v>5.9168704156479217</v>
+        <f t="shared" si="6"/>
+        <v>24.898785425101213</v>
       </c>
       <c r="K6" s="4">
-        <f t="shared" si="4"/>
-        <v>0.71578947368421053</v>
+        <f t="shared" si="7"/>
+        <v>12.457247697444867</v>
       </c>
       <c r="L6" s="4">
-        <f t="shared" si="5"/>
-        <v>3.3163299446660659</v>
+        <f t="shared" si="8"/>
+        <v>2767.5</v>
       </c>
       <c r="M6" s="4">
-        <f t="shared" si="6"/>
-        <v>12.239999999999998</v>
-      </c>
-      <c r="N6" s="4">
-        <f t="shared" si="7"/>
-        <v>0.9987760097919216</v>
+        <f t="shared" si="9"/>
+        <v>56.022267206477729</v>
+      </c>
+      <c r="P6" t="s">
+        <v>90</v>
       </c>
       <c r="Q6" s="4"/>
-      <c r="R6" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C7">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D7" s="8">
-        <v>2.7E-2</v>
+        <v>1.7100000000000001E-2</v>
       </c>
       <c r="E7" s="8">
-        <v>-0.19</v>
+        <v>-56.6</v>
       </c>
       <c r="F7" s="4">
-        <v>0.48699999999999999</v>
+        <f t="shared" si="2"/>
+        <v>56.6</v>
       </c>
       <c r="G7" s="4">
-        <f t="shared" si="0"/>
-        <v>0.19</v>
+        <f t="shared" si="3"/>
+        <v>0.96786000000000005</v>
       </c>
       <c r="H7" s="4">
-        <f t="shared" si="1"/>
-        <v>5.13E-3</v>
+        <f t="shared" si="4"/>
+        <v>0.39460841273530095</v>
       </c>
       <c r="I7" s="4">
-        <f t="shared" si="2"/>
-        <v>4.4009779951100247</v>
+        <f t="shared" si="5"/>
+        <v>1.7220543806646525E-2</v>
       </c>
       <c r="J7" s="4">
-        <f t="shared" si="3"/>
-        <v>6.6014669926650367</v>
+        <f t="shared" si="6"/>
+        <v>22.914979757085018</v>
       </c>
       <c r="K7" s="4">
-        <f t="shared" si="4"/>
-        <v>0.66666666666666674</v>
+        <f t="shared" si="7"/>
+        <v>11.466100150445833</v>
       </c>
       <c r="L7" s="4">
-        <f t="shared" si="5"/>
-        <v>3.6340668296658518</v>
+        <f t="shared" si="8"/>
+        <v>2830</v>
       </c>
       <c r="M7" s="4">
-        <f t="shared" si="6"/>
-        <v>13.3</v>
-      </c>
-      <c r="N7" s="4">
-        <f t="shared" si="7"/>
-        <v>1.0852713178294575</v>
+        <f t="shared" si="9"/>
+        <v>57.287449392712546</v>
       </c>
       <c r="Q7" s="4"/>
-      <c r="R7" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C8">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="D8" s="8">
-        <v>2.7799999999999998E-2</v>
+        <v>1.8100000000000002E-2</v>
       </c>
       <c r="E8" s="8">
-        <v>-0.18099999999999999</v>
+        <v>-52</v>
       </c>
       <c r="F8" s="4">
-        <v>0.48599999999999999</v>
+        <f t="shared" si="2"/>
+        <v>52</v>
       </c>
       <c r="G8" s="4">
-        <f t="shared" si="0"/>
-        <v>0.18099999999999999</v>
+        <f t="shared" si="3"/>
+        <v>0.94120000000000004</v>
       </c>
       <c r="H8" s="4">
-        <f t="shared" si="1"/>
-        <v>5.0317999999999995E-3</v>
+        <f t="shared" si="4"/>
+        <v>0.38373880320135684</v>
       </c>
       <c r="I8" s="4">
-        <f t="shared" si="2"/>
-        <v>4.3167331531763393</v>
+        <f t="shared" si="5"/>
+        <v>1.8227593152064452E-2</v>
       </c>
       <c r="J8" s="4">
-        <f t="shared" si="3"/>
-        <v>6.7970660146699267</v>
+        <f t="shared" si="6"/>
+        <v>21.052631578947366</v>
       </c>
       <c r="K8" s="4">
-        <f t="shared" si="4"/>
-        <v>0.6350877192982457</v>
+        <f t="shared" si="7"/>
+        <v>10.535429586049716</v>
       </c>
       <c r="L8" s="4">
-        <f t="shared" si="5"/>
-        <v>3.716076866984086</v>
+        <f t="shared" si="8"/>
+        <v>2860</v>
       </c>
       <c r="M8" s="4">
-        <f t="shared" si="6"/>
-        <v>14.48</v>
-      </c>
-      <c r="N8" s="4">
-        <f t="shared" si="7"/>
-        <v>1.1815585475316199</v>
+        <f t="shared" si="9"/>
+        <v>57.894736842105253</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="Q8" s="4"/>
-      <c r="R8" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C9">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="D9" s="8">
-        <v>2.7799999999999998E-2</v>
+        <v>1.8800000000000001E-2</v>
       </c>
       <c r="E9" s="8">
-        <v>-0.17399999999999999</v>
+        <v>-47.8</v>
       </c>
       <c r="F9" s="4">
-        <v>0.48499999999999999</v>
+        <f t="shared" si="2"/>
+        <v>47.8</v>
       </c>
       <c r="G9" s="4">
-        <f t="shared" si="0"/>
-        <v>0.17399999999999999</v>
+        <f t="shared" si="3"/>
+        <v>0.89863999999999999</v>
       </c>
       <c r="H9" s="4">
-        <f t="shared" si="1"/>
-        <v>4.837199999999999E-3</v>
+        <f t="shared" si="4"/>
+        <v>0.36638656832646338</v>
       </c>
       <c r="I9" s="4">
-        <f t="shared" si="2"/>
-        <v>4.1497876721142708</v>
+        <f t="shared" si="5"/>
+        <v>1.8932527693857001E-2</v>
       </c>
       <c r="J9" s="4">
-        <f t="shared" si="3"/>
-        <v>6.7970660146699267</v>
+        <f t="shared" si="6"/>
+        <v>19.352226720647771</v>
       </c>
       <c r="K9" s="4">
-        <f t="shared" si="4"/>
-        <v>0.61052631578947369</v>
+        <f t="shared" si="7"/>
+        <v>9.6855796241708134</v>
       </c>
       <c r="L9" s="4">
-        <f t="shared" si="5"/>
-        <v>3.7037961652297002</v>
+        <f t="shared" si="8"/>
+        <v>2868</v>
       </c>
       <c r="M9" s="4">
-        <f t="shared" si="6"/>
-        <v>15.659999999999998</v>
-      </c>
-      <c r="N9" s="4">
-        <f t="shared" si="7"/>
-        <v>1.2778457772337821</v>
+        <f t="shared" si="9"/>
+        <v>58.056680161943312</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="Q9" s="4"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C10">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="D10" s="8">
-        <v>2.8000000000000001E-2</v>
+        <v>1.8800000000000001E-2</v>
       </c>
       <c r="E10" s="8">
-        <v>-0.16800000000000001</v>
+        <v>-39.700000000000003</v>
       </c>
       <c r="F10" s="4">
-        <v>0.48499999999999999</v>
+        <f t="shared" si="2"/>
+        <v>39.700000000000003</v>
       </c>
       <c r="G10" s="4">
-        <f t="shared" si="0"/>
-        <v>0.16800000000000001</v>
+        <f t="shared" si="3"/>
+        <v>0.74636000000000013</v>
       </c>
       <c r="H10" s="4">
-        <f t="shared" si="1"/>
-        <v>4.7040000000000007E-3</v>
+        <f t="shared" si="4"/>
+        <v>0.30430014147616313</v>
       </c>
       <c r="I10" s="4">
-        <f t="shared" si="2"/>
-        <v>4.0355166645219418</v>
+        <f t="shared" si="5"/>
+        <v>1.8932527693857001E-2</v>
       </c>
       <c r="J10" s="4">
-        <f t="shared" si="3"/>
-        <v>6.8459657701711496</v>
+        <f t="shared" si="6"/>
+        <v>16.072874493927124</v>
       </c>
       <c r="K10" s="4">
-        <f t="shared" si="4"/>
-        <v>0.58947368421052637</v>
+        <f t="shared" si="7"/>
+        <v>8.0459035108104899</v>
       </c>
       <c r="L10" s="4">
-        <f t="shared" si="5"/>
-        <v>3.717719727190838</v>
+        <f t="shared" si="8"/>
+        <v>2779</v>
       </c>
       <c r="M10" s="4">
-        <f t="shared" si="6"/>
-        <v>16.8</v>
-      </c>
-      <c r="N10" s="4">
-        <f t="shared" si="7"/>
-        <v>1.3708690330477358</v>
+        <f t="shared" si="9"/>
+        <v>56.25506072874493</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="Q10" s="4"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C11">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="D11" s="8">
-        <v>2.8400000000000002E-2</v>
+        <v>1.9199999999999998E-2</v>
       </c>
       <c r="E11" s="8">
-        <v>-0.158</v>
+        <v>-33.700000000000003</v>
       </c>
       <c r="F11" s="4">
-        <v>0.48299999999999998</v>
+        <f t="shared" si="2"/>
+        <v>33.700000000000003</v>
       </c>
       <c r="G11" s="4">
-        <f t="shared" si="0"/>
-        <v>0.158</v>
+        <f t="shared" si="3"/>
+        <v>0.64703999999999995</v>
       </c>
       <c r="H11" s="4">
-        <f t="shared" si="1"/>
-        <v>4.4872000000000002E-3</v>
+        <f t="shared" si="4"/>
+        <v>0.26380615727093698</v>
       </c>
       <c r="I11" s="4">
-        <f t="shared" si="2"/>
-        <v>3.8495260155278177</v>
+        <f t="shared" si="5"/>
+        <v>1.9335347432024169E-2</v>
       </c>
       <c r="J11" s="4">
-        <f t="shared" si="3"/>
-        <v>6.9437652811735946</v>
+        <f t="shared" si="6"/>
+        <v>13.643724696356275</v>
       </c>
       <c r="K11" s="4">
-        <f t="shared" si="4"/>
-        <v>0.55438596491228076</v>
+        <f t="shared" si="7"/>
+        <v>6.8315300218941495</v>
       </c>
       <c r="L11" s="4">
-        <f t="shared" si="5"/>
-        <v>3.7490756230429376</v>
+        <f t="shared" si="8"/>
+        <v>2696</v>
       </c>
       <c r="M11" s="4">
-        <f t="shared" si="6"/>
-        <v>18.96</v>
-      </c>
-      <c r="N11" s="4">
-        <f t="shared" si="7"/>
-        <v>1.5471236230110161</v>
+        <f t="shared" si="9"/>
+        <v>54.574898785425098</v>
       </c>
       <c r="Q11" s="4"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C12">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="D12" s="8">
-        <v>2.92E-2</v>
+        <v>1.9400000000000001E-2</v>
       </c>
       <c r="E12" s="8">
-        <v>-0.14799999999999999</v>
+        <v>-28</v>
       </c>
       <c r="F12" s="4">
-        <v>0.48199999999999998</v>
+        <f t="shared" si="2"/>
+        <v>28</v>
       </c>
       <c r="G12" s="4">
-        <f t="shared" si="0"/>
-        <v>0.14799999999999999</v>
+        <f t="shared" si="3"/>
+        <v>0.54320000000000002</v>
       </c>
       <c r="H12" s="4">
-        <f t="shared" si="1"/>
-        <v>4.3216000000000001E-3</v>
+        <f t="shared" si="4"/>
+        <v>0.22146931353482474</v>
       </c>
       <c r="I12" s="4">
-        <f t="shared" si="2"/>
-        <v>3.7074593574400554</v>
+        <f t="shared" si="5"/>
+        <v>1.9536757301107755E-2</v>
       </c>
       <c r="J12" s="4">
-        <f t="shared" si="3"/>
-        <v>7.1393643031784846</v>
+        <f t="shared" si="6"/>
+        <v>11.336032388663966</v>
       </c>
       <c r="K12" s="4">
-        <f t="shared" si="4"/>
-        <v>0.51929824561403515</v>
+        <f t="shared" si="7"/>
+        <v>5.6777845729825369</v>
       </c>
       <c r="L12" s="4">
-        <f t="shared" si="5"/>
-        <v>3.8293312743962598</v>
+        <f t="shared" si="8"/>
+        <v>2520</v>
       </c>
       <c r="M12" s="4">
-        <f t="shared" si="6"/>
-        <v>20.72</v>
-      </c>
-      <c r="N12" s="4">
-        <f t="shared" si="7"/>
-        <v>1.6907384740922073</v>
+        <f t="shared" si="9"/>
+        <v>51.012145748987848</v>
       </c>
       <c r="Q12" s="4"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C13">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="D13" s="8">
-        <v>3.04E-2</v>
+        <v>1.83E-2</v>
       </c>
       <c r="E13" s="8">
-        <v>-0.13900000000000001</v>
+        <v>-22.2</v>
       </c>
       <c r="F13" s="4">
-        <v>0.48</v>
+        <f t="shared" si="2"/>
+        <v>22.2</v>
       </c>
       <c r="G13" s="4">
-        <f t="shared" si="0"/>
-        <v>0.13900000000000001</v>
+        <f t="shared" si="3"/>
+        <v>0.40626000000000001</v>
       </c>
       <c r="H13" s="4">
-        <f t="shared" si="1"/>
-        <v>4.2256000000000004E-3</v>
+        <f t="shared" si="4"/>
+        <v>0.16563719314554104</v>
       </c>
       <c r="I13" s="4">
-        <f t="shared" si="2"/>
-        <v>3.6251018744906283</v>
+        <f t="shared" si="5"/>
+        <v>1.8429003021148038E-2</v>
       </c>
       <c r="J13" s="4">
-        <f t="shared" si="3"/>
-        <v>7.4327628361858196</v>
+        <f t="shared" si="6"/>
+        <v>8.9878542510121449</v>
       </c>
       <c r="K13" s="4">
-        <f t="shared" si="4"/>
-        <v>0.48771929824561411</v>
+        <f t="shared" si="7"/>
+        <v>4.5031416270166469</v>
       </c>
       <c r="L13" s="4">
-        <f t="shared" si="5"/>
-        <v>3.9602410672157169</v>
+        <f t="shared" si="8"/>
+        <v>2220</v>
       </c>
       <c r="M13" s="4">
-        <f t="shared" si="6"/>
-        <v>22.240000000000002</v>
-      </c>
-      <c r="N13" s="4">
-        <f t="shared" si="7"/>
-        <v>1.8147694818441455</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>44.939271255060724</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C14">
-        <v>160</v>
+        <v>90</v>
       </c>
       <c r="D14" s="8">
-        <v>3.1600000000000003E-2</v>
+        <v>1.5599999999999999E-2</v>
       </c>
       <c r="E14" s="8">
-        <v>-0.129</v>
+        <v>-16.100000000000001</v>
       </c>
       <c r="F14" s="4">
-        <v>0.48</v>
+        <f t="shared" si="2"/>
+        <v>16.100000000000001</v>
       </c>
       <c r="G14" s="4">
-        <f t="shared" si="0"/>
-        <v>0.129</v>
+        <f t="shared" si="3"/>
+        <v>0.25115999999999999</v>
       </c>
       <c r="H14" s="4">
-        <f t="shared" si="1"/>
-        <v>4.0764000000000009E-3</v>
+        <f t="shared" si="4"/>
+        <v>0.10240101764986484</v>
       </c>
       <c r="I14" s="4">
-        <f t="shared" si="2"/>
-        <v>3.4971046197400604</v>
+        <f t="shared" si="5"/>
+        <v>1.5709969788519636E-2</v>
       </c>
       <c r="J14" s="4">
-        <f t="shared" si="3"/>
-        <v>7.7261613691931554</v>
+        <f t="shared" si="6"/>
+        <v>6.5182186234817818</v>
       </c>
       <c r="K14" s="4">
-        <f t="shared" si="4"/>
-        <v>0.4526315789473685</v>
+        <f t="shared" si="7"/>
+        <v>3.2669642966351509</v>
       </c>
       <c r="L14" s="4">
-        <f t="shared" si="5"/>
-        <v>4.089396474070262</v>
+        <f t="shared" si="8"/>
+        <v>1771.0000000000002</v>
       </c>
       <c r="M14" s="4">
-        <f t="shared" si="6"/>
-        <v>23.22</v>
-      </c>
-      <c r="N14" s="4">
-        <f t="shared" si="7"/>
-        <v>1.8947368421052633</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>72</v>
-      </c>
-      <c r="C15">
-        <v>180</v>
-      </c>
-      <c r="D15" s="8">
-        <v>3.0200000000000001E-2</v>
-      </c>
-      <c r="E15" s="8">
-        <v>-0.121</v>
-      </c>
-      <c r="F15" s="4">
-        <v>0.48599999999999999</v>
-      </c>
-      <c r="G15" s="4">
-        <f t="shared" si="0"/>
-        <v>0.121</v>
-      </c>
-      <c r="H15" s="4">
-        <f t="shared" si="1"/>
-        <v>3.6542000000000002E-3</v>
-      </c>
-      <c r="I15" s="4">
-        <f t="shared" si="2"/>
-        <v>3.1349032728520574</v>
-      </c>
-      <c r="J15" s="4">
-        <f t="shared" si="3"/>
-        <v>7.3838630806845966</v>
-      </c>
-      <c r="K15" s="4">
-        <f t="shared" si="4"/>
-        <v>0.42456140350877197</v>
-      </c>
-      <c r="L15" s="4">
-        <f t="shared" si="5"/>
-        <v>3.9042122420966843</v>
-      </c>
-      <c r="M15" s="4">
-        <f t="shared" si="6"/>
-        <v>24.2</v>
-      </c>
-      <c r="N15" s="4">
-        <f t="shared" si="7"/>
-        <v>1.9747042023663812</v>
-      </c>
+        <f t="shared" si="9"/>
+        <v>35.850202429149796</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
     </row>
     <row r="23" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H23" s="7"/>
@@ -7063,43 +8136,31 @@
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B38" s="5" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C38" t="s">
-        <v>75</v>
-      </c>
-      <c r="D38" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="H38" s="7"/>
       <c r="I38" s="5" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="J38" t="s">
-        <v>91</v>
-      </c>
-      <c r="K38" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B39" s="6">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C39" s="7">
-        <v>4.0899999999999999E-3</v>
-      </c>
-      <c r="D39" s="7">
-        <v>0.28499999999999998</v>
+        <v>3.5699999999999998E-3</v>
       </c>
       <c r="I39" s="6">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="J39" s="7">
-        <v>1</v>
-      </c>
-      <c r="K39" s="7">
-        <v>1</v>
+        <v>9.6792935161515201E-2</v>
       </c>
       <c r="N39" s="7"/>
       <c r="O39" s="7"/>
@@ -7107,22 +8168,16 @@
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B40" s="6">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C40" s="7">
-        <v>5.2199999999999998E-3</v>
-      </c>
-      <c r="D40" s="7">
-        <v>0.25900000000000001</v>
+        <v>6.9199999999999999E-3</v>
       </c>
       <c r="I40" s="6">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="J40" s="7">
-        <v>0.92990616075071408</v>
-      </c>
-      <c r="K40" s="7">
-        <v>1.1598507270621543</v>
+        <v>0.18338898606031692</v>
       </c>
       <c r="N40" s="7"/>
       <c r="O40" s="7"/>
@@ -7130,22 +8185,16 @@
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B41" s="6">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C41" s="7">
-        <v>6.3899999999999998E-3</v>
-      </c>
-      <c r="D41" s="7">
-        <v>0.24299999999999999</v>
+        <v>1.2200000000000001E-2</v>
       </c>
       <c r="I41" s="6">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J41" s="7">
-        <v>0.89228886168910659</v>
-      </c>
-      <c r="K41" s="7">
-        <v>1.332106549993566</v>
+        <v>0.32580288741840657</v>
       </c>
       <c r="N41" s="7"/>
       <c r="O41" s="7"/>
@@ -7153,22 +8202,16 @@
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B42" s="6">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C42" s="7">
-        <v>1.2200000000000001E-2</v>
-      </c>
-      <c r="D42" s="7">
-        <v>0.21199999999999999</v>
+        <v>1.5599999999999999E-2</v>
       </c>
       <c r="I42" s="6">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="J42" s="7">
-        <v>0.86495308037535701</v>
-      </c>
-      <c r="K42" s="7">
-        <v>2.2188478531291556</v>
+        <v>0.39115916679917312</v>
       </c>
       <c r="N42" s="7"/>
       <c r="O42" s="7"/>
@@ -7176,22 +8219,16 @@
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B43" s="6">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C43" s="7">
-        <v>2.4199999999999999E-2</v>
-      </c>
-      <c r="D43" s="7">
-        <v>0.20399999999999999</v>
+        <v>1.7100000000000001E-2</v>
       </c>
       <c r="I43" s="6">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="J43" s="7">
-        <v>0.9987760097919216</v>
-      </c>
-      <c r="K43" s="7">
-        <v>4.2352335606743026</v>
+        <v>0.39460841273530095</v>
       </c>
       <c r="N43" s="7"/>
       <c r="O43" s="7"/>
@@ -7199,22 +8236,16 @@
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B44" s="6">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C44" s="7">
-        <v>2.7E-2</v>
-      </c>
-      <c r="D44" s="7">
-        <v>0.19</v>
+        <v>1.8100000000000002E-2</v>
       </c>
       <c r="I44" s="6">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="J44" s="7">
-        <v>1.0852713178294575</v>
-      </c>
-      <c r="K44" s="7">
-        <v>4.4009779951100247</v>
+        <v>0.38373880320135684</v>
       </c>
       <c r="N44" s="7"/>
       <c r="O44" s="7"/>
@@ -7222,22 +8253,16 @@
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B45" s="6">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C45" s="7">
-        <v>2.7799999999999998E-2</v>
-      </c>
-      <c r="D45" s="7">
-        <v>0.18099999999999999</v>
+        <v>1.8800000000000001E-2</v>
       </c>
       <c r="I45" s="6">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="J45" s="7">
-        <v>1.1815585475316199</v>
-      </c>
-      <c r="K45" s="7">
-        <v>4.3167331531763393</v>
+        <v>0.36638656832646338</v>
       </c>
       <c r="N45" s="7"/>
       <c r="O45" s="7"/>
@@ -7245,22 +8270,16 @@
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B46" s="6">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="C46" s="7">
-        <v>2.7799999999999998E-2</v>
-      </c>
-      <c r="D46" s="7">
-        <v>0.17399999999999999</v>
+        <v>1.8800000000000001E-2</v>
       </c>
       <c r="I46" s="6">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="J46" s="7">
-        <v>1.2778457772337821</v>
-      </c>
-      <c r="K46" s="7">
-        <v>4.1497876721142708</v>
+        <v>0.30430014147616313</v>
       </c>
       <c r="N46" s="7"/>
       <c r="O46" s="7"/>
@@ -7268,22 +8287,16 @@
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B47" s="6">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="C47" s="7">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="D47" s="7">
-        <v>0.16800000000000001</v>
+        <v>1.9199999999999998E-2</v>
       </c>
       <c r="I47" s="6">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="J47" s="7">
-        <v>1.3708690330477358</v>
-      </c>
-      <c r="K47" s="7">
-        <v>4.0355166645219418</v>
+        <v>0.26380615727093698</v>
       </c>
       <c r="N47" s="7"/>
       <c r="O47" s="7"/>
@@ -7291,22 +8304,16 @@
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B48" s="6">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="C48" s="7">
-        <v>2.8400000000000002E-2</v>
-      </c>
-      <c r="D48" s="7">
-        <v>0.158</v>
+        <v>1.9400000000000001E-2</v>
       </c>
       <c r="I48" s="6">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="J48" s="7">
-        <v>1.5471236230110161</v>
-      </c>
-      <c r="K48" s="7">
-        <v>3.8495260155278177</v>
+        <v>0.22146931353482474</v>
       </c>
       <c r="N48" s="7"/>
       <c r="O48" s="7"/>
@@ -7314,22 +8321,16 @@
     </row>
     <row r="49" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B49" s="6">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="C49" s="7">
-        <v>2.92E-2</v>
-      </c>
-      <c r="D49" s="7">
-        <v>0.14799999999999999</v>
+        <v>1.83E-2</v>
       </c>
       <c r="I49" s="6">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="J49" s="7">
-        <v>1.6907384740922073</v>
-      </c>
-      <c r="K49" s="7">
-        <v>3.7074593574400554</v>
+        <v>0.16563719314554104</v>
       </c>
       <c r="N49" s="7"/>
       <c r="O49" s="7"/>
@@ -7337,92 +8338,44 @@
     </row>
     <row r="50" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B50" s="6">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="C50" s="7">
-        <v>3.04E-2</v>
-      </c>
-      <c r="D50" s="7">
-        <v>0.13900000000000001</v>
+        <v>1.5599999999999999E-2</v>
       </c>
       <c r="I50" s="6">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="J50" s="7">
-        <v>1.8147694818441455</v>
-      </c>
-      <c r="K50" s="7">
-        <v>3.6251018744906283</v>
+        <v>0.10240101764986484</v>
       </c>
       <c r="N50" s="7"/>
       <c r="O50" s="7"/>
       <c r="P50" s="7"/>
     </row>
     <row r="51" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B51" s="6">
-        <v>160</v>
+      <c r="B51" s="6" t="s">
+        <v>65</v>
       </c>
       <c r="C51" s="7">
-        <v>3.1600000000000003E-2</v>
-      </c>
-      <c r="D51" s="7">
-        <v>0.129</v>
-      </c>
-      <c r="I51" s="6">
-        <v>160</v>
+        <v>0.18359000000000003</v>
+      </c>
+      <c r="I51" s="6" t="s">
+        <v>65</v>
       </c>
       <c r="J51" s="7">
-        <v>1.8947368421052633</v>
-      </c>
-      <c r="K51" s="7">
-        <v>3.4971046197400604</v>
+        <v>3.1994915827798636</v>
       </c>
       <c r="N51" s="7"/>
       <c r="O51" s="7"/>
       <c r="P51" s="7"/>
     </row>
     <row r="52" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B52" s="6">
-        <v>180</v>
-      </c>
-      <c r="C52" s="7">
-        <v>3.0200000000000001E-2</v>
-      </c>
-      <c r="D52" s="7">
-        <v>0.121</v>
-      </c>
-      <c r="I52" s="6">
-        <v>180</v>
-      </c>
-      <c r="J52" s="7">
-        <v>1.9747042023663812</v>
-      </c>
-      <c r="K52" s="7">
-        <v>3.1349032728520574</v>
-      </c>
       <c r="N52" s="7"/>
       <c r="O52" s="7"/>
       <c r="P52" s="7"/>
     </row>
     <row r="53" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B53" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C53" s="7">
-        <v>0.3125</v>
-      </c>
-      <c r="D53" s="7">
-        <v>2.6109999999999998</v>
-      </c>
-      <c r="I53" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="J53" s="7">
-        <v>18.523541411668706</v>
-      </c>
-      <c r="K53" s="7">
-        <v>44.663149315832371</v>
-      </c>
       <c r="N53" s="7"/>
       <c r="O53" s="7"/>
       <c r="P53" s="7"/>
@@ -7436,10 +8389,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F2"/>
+      <selection sqref="A1:J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7447,640 +8400,561 @@
     <col min="1" max="1" width="5.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.77734375" customWidth="1"/>
-    <col min="8" max="8" width="13.5546875" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.77734375" customWidth="1"/>
+    <col min="7" max="7" width="13.5546875" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>92</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="8">
+        <v>6.9199999999999999E-3</v>
+      </c>
+      <c r="D2" s="8">
+        <v>-65</v>
+      </c>
+      <c r="E2" s="4">
+        <f>ABS(D2)</f>
+        <v>65</v>
+      </c>
+      <c r="F2" s="4">
+        <f>C2*ABS(D2)</f>
+        <v>0.44979999999999998</v>
+      </c>
+      <c r="G2" s="4">
+        <f>F2/$F$2</f>
+        <v>1</v>
+      </c>
+      <c r="H2" s="4">
+        <f>C2/$C$2</f>
+        <v>1</v>
+      </c>
+      <c r="I2" s="4">
+        <f>D2/$D$2</f>
+        <v>1</v>
+      </c>
+      <c r="J2" s="4">
+        <f t="shared" ref="J2:J15" si="0">(H2+I2)/2</f>
+        <v>1</v>
+      </c>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8">
+        <v>1.1299999999999999E-2</v>
+      </c>
+      <c r="D3" s="8">
+        <v>-148</v>
+      </c>
+      <c r="E3" s="4">
+        <f>ABS(D3)</f>
+        <v>148</v>
+      </c>
+      <c r="F3" s="4">
+        <f>C3*ABS(D3)</f>
+        <v>1.6723999999999999</v>
+      </c>
+      <c r="G3" s="4">
+        <f>F3/$F$2</f>
+        <v>3.7180969319697641</v>
+      </c>
+      <c r="H3" s="4">
+        <f>C3/$C$2</f>
+        <v>1.6329479768786126</v>
+      </c>
+      <c r="I3" s="4">
+        <f>D3/$D$2</f>
+        <v>2.2769230769230768</v>
+      </c>
+      <c r="J3" s="4">
+        <f t="shared" si="0"/>
+        <v>1.9549355269008446</v>
+      </c>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="8">
+        <v>2.1600000000000001E-2</v>
+      </c>
+      <c r="D4" s="8">
+        <v>-219</v>
+      </c>
+      <c r="E4" s="4">
+        <f>ABS(D4)</f>
+        <v>219</v>
+      </c>
+      <c r="F4" s="4">
+        <f>C4*ABS(D4)</f>
+        <v>4.7304000000000004</v>
+      </c>
+      <c r="G4" s="4">
+        <f>F4/$F$2</f>
+        <v>10.516674077367721</v>
+      </c>
+      <c r="H4" s="4">
+        <f>C4/$C$2</f>
+        <v>3.1213872832369942</v>
+      </c>
+      <c r="I4" s="4">
+        <f>D4/$D$2</f>
+        <v>3.3692307692307693</v>
+      </c>
+      <c r="J4" s="4">
+        <f t="shared" si="0"/>
+        <v>3.2453090262338815</v>
+      </c>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="8">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="D5" s="8">
+        <v>-279</v>
+      </c>
+      <c r="E5" s="4">
+        <f>ABS(D5)</f>
+        <v>279</v>
+      </c>
+      <c r="F5" s="4">
+        <f>C5*ABS(D5)</f>
+        <v>9.4860000000000007</v>
+      </c>
+      <c r="G5" s="4">
+        <f>F5/$F$2</f>
+        <v>21.089373054690977</v>
+      </c>
+      <c r="H5" s="4">
+        <f>C5/$C$2</f>
+        <v>4.913294797687862</v>
+      </c>
+      <c r="I5" s="4">
+        <f>D5/$D$2</f>
+        <v>4.2923076923076922</v>
+      </c>
+      <c r="J5" s="4">
+        <f t="shared" si="0"/>
+        <v>4.6028012449977771</v>
+      </c>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3">
+        <v>4</v>
+      </c>
+      <c r="C6" s="8">
+        <v>4.7899999999999998E-2</v>
+      </c>
+      <c r="D6" s="8">
+        <v>-328</v>
+      </c>
+      <c r="E6" s="4">
+        <f>ABS(D6)</f>
+        <v>328</v>
+      </c>
+      <c r="F6" s="4">
+        <f>C6*ABS(D6)</f>
+        <v>15.7112</v>
+      </c>
+      <c r="G6" s="4">
+        <f>F6/$F$2</f>
+        <v>34.92930191196087</v>
+      </c>
+      <c r="H6" s="4">
+        <f>C6/$C$2</f>
+        <v>6.9219653179190752</v>
+      </c>
+      <c r="I6" s="4">
+        <f>D6/$D$2</f>
+        <v>5.046153846153846</v>
+      </c>
+      <c r="J6" s="4">
+        <f t="shared" si="0"/>
+        <v>5.9840595820364602</v>
+      </c>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3">
+        <v>5</v>
+      </c>
+      <c r="C7" s="8">
+        <v>6.2700000000000006E-2</v>
+      </c>
+      <c r="D7" s="8">
+        <v>-365</v>
+      </c>
+      <c r="E7" s="4">
+        <f>ABS(D7)</f>
+        <v>365</v>
+      </c>
+      <c r="F7" s="4">
+        <f>C7*ABS(D7)</f>
+        <v>22.8855</v>
+      </c>
+      <c r="G7" s="4">
+        <f>F7/$F$2</f>
+        <v>50.879279679857717</v>
+      </c>
+      <c r="H7" s="4">
+        <f>C7/$C$2</f>
+        <v>9.0606936416184976</v>
+      </c>
+      <c r="I7" s="4">
+        <f>D7/$D$2</f>
+        <v>5.615384615384615</v>
+      </c>
+      <c r="J7" s="4">
+        <f t="shared" si="0"/>
+        <v>7.3380391285015563</v>
+      </c>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>0.2</v>
-      </c>
-      <c r="D2" s="8">
-        <v>1.2200000000000001E-2</v>
-      </c>
-      <c r="E2" s="8">
-        <v>-0.21199999999999999</v>
-      </c>
-      <c r="F2" s="4">
-        <v>-0.48799999999999999</v>
-      </c>
-      <c r="G2" s="4">
-        <f t="shared" ref="G2:G15" si="0">ABS(E2)</f>
-        <v>0.21199999999999999</v>
-      </c>
-      <c r="H2" s="4">
-        <f t="shared" ref="H2:H15" si="1">D2*ABS(E2)</f>
-        <v>2.5864E-3</v>
-      </c>
-      <c r="I2" s="4">
-        <f t="shared" ref="I2:I15" si="2">H2/$H$2</f>
-        <v>1</v>
-      </c>
-      <c r="J2" s="4">
-        <f t="shared" ref="J2:J15" si="3">D2/$D$2</f>
-        <v>1</v>
-      </c>
-      <c r="K2" s="4">
-        <f t="shared" ref="K2:K15" si="4">E2/$E$2</f>
-        <v>1</v>
-      </c>
-      <c r="L2" s="4">
-        <f t="shared" ref="L2:L15" si="5">(J2+K2)/2</f>
-        <v>1</v>
-      </c>
-      <c r="M2" s="4">
-        <f>G2*(C2+20)</f>
-        <v>4.24</v>
-      </c>
-      <c r="N2" s="4">
-        <f>M2/$M$2</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>0.15</v>
-      </c>
-      <c r="D3" s="8">
-        <v>5.47E-3</v>
-      </c>
-      <c r="E3" s="8">
-        <v>0.23499999999999999</v>
-      </c>
-      <c r="F3" s="4">
-        <v>0.47799999999999998</v>
-      </c>
-      <c r="G3" s="4">
-        <f t="shared" si="0"/>
-        <v>0.23499999999999999</v>
-      </c>
-      <c r="H3" s="4">
-        <f t="shared" si="1"/>
-        <v>1.2854499999999998E-3</v>
-      </c>
-      <c r="I3" s="4">
-        <f t="shared" si="2"/>
-        <v>0.49700355706773885</v>
-      </c>
-      <c r="J3" s="4">
-        <f t="shared" si="3"/>
-        <v>0.44836065573770489</v>
-      </c>
-      <c r="K3" s="4">
-        <f t="shared" si="4"/>
-        <v>-1.1084905660377358</v>
-      </c>
-      <c r="L3" s="4">
-        <f t="shared" si="5"/>
-        <v>-0.33006495515001544</v>
-      </c>
-      <c r="M3" s="4">
-        <f>G3*(C3+20)</f>
-        <v>4.6999999999999993</v>
-      </c>
-      <c r="N3" s="4">
-        <f t="shared" ref="N3:N15" si="6">M3/$M$2</f>
-        <v>1.1084905660377355</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4">
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="4">
+        <f>ABS(D8)</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="4">
+        <f>C8*ABS(D8)</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="4">
+        <f>F8/$F$2</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
+        <f>C8/$C$2</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <f>D8/$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H4" s="4">
-        <f t="shared" si="1"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="4">
+        <f>ABS(D9)</f>
         <v>0</v>
       </c>
-      <c r="I4" s="4">
-        <f t="shared" si="2"/>
+      <c r="F9" s="4">
+        <f>C9*ABS(D9)</f>
         <v>0</v>
       </c>
-      <c r="J4" s="4">
-        <f t="shared" si="3"/>
+      <c r="G9" s="4">
+        <f>F9/$F$2</f>
         <v>0</v>
       </c>
-      <c r="K4" s="4">
-        <f t="shared" si="4"/>
+      <c r="H9" s="4">
+        <f>C9/$C$2</f>
         <v>0</v>
       </c>
-      <c r="L4" s="4">
-        <f t="shared" si="5"/>
+      <c r="I9" s="4">
+        <f>D9/$D$2</f>
         <v>0</v>
       </c>
-      <c r="M4" s="4">
-        <f>G4*(C4+20)</f>
-        <v>0</v>
-      </c>
-      <c r="N4" s="4">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4">
+      <c r="J9" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H5" s="4">
-        <f t="shared" si="1"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="4">
+        <f>ABS(D10)</f>
         <v>0</v>
       </c>
-      <c r="I5" s="4">
-        <f t="shared" si="2"/>
+      <c r="F10" s="4">
+        <f>C10*ABS(D10)</f>
         <v>0</v>
       </c>
-      <c r="J5" s="4">
-        <f t="shared" si="3"/>
+      <c r="G10" s="4">
+        <f>F10/$F$2</f>
         <v>0</v>
       </c>
-      <c r="K5" s="4">
-        <f t="shared" si="4"/>
+      <c r="H10" s="4">
+        <f>C10/$C$2</f>
         <v>0</v>
       </c>
-      <c r="L5" s="4">
-        <f t="shared" si="5"/>
+      <c r="I10" s="4">
+        <f>D10/$D$2</f>
         <v>0</v>
       </c>
-      <c r="M5" s="4">
-        <f>G5*(C5+20)</f>
-        <v>0</v>
-      </c>
-      <c r="N5" s="4">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4">
+      <c r="J10" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H6" s="4">
-        <f t="shared" si="1"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="4">
+        <f>ABS(D11)</f>
         <v>0</v>
       </c>
-      <c r="I6" s="4">
-        <f t="shared" si="2"/>
+      <c r="F11" s="4">
+        <f>C11*ABS(D11)</f>
         <v>0</v>
       </c>
-      <c r="J6" s="4">
-        <f t="shared" si="3"/>
+      <c r="G11" s="4">
+        <f>F11/$F$2</f>
         <v>0</v>
       </c>
-      <c r="K6" s="4">
-        <f t="shared" si="4"/>
+      <c r="H11" s="4">
+        <f>C11/$C$2</f>
         <v>0</v>
       </c>
-      <c r="L6" s="4">
-        <f t="shared" si="5"/>
+      <c r="I11" s="4">
+        <f>D11/$D$2</f>
         <v>0</v>
       </c>
-      <c r="M6" s="4">
-        <f>G6*(C6+20)</f>
-        <v>0</v>
-      </c>
-      <c r="N6" s="4">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4">
+      <c r="J11" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H7" s="4">
-        <f t="shared" si="1"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="C12" s="8">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="D12" s="8">
+        <v>169</v>
+      </c>
+      <c r="E12" s="4">
+        <f>ABS(D12)</f>
+        <v>169</v>
+      </c>
+      <c r="F12" s="4">
+        <f>C12*ABS(D12)</f>
+        <v>39.377000000000002</v>
+      </c>
+      <c r="G12" s="4">
+        <f>F12/$F$2</f>
+        <v>87.543352601156073</v>
+      </c>
+      <c r="H12" s="4">
+        <f>C12/$C$2</f>
+        <v>33.670520231213878</v>
+      </c>
+      <c r="I12" s="4">
+        <f>D12/$D$2</f>
+        <v>-2.6</v>
+      </c>
+      <c r="J12" s="4">
+        <f t="shared" si="0"/>
+        <v>15.535260115606938</v>
+      </c>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="C13" s="8">
+        <v>3.0800000000000001E-2</v>
+      </c>
+      <c r="D13" s="8">
+        <v>-172</v>
+      </c>
+      <c r="E13" s="4">
+        <f>ABS(D13)</f>
+        <v>172</v>
+      </c>
+      <c r="F13" s="4">
+        <f>C13*ABS(D13)</f>
+        <v>5.2976000000000001</v>
+      </c>
+      <c r="G13" s="4">
+        <f>F13/$F$2</f>
+        <v>11.777678968430415</v>
+      </c>
+      <c r="H13" s="4">
+        <f>C13/$C$2</f>
+        <v>4.4508670520231215</v>
+      </c>
+      <c r="I13" s="4">
+        <f>D13/$D$2</f>
+        <v>2.6461538461538461</v>
+      </c>
+      <c r="J13" s="4">
+        <f t="shared" si="0"/>
+        <v>3.548510449088484</v>
+      </c>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="4">
+        <f>ABS(D14)</f>
         <v>0</v>
       </c>
-      <c r="I7" s="4">
-        <f t="shared" si="2"/>
+      <c r="F14" s="4">
+        <f>C14*ABS(D14)</f>
         <v>0</v>
       </c>
-      <c r="J7" s="4">
-        <f t="shared" si="3"/>
+      <c r="G14" s="4">
+        <f>F14/$F$2</f>
         <v>0</v>
       </c>
-      <c r="K7" s="4">
-        <f t="shared" si="4"/>
+      <c r="H14" s="4">
+        <f>C14/$C$2</f>
         <v>0</v>
       </c>
-      <c r="L7" s="4">
-        <f t="shared" si="5"/>
+      <c r="I14" s="4">
+        <f>D14/$D$2</f>
         <v>0</v>
       </c>
-      <c r="M7" s="4">
-        <f>G7*(C7+20)</f>
-        <v>0</v>
-      </c>
-      <c r="N7" s="4">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4">
+      <c r="J14" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H8" s="4">
-        <f t="shared" si="1"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="4">
+        <f>ABS(D15)</f>
         <v>0</v>
       </c>
-      <c r="I8" s="4">
-        <f t="shared" si="2"/>
+      <c r="F15" s="4">
+        <f>C15*ABS(D15)</f>
         <v>0</v>
       </c>
-      <c r="J8" s="4">
-        <f t="shared" si="3"/>
+      <c r="G15" s="4">
+        <f>F15/$F$2</f>
         <v>0</v>
       </c>
-      <c r="K8" s="4">
-        <f t="shared" si="4"/>
+      <c r="H15" s="4">
+        <f>C15/$C$2</f>
         <v>0</v>
       </c>
-      <c r="L8" s="4">
-        <f t="shared" si="5"/>
+      <c r="I15" s="4">
+        <f>D15/$D$2</f>
         <v>0</v>
       </c>
-      <c r="M8" s="4">
-        <f>G8*(C8+20)</f>
-        <v>0</v>
-      </c>
-      <c r="N8" s="4">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4">
+      <c r="J15" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H9" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I9" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J9" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K9" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L9" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M9" s="4">
-        <f>G9*(C9+20)</f>
-        <v>0</v>
-      </c>
-      <c r="N9" s="4">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H10" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I10" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J10" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K10" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L10" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M10" s="4">
-        <f>G10*(C10+20)</f>
-        <v>0</v>
-      </c>
-      <c r="N10" s="4">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H11" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I11" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J11" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K11" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L11" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M11" s="4">
-        <f>G11*(C11+20)</f>
-        <v>0</v>
-      </c>
-      <c r="N11" s="4">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H12" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I12" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J12" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K12" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L12" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M12" s="4">
-        <f>G12*(C12+20)</f>
-        <v>0</v>
-      </c>
-      <c r="N12" s="4">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H13" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I13" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J13" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K13" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L13" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M13" s="4">
-        <f>G13*(C13+20)</f>
-        <v>0</v>
-      </c>
-      <c r="N13" s="4">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H14" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I14" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K14" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L14" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M14" s="4">
-        <f>G14*(C14+20)</f>
-        <v>0</v>
-      </c>
-      <c r="N14" s="4">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H15" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I15" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J15" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K15" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L15" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M15" s="4">
-        <f>G15*(C15+20)</f>
-        <v>0</v>
-      </c>
-      <c r="N15" s="4">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8092,34 +8966,34 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D2" s="3">
         <v>2.9999999999999997E-4</v>
@@ -8128,18 +9002,18 @@
         <v>-0.124</v>
       </c>
       <c r="F2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D3">
         <v>9.3700000000000006E-2</v>
@@ -8148,7 +9022,7 @@
         <v>-9.1899999999999996E-2</v>
       </c>
       <c r="F3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H3">
         <f>D3-D2</f>
@@ -8157,10 +9031,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D4">
         <v>0.108</v>
@@ -8169,7 +9043,7 @@
         <v>-0.10299999999999999</v>
       </c>
       <c r="F4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H4">
         <f>D4-D3</f>
@@ -8178,10 +9052,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D5">
         <v>0.12</v>
@@ -8190,7 +9064,7 @@
         <v>-0.109</v>
       </c>
       <c r="F5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="H5">
         <f>D5-D4</f>
@@ -8199,10 +9073,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D6">
         <v>0.129</v>
@@ -8211,7 +9085,7 @@
         <v>-0.112</v>
       </c>
       <c r="F6" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H6">
         <f>D6-D5</f>
@@ -8220,10 +9094,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D7">
         <v>0.13300000000000001</v>
@@ -8232,36 +9106,41 @@
         <v>-0.114</v>
       </c>
       <c r="F7" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H7">
         <f>D7-D6</f>
         <v>4.0000000000000036E-3</v>
       </c>
     </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>92</v>
+      </c>
+    </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D15" s="3">
         <v>0.16600000000000001</v>
@@ -8270,18 +9149,18 @@
         <v>-9.35</v>
       </c>
       <c r="F15" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H15" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D16">
         <v>0.23</v>
@@ -8299,10 +9178,10 @@
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D17">
         <v>0.27</v>
@@ -8320,10 +9199,10 @@
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C18" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D18">
         <v>0.3</v>
@@ -8341,26 +9220,34 @@
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C19" t="s">
-        <v>54</v>
+        <v>49</v>
+      </c>
+      <c r="D19">
+        <v>0.31900000000000001</v>
+      </c>
+      <c r="E19">
+        <v>10.8</v>
+      </c>
+      <c r="F19">
+        <v>1008</v>
       </c>
       <c r="H19">
         <f>D19-D18</f>
-        <v>-0.3</v>
+        <v>1.9000000000000017E-2</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C20" t="s">
-        <v>57</v>
-      </c>
-      <c r="H20">
-        <f>D20-D19</f>
-        <v>0</v>
+        <v>52</v>
+      </c>
+      <c r="F20" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -8369,6 +9256,1217 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="9.77734375" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" customWidth="1"/>
+    <col min="7" max="7" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.77734375" customWidth="1"/>
+    <col min="13" max="13" width="8.88671875" style="9"/>
+    <col min="17" max="17" width="9.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1000</v>
+      </c>
+      <c r="C2">
+        <v>1E-3</v>
+      </c>
+      <c r="D2">
+        <f>B2*$P$2*$P$3/C2</f>
+        <v>10000</v>
+      </c>
+      <c r="E2" s="8">
+        <v>1.2200000000000001E-2</v>
+      </c>
+      <c r="F2" s="8">
+        <v>-65.5</v>
+      </c>
+      <c r="G2" s="4">
+        <f>ABS(F2)</f>
+        <v>65.5</v>
+      </c>
+      <c r="H2" s="4">
+        <f>E2*ABS(F2)</f>
+        <v>0.79910000000000003</v>
+      </c>
+      <c r="I2" s="4">
+        <f>H2/$H$2</f>
+        <v>1</v>
+      </c>
+      <c r="J2" s="4">
+        <f>E2/$E$2</f>
+        <v>1</v>
+      </c>
+      <c r="K2" s="4">
+        <f>F2/$F$2</f>
+        <v>1</v>
+      </c>
+      <c r="L2" s="4">
+        <f t="shared" ref="L2:L15" si="0">(J2+K2)/2</f>
+        <v>1</v>
+      </c>
+      <c r="O2" t="s">
+        <v>96</v>
+      </c>
+      <c r="P2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2000</v>
+      </c>
+      <c r="C3">
+        <v>2E-3</v>
+      </c>
+      <c r="D3">
+        <f>B3*$P$2*$P$3/C3</f>
+        <v>10000</v>
+      </c>
+      <c r="E3" s="8">
+        <v>1.23E-2</v>
+      </c>
+      <c r="F3" s="8">
+        <v>-131</v>
+      </c>
+      <c r="G3" s="4">
+        <f>ABS(F3)</f>
+        <v>131</v>
+      </c>
+      <c r="H3" s="4">
+        <f>E3*ABS(F3)</f>
+        <v>1.6113</v>
+      </c>
+      <c r="I3" s="4">
+        <f>H3/$H$2</f>
+        <v>2.0163934426229506</v>
+      </c>
+      <c r="J3" s="4">
+        <f>E3/$E$2</f>
+        <v>1.0081967213114753</v>
+      </c>
+      <c r="K3" s="4">
+        <f>F3/$F$2</f>
+        <v>2</v>
+      </c>
+      <c r="L3" s="4">
+        <f t="shared" si="0"/>
+        <v>1.5040983606557377</v>
+      </c>
+      <c r="O3" t="s">
+        <v>97</v>
+      </c>
+      <c r="P3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3000</v>
+      </c>
+      <c r="C4">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D4">
+        <f>B4*$P$2*$P$3/C4</f>
+        <v>10000</v>
+      </c>
+      <c r="E4" s="8">
+        <v>1.2200000000000001E-2</v>
+      </c>
+      <c r="F4" s="8">
+        <v>-197</v>
+      </c>
+      <c r="G4" s="4">
+        <f>ABS(F4)</f>
+        <v>197</v>
+      </c>
+      <c r="H4" s="4">
+        <f>E4*ABS(F4)</f>
+        <v>2.4034</v>
+      </c>
+      <c r="I4" s="4">
+        <f>H4/$H$2</f>
+        <v>3.0076335877862594</v>
+      </c>
+      <c r="J4" s="4">
+        <f>E4/$E$2</f>
+        <v>1</v>
+      </c>
+      <c r="K4" s="4">
+        <f>F4/$F$2</f>
+        <v>3.0076335877862594</v>
+      </c>
+      <c r="L4" s="4">
+        <f t="shared" si="0"/>
+        <v>2.0038167938931295</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>500</v>
+      </c>
+      <c r="C5">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="D5">
+        <f>B5*$P$2*$P$3/C5</f>
+        <v>10000</v>
+      </c>
+      <c r="E5" s="8">
+        <v>1.2200000000000001E-2</v>
+      </c>
+      <c r="F5" s="8">
+        <v>-32.799999999999997</v>
+      </c>
+      <c r="G5" s="4">
+        <f>ABS(F5)</f>
+        <v>32.799999999999997</v>
+      </c>
+      <c r="H5" s="4">
+        <f>E5*ABS(F5)</f>
+        <v>0.40016000000000002</v>
+      </c>
+      <c r="I5" s="4">
+        <f>H5/$H$2</f>
+        <v>0.50076335877862599</v>
+      </c>
+      <c r="J5" s="4">
+        <f>E5/$E$2</f>
+        <v>1</v>
+      </c>
+      <c r="K5" s="4">
+        <f>F5/$F$2</f>
+        <v>0.50076335877862588</v>
+      </c>
+      <c r="L5" s="4">
+        <f t="shared" si="0"/>
+        <v>0.75038167938931299</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>1000</v>
+      </c>
+      <c r="C8">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="D8">
+        <f>B8*$P$2*$P$3/C8</f>
+        <v>20000</v>
+      </c>
+      <c r="E8" s="8">
+        <v>1.18E-2</v>
+      </c>
+      <c r="F8" s="8">
+        <v>-65.900000000000006</v>
+      </c>
+      <c r="G8" s="4">
+        <f>ABS(F8)</f>
+        <v>65.900000000000006</v>
+      </c>
+      <c r="H8" s="4">
+        <f>E8*ABS(F8)</f>
+        <v>0.77762000000000009</v>
+      </c>
+      <c r="I8" s="4">
+        <f>H8/$H$2</f>
+        <v>0.973119759729696</v>
+      </c>
+      <c r="J8" s="4">
+        <f>E8/$E$2</f>
+        <v>0.96721311475409832</v>
+      </c>
+      <c r="K8" s="4">
+        <f>F8/$F$2</f>
+        <v>1.0061068702290077</v>
+      </c>
+      <c r="L8" s="4">
+        <f t="shared" si="0"/>
+        <v>0.98665999249155301</v>
+      </c>
+      <c r="M8" s="9">
+        <v>2000</v>
+      </c>
+      <c r="N8">
+        <v>1E-3</v>
+      </c>
+      <c r="O8">
+        <f>M8*$P$2*$P$3/N8</f>
+        <v>20000</v>
+      </c>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="4">
+        <f>ABS(Q8)</f>
+        <v>0</v>
+      </c>
+      <c r="S8" s="4">
+        <f>P8*ABS(Q8)</f>
+        <v>0</v>
+      </c>
+      <c r="T8" s="4">
+        <f>S8/$H$2</f>
+        <v>0</v>
+      </c>
+      <c r="U8" s="4">
+        <f>P8/$E$2</f>
+        <v>0</v>
+      </c>
+      <c r="V8" s="4">
+        <f>Q8/$F$2</f>
+        <v>0</v>
+      </c>
+      <c r="W8" s="4">
+        <f>(U8+V8)/2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>1000</v>
+      </c>
+      <c r="C9">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="D9">
+        <f>B9*$P$2*$P$3/C9</f>
+        <v>50000</v>
+      </c>
+      <c r="E9" s="8">
+        <v>1.2200000000000001E-2</v>
+      </c>
+      <c r="F9" s="8">
+        <v>-66</v>
+      </c>
+      <c r="G9" s="4">
+        <f>ABS(F9)</f>
+        <v>66</v>
+      </c>
+      <c r="H9" s="4">
+        <f>E9*ABS(F9)</f>
+        <v>0.80520000000000003</v>
+      </c>
+      <c r="I9" s="4">
+        <f>H9/$H$2</f>
+        <v>1.0076335877862594</v>
+      </c>
+      <c r="J9" s="4">
+        <f>E9/$E$2</f>
+        <v>1</v>
+      </c>
+      <c r="K9" s="4">
+        <f>F9/$F$2</f>
+        <v>1.0076335877862594</v>
+      </c>
+      <c r="L9" s="4">
+        <f t="shared" ref="L9" si="1">(J9+K9)/2</f>
+        <v>1.0038167938931297</v>
+      </c>
+      <c r="M9" s="9">
+        <v>5000</v>
+      </c>
+      <c r="N9">
+        <v>1E-3</v>
+      </c>
+      <c r="O9">
+        <f>M9*$P$2*$P$3/N9</f>
+        <v>50000</v>
+      </c>
+      <c r="P9" s="8">
+        <v>1.23E-2</v>
+      </c>
+      <c r="Q9" s="8">
+        <v>-330</v>
+      </c>
+      <c r="R9" s="4">
+        <f>ABS(Q9)</f>
+        <v>330</v>
+      </c>
+      <c r="S9" s="4">
+        <f>P9*ABS(Q9)</f>
+        <v>4.0590000000000002</v>
+      </c>
+      <c r="T9" s="4">
+        <f>S9/$H$2</f>
+        <v>5.0794643974471283</v>
+      </c>
+      <c r="U9" s="4">
+        <f>P9/$E$2</f>
+        <v>1.0081967213114753</v>
+      </c>
+      <c r="V9" s="4">
+        <f>Q9/$F$2</f>
+        <v>5.0381679389312977</v>
+      </c>
+      <c r="W9" s="4">
+        <f>(U9+V9)/2</f>
+        <v>3.0231823301213865</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>1000</v>
+      </c>
+      <c r="C10">
+        <v>1E-4</v>
+      </c>
+      <c r="D10">
+        <f>B10*$P$2*$P$3/C10</f>
+        <v>100000</v>
+      </c>
+      <c r="E10" s="8">
+        <v>1.18E-2</v>
+      </c>
+      <c r="F10" s="8">
+        <v>-65.900000000000006</v>
+      </c>
+      <c r="G10" s="4">
+        <f>ABS(F10)</f>
+        <v>65.900000000000006</v>
+      </c>
+      <c r="H10" s="4">
+        <f>E10*ABS(F10)</f>
+        <v>0.77762000000000009</v>
+      </c>
+      <c r="I10" s="4">
+        <f>H10/$H$2</f>
+        <v>0.973119759729696</v>
+      </c>
+      <c r="J10" s="4">
+        <f>E10/$E$2</f>
+        <v>0.96721311475409832</v>
+      </c>
+      <c r="K10" s="4">
+        <f>F10/$F$2</f>
+        <v>1.0061068702290077</v>
+      </c>
+      <c r="L10" s="4">
+        <f t="shared" si="0"/>
+        <v>0.98665999249155301</v>
+      </c>
+      <c r="M10" s="9">
+        <v>10000</v>
+      </c>
+      <c r="N10">
+        <v>1E-3</v>
+      </c>
+      <c r="O10">
+        <f>M10*$P$2*$P$3/N10</f>
+        <v>100000</v>
+      </c>
+      <c r="P10" s="8">
+        <v>1.23E-2</v>
+      </c>
+      <c r="Q10" s="8">
+        <v>-658</v>
+      </c>
+      <c r="R10" s="4">
+        <f>ABS(Q10)</f>
+        <v>658</v>
+      </c>
+      <c r="S10" s="4">
+        <f>P10*ABS(Q10)</f>
+        <v>8.0934000000000008</v>
+      </c>
+      <c r="T10" s="4">
+        <f>S10/$H$2</f>
+        <v>10.128144162182457</v>
+      </c>
+      <c r="U10" s="4">
+        <f>P10/$E$2</f>
+        <v>1.0081967213114753</v>
+      </c>
+      <c r="V10" s="4">
+        <f>Q10/$F$2</f>
+        <v>10.045801526717558</v>
+      </c>
+      <c r="W10" s="4">
+        <f>(U10+V10)/2</f>
+        <v>5.526999124014516</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>1000</v>
+      </c>
+      <c r="C11">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D11">
+        <f>B11*$P$2*$P$3/C11</f>
+        <v>999999.99999999988</v>
+      </c>
+      <c r="E11" s="8">
+        <v>1.14E-2</v>
+      </c>
+      <c r="F11" s="8">
+        <v>-65.599999999999994</v>
+      </c>
+      <c r="G11" s="4">
+        <f>ABS(F11)</f>
+        <v>65.599999999999994</v>
+      </c>
+      <c r="H11" s="4">
+        <f>E11*ABS(F11)</f>
+        <v>0.74783999999999995</v>
+      </c>
+      <c r="I11" s="4">
+        <f>H11/$H$2</f>
+        <v>0.93585283443874345</v>
+      </c>
+      <c r="J11" s="4">
+        <f>E11/$E$2</f>
+        <v>0.93442622950819665</v>
+      </c>
+      <c r="K11" s="4">
+        <f>F11/$F$2</f>
+        <v>1.0015267175572518</v>
+      </c>
+      <c r="L11" s="4">
+        <f t="shared" si="0"/>
+        <v>0.9679764735327242</v>
+      </c>
+      <c r="M11" s="9">
+        <v>100000</v>
+      </c>
+      <c r="N11">
+        <v>1E-3</v>
+      </c>
+      <c r="O11">
+        <f>M11*$P$2*$P$3/N11</f>
+        <v>1000000</v>
+      </c>
+      <c r="P11" s="8">
+        <v>1.1900000000000001E-2</v>
+      </c>
+      <c r="Q11" s="8">
+        <v>-6560</v>
+      </c>
+      <c r="R11" s="4">
+        <f>ABS(Q11)</f>
+        <v>6560</v>
+      </c>
+      <c r="S11" s="4">
+        <f>P11*ABS(Q11)</f>
+        <v>78.064000000000007</v>
+      </c>
+      <c r="T11" s="4">
+        <f>S11/$H$2</f>
+        <v>97.689901138781138</v>
+      </c>
+      <c r="U11" s="4">
+        <f>P11/$E$2</f>
+        <v>0.97540983606557374</v>
+      </c>
+      <c r="V11" s="4">
+        <f>Q11/$F$2</f>
+        <v>100.15267175572519</v>
+      </c>
+      <c r="W11" s="4">
+        <f>(U11+V11)/2</f>
+        <v>50.564040795895387</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>1000</v>
+      </c>
+      <c r="C12">
+        <v>2E-3</v>
+      </c>
+      <c r="D12">
+        <f>B12*$P$2*$P$3/C12</f>
+        <v>5000</v>
+      </c>
+      <c r="E12" s="8">
+        <v>1.34E-2</v>
+      </c>
+      <c r="F12" s="8">
+        <v>-66.400000000000006</v>
+      </c>
+      <c r="G12" s="4">
+        <f>ABS(F12)</f>
+        <v>66.400000000000006</v>
+      </c>
+      <c r="H12" s="4">
+        <f>E12*ABS(F12)</f>
+        <v>0.88976000000000011</v>
+      </c>
+      <c r="I12" s="4">
+        <f>H12/$H$2</f>
+        <v>1.1134526342134903</v>
+      </c>
+      <c r="J12" s="4">
+        <f>E12/$E$2</f>
+        <v>1.0983606557377048</v>
+      </c>
+      <c r="K12" s="4">
+        <f>F12/$F$2</f>
+        <v>1.0137404580152674</v>
+      </c>
+      <c r="L12" s="4">
+        <f t="shared" ref="L12" si="2">(J12+K12)/2</f>
+        <v>1.0560505568764862</v>
+      </c>
+      <c r="M12" s="9">
+        <v>500</v>
+      </c>
+      <c r="N12">
+        <v>1E-3</v>
+      </c>
+      <c r="O12">
+        <f>M12*$P$2*$P$3/N12</f>
+        <v>5000</v>
+      </c>
+      <c r="P12" s="8">
+        <v>1.34E-2</v>
+      </c>
+      <c r="Q12" s="8">
+        <v>-33.200000000000003</v>
+      </c>
+      <c r="R12" s="4">
+        <f>ABS(Q12)</f>
+        <v>33.200000000000003</v>
+      </c>
+      <c r="S12" s="4">
+        <f>P12*ABS(Q12)</f>
+        <v>0.44488000000000005</v>
+      </c>
+      <c r="T12" s="4">
+        <f>S12/$H$2</f>
+        <v>0.55672631710674514</v>
+      </c>
+      <c r="U12" s="4">
+        <f>P12/$E$2</f>
+        <v>1.0983606557377048</v>
+      </c>
+      <c r="V12" s="4">
+        <f>Q12/$F$2</f>
+        <v>0.50687022900763368</v>
+      </c>
+      <c r="W12" s="4">
+        <f>(U12+V12)/2</f>
+        <v>0.80261544237266924</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>8</v>
+      </c>
+      <c r="B13">
+        <v>1000</v>
+      </c>
+      <c r="C13">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D13">
+        <f>B13*$P$2*$P$3/C13</f>
+        <v>2000</v>
+      </c>
+      <c r="E13" s="8">
+        <v>1.4200000000000001E-2</v>
+      </c>
+      <c r="F13" s="8">
+        <v>-70.099999999999994</v>
+      </c>
+      <c r="G13" s="4">
+        <f>ABS(F13)</f>
+        <v>70.099999999999994</v>
+      </c>
+      <c r="H13" s="4">
+        <f>E13*ABS(F13)</f>
+        <v>0.99541999999999997</v>
+      </c>
+      <c r="I13" s="4">
+        <f>H13/$H$2</f>
+        <v>1.245676385934176</v>
+      </c>
+      <c r="J13" s="4">
+        <f>E13/$E$2</f>
+        <v>1.1639344262295082</v>
+      </c>
+      <c r="K13" s="4">
+        <f>F13/$F$2</f>
+        <v>1.0702290076335876</v>
+      </c>
+      <c r="L13" s="4">
+        <f t="shared" si="0"/>
+        <v>1.1170817169315479</v>
+      </c>
+      <c r="M13" s="9">
+        <v>200</v>
+      </c>
+      <c r="N13">
+        <v>1E-3</v>
+      </c>
+      <c r="O13">
+        <f>M13*$P$2*$P$3/N13</f>
+        <v>2000</v>
+      </c>
+      <c r="P13" s="8">
+        <v>1.41E-2</v>
+      </c>
+      <c r="Q13" s="8">
+        <v>-14</v>
+      </c>
+      <c r="R13" s="4">
+        <f>ABS(Q13)</f>
+        <v>14</v>
+      </c>
+      <c r="S13" s="4">
+        <f>P13*ABS(Q13)</f>
+        <v>0.19739999999999999</v>
+      </c>
+      <c r="T13" s="4">
+        <f>S13/$H$2</f>
+        <v>0.24702790639469402</v>
+      </c>
+      <c r="U13" s="4">
+        <f>P13/$E$2</f>
+        <v>1.1557377049180326</v>
+      </c>
+      <c r="V13" s="4">
+        <f>Q13/$F$2</f>
+        <v>0.21374045801526717</v>
+      </c>
+      <c r="W13" s="4">
+        <f>(U13+V13)/2</f>
+        <v>0.68473908146664986</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>9</v>
+      </c>
+      <c r="B14">
+        <v>1000</v>
+      </c>
+      <c r="C14">
+        <v>0.01</v>
+      </c>
+      <c r="D14">
+        <f>B14*$P$2*$P$3/C14</f>
+        <v>1000</v>
+      </c>
+      <c r="E14" s="8">
+        <v>1.4500000000000001E-2</v>
+      </c>
+      <c r="F14" s="8">
+        <v>-77</v>
+      </c>
+      <c r="G14" s="4">
+        <f>ABS(F14)</f>
+        <v>77</v>
+      </c>
+      <c r="H14" s="4">
+        <f>E14*ABS(F14)</f>
+        <v>1.1165</v>
+      </c>
+      <c r="I14" s="4">
+        <f>H14/$H$2</f>
+        <v>1.3971968464522588</v>
+      </c>
+      <c r="J14" s="4">
+        <f>E14/$E$2</f>
+        <v>1.1885245901639343</v>
+      </c>
+      <c r="K14" s="4">
+        <f>F14/$F$2</f>
+        <v>1.1755725190839694</v>
+      </c>
+      <c r="L14" s="4">
+        <f t="shared" si="0"/>
+        <v>1.1820485546239519</v>
+      </c>
+      <c r="M14" s="9">
+        <v>100</v>
+      </c>
+      <c r="N14">
+        <v>1E-3</v>
+      </c>
+      <c r="O14">
+        <f>M14*$P$2*$P$3/N14</f>
+        <v>1000</v>
+      </c>
+      <c r="P14" s="8">
+        <v>1.41E-2</v>
+      </c>
+      <c r="Q14" s="8">
+        <v>-7.7</v>
+      </c>
+      <c r="R14" s="4">
+        <f>ABS(Q14)</f>
+        <v>7.7</v>
+      </c>
+      <c r="S14" s="4">
+        <f>P14*ABS(Q14)</f>
+        <v>0.10857</v>
+      </c>
+      <c r="T14" s="4">
+        <f>S14/$H$2</f>
+        <v>0.13586534851708171</v>
+      </c>
+      <c r="U14" s="4">
+        <f>P14/$E$2</f>
+        <v>1.1557377049180326</v>
+      </c>
+      <c r="V14" s="4">
+        <f>Q14/$F$2</f>
+        <v>0.11755725190839694</v>
+      </c>
+      <c r="W14" s="4">
+        <f>(U14+V14)/2</f>
+        <v>0.63664747841321478</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>10</v>
+      </c>
+      <c r="B15">
+        <v>1000</v>
+      </c>
+      <c r="C15">
+        <v>0.1</v>
+      </c>
+      <c r="D15">
+        <f>B15*$P$2*$P$3/C15</f>
+        <v>100</v>
+      </c>
+      <c r="E15" s="8">
+        <v>1.5900000000000001E-2</v>
+      </c>
+      <c r="F15" s="8">
+        <v>-138</v>
+      </c>
+      <c r="G15" s="4">
+        <f>ABS(F15)</f>
+        <v>138</v>
+      </c>
+      <c r="H15" s="4">
+        <f>E15*ABS(F15)</f>
+        <v>2.1941999999999999</v>
+      </c>
+      <c r="I15" s="4">
+        <f>H15/$H$2</f>
+        <v>2.7458390689525713</v>
+      </c>
+      <c r="J15" s="4">
+        <f>E15/$E$2</f>
+        <v>1.3032786885245902</v>
+      </c>
+      <c r="K15" s="4">
+        <f>F15/$F$2</f>
+        <v>2.1068702290076335</v>
+      </c>
+      <c r="L15" s="4">
+        <f t="shared" si="0"/>
+        <v>1.705074458766112</v>
+      </c>
+      <c r="M15" s="9">
+        <v>10</v>
+      </c>
+      <c r="N15">
+        <v>1E-3</v>
+      </c>
+      <c r="O15">
+        <f>M15*$P$2*$P$3/N15</f>
+        <v>100</v>
+      </c>
+      <c r="P15" s="8">
+        <v>6.8900000000000003E-3</v>
+      </c>
+      <c r="Q15" s="8">
+        <v>-1.38</v>
+      </c>
+      <c r="R15" s="4">
+        <f>ABS(Q15)</f>
+        <v>1.38</v>
+      </c>
+      <c r="S15" s="4">
+        <f>P15*ABS(Q15)</f>
+        <v>9.5081999999999996E-3</v>
+      </c>
+      <c r="T15" s="4">
+        <f>S15/$H$2</f>
+        <v>1.1898635965461143E-2</v>
+      </c>
+      <c r="U15" s="4">
+        <f>P15/$E$2</f>
+        <v>0.56475409836065571</v>
+      </c>
+      <c r="V15" s="4">
+        <f>Q15/$F$2</f>
+        <v>2.1068702290076333E-2</v>
+      </c>
+      <c r="W15" s="4">
+        <f>(U15+V15)/2</f>
+        <v>0.292911400325366</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>11</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+    </row>
+    <row r="17" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+    </row>
+    <row r="18" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+    </row>
+    <row r="19" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="F19" s="8"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+    </row>
+    <row r="20" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="F20" s="8"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+    </row>
+    <row r="21" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="F21" s="8"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+    </row>
+    <row r="22" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="F22" s="8"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+    </row>
+    <row r="23" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="F23" s="8"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+    </row>
+    <row r="24" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="F24" s="8"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+    </row>
+    <row r="25" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+    </row>
+    <row r="37" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="H37" s="8"/>
+    </row>
+    <row r="38" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F38" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G38" t="s">
+        <v>100</v>
+      </c>
+      <c r="H38" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="39" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F39" s="6">
+        <v>100</v>
+      </c>
+      <c r="G39" s="7">
+        <v>1.5900000000000001E-2</v>
+      </c>
+      <c r="H39" s="7">
+        <v>6.8900000000000003E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F40" s="6">
+        <v>1000</v>
+      </c>
+      <c r="G40" s="7">
+        <v>1.4500000000000001E-2</v>
+      </c>
+      <c r="H40" s="7">
+        <v>1.41E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F41" s="6">
+        <v>2000</v>
+      </c>
+      <c r="G41" s="7">
+        <v>1.4200000000000001E-2</v>
+      </c>
+      <c r="H41" s="7">
+        <v>1.41E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F42" s="6">
+        <v>5000</v>
+      </c>
+      <c r="G42" s="7">
+        <v>1.34E-2</v>
+      </c>
+      <c r="H42" s="7">
+        <v>1.34E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F43" s="6">
+        <v>20000</v>
+      </c>
+      <c r="G43" s="7">
+        <v>1.18E-2</v>
+      </c>
+      <c r="H43" s="7"/>
+    </row>
+    <row r="44" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F44" s="6">
+        <v>50000</v>
+      </c>
+      <c r="G44" s="7">
+        <v>1.2200000000000001E-2</v>
+      </c>
+      <c r="H44" s="7">
+        <v>1.23E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F45" s="6">
+        <v>100000</v>
+      </c>
+      <c r="G45" s="7">
+        <v>1.18E-2</v>
+      </c>
+      <c r="H45" s="7">
+        <v>1.23E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F46" s="6">
+        <v>999999.99999999988</v>
+      </c>
+      <c r="G46" s="7">
+        <v>1.14E-2</v>
+      </c>
+      <c r="H46" s="7">
+        <v>1.1900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F47" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G47" s="7">
+        <v>0.10520000000000002</v>
+      </c>
+      <c r="H47" s="7">
+        <v>8.499000000000001E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD26"/>
   <sheetViews>

--- a/Results_water_Up_Down_Baffle.xlsx
+++ b/Results_water_Up_Down_Baffle.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9120" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9120" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="LengthBaffle" sheetId="2" r:id="rId1"/>
@@ -17,13 +17,14 @@
     <sheet name="Baffle_Down_Up_Rep " sheetId="5" r:id="rId3"/>
     <sheet name="Mesh_analyses" sheetId="4" r:id="rId4"/>
     <sheet name="Baffle_down_up Re" sheetId="7" r:id="rId5"/>
-    <sheet name="oud" sheetId="1" r:id="rId6"/>
+    <sheet name="Baffle_down_up_multiple" sheetId="8" r:id="rId6"/>
+    <sheet name="oud" sheetId="1" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="88" r:id="rId7"/>
-    <pivotCache cacheId="91" r:id="rId8"/>
-    <pivotCache cacheId="98" r:id="rId9"/>
+    <pivotCache cacheId="101" r:id="rId8"/>
+    <pivotCache cacheId="104" r:id="rId9"/>
+    <pivotCache cacheId="107" r:id="rId10"/>
   </pivotCaches>
   <fileRecoveryPr repairLoad="1"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="102">
   <si>
     <t>LengthBaffle</t>
   </si>
@@ -347,7 +348,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -357,6 +358,15 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -402,7 +412,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -416,6 +426,7 @@
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2480,7 +2491,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Baffle_down_up Re'!$G$38</c:f>
+              <c:f>'Baffle_down_up Re'!$G$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2503,9 +2514,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Baffle_down_up Re'!$F$39:$F$47</c:f>
+              <c:f>'Baffle_down_up Re'!$F$38:$F$45</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -2519,15 +2530,12 @@
                   <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20000</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50000</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>1000000</c:v>
                 </c:pt>
               </c:strCache>
@@ -2535,10 +2543,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Baffle_down_up Re'!$G$39:$G$47</c:f>
+              <c:f>'Baffle_down_up Re'!$G$38:$G$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1.5900000000000001E-2</c:v>
                 </c:pt>
@@ -2552,15 +2560,12 @@
                   <c:v>1.34E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>1.2200000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>1.18E-2</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.2200000000000001E-2</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.18E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>1.14E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -2573,7 +2578,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Baffle_down_up Re'!$H$38</c:f>
+              <c:f>'Baffle_down_up Re'!$H$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2596,9 +2601,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Baffle_down_up Re'!$F$39:$F$47</c:f>
+              <c:f>'Baffle_down_up Re'!$F$38:$F$45</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -2612,15 +2617,12 @@
                   <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20000</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50000</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>1000000</c:v>
                 </c:pt>
               </c:strCache>
@@ -2628,10 +2630,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Baffle_down_up Re'!$H$39:$H$47</c:f>
+              <c:f>'Baffle_down_up Re'!$H$38:$H$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>6.8900000000000003E-3</c:v>
                 </c:pt>
@@ -2644,13 +2646,13 @@
                 <c:pt idx="3">
                   <c:v>1.34E-2</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.23E-2</c:v>
+                </c:pt>
                 <c:pt idx="5">
                   <c:v>1.23E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.23E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>1.1900000000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -5195,13 +5197,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>388620</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5225,7 +5227,143 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Admin" refreshedDate="43195.669390162038" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="13">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Admin" refreshedDate="43195.8240224537" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="7">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="D7:W14" sheet="Baffle_down_up Re"/>
+  </cacheSource>
+  <cacheFields count="20">
+    <cacheField name="Reynolds" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="100" maxValue="999999.99999999988" count="8">
+        <n v="50000"/>
+        <n v="100000"/>
+        <n v="999999.99999999988"/>
+        <n v="5000"/>
+        <n v="2000"/>
+        <n v="1000"/>
+        <n v="100"/>
+        <n v="20000" u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="IoS Visco" numFmtId="11">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.14E-2" maxValue="1.5900000000000001E-2"/>
+    </cacheField>
+    <cacheField name="dp" numFmtId="11">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-138" maxValue="-65.599999999999994"/>
+    </cacheField>
+    <cacheField name="abs(dp)" numFmtId="11">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="65.599999999999994" maxValue="138"/>
+    </cacheField>
+    <cacheField name="IoS*dp" numFmtId="11">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.74783999999999995" maxValue="2.1941999999999999"/>
+    </cacheField>
+    <cacheField name="Nor(IoS*dp)" numFmtId="11">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.93585283443874345" maxValue="2.7458390689525713"/>
+    </cacheField>
+    <cacheField name="nor(IoS)" numFmtId="11">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.93442622950819665" maxValue="1.3032786885245902"/>
+    </cacheField>
+    <cacheField name="nor(dp)" numFmtId="11">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.0015267175572518" maxValue="2.1068702290076335"/>
+    </cacheField>
+    <cacheField name="nor(IoS) + nor(dp)" numFmtId="11">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.9679764735327242" maxValue="1.705074458766112"/>
+    </cacheField>
+    <cacheField name="Density" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="10" maxValue="100000"/>
+    </cacheField>
+    <cacheField name="Viscosity" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1E-3" maxValue="1E-3"/>
+    </cacheField>
+    <cacheField name="Reynolds2" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="100" maxValue="1000000"/>
+    </cacheField>
+    <cacheField name="IoS Dens" numFmtId="11">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="6.8900000000000003E-3" maxValue="1.41E-2"/>
+    </cacheField>
+    <cacheField name="dp2" numFmtId="11">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-6560" maxValue="-1.38"/>
+    </cacheField>
+    <cacheField name="abs(dp)2" numFmtId="11">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.38" maxValue="6560"/>
+    </cacheField>
+    <cacheField name="IoS*dp2" numFmtId="11">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="9.5081999999999996E-3" maxValue="78.064000000000007"/>
+    </cacheField>
+    <cacheField name="Nor(IoS*dp)2" numFmtId="11">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.1898635965461143E-2" maxValue="97.689901138781138"/>
+    </cacheField>
+    <cacheField name="nor(IoS)2" numFmtId="11">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.56475409836065571" maxValue="1.1557377049180326"/>
+    </cacheField>
+    <cacheField name="nor(dp)2" numFmtId="11">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2.1068702290076333E-2" maxValue="100.15267175572519"/>
+    </cacheField>
+    <cacheField name="nor(IoS) + nor(dp)2" numFmtId="11">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.292911400325366" maxValue="50.564040795895387"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Admin" refreshedDate="43195.824022569446" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="15">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="C1:I16" sheet="LengthBaffle"/>
+  </cacheSource>
+  <cacheFields count="7">
+    <cacheField name="LengthBaffle" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="32" count="15">
+        <n v="0"/>
+        <n v="4"/>
+        <n v="6"/>
+        <n v="8"/>
+        <n v="10"/>
+        <n v="12"/>
+        <n v="14"/>
+        <n v="16"/>
+        <n v="18"/>
+        <n v="20"/>
+        <n v="22"/>
+        <n v="24"/>
+        <n v="26"/>
+        <n v="28"/>
+        <n v="32"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="IoS" numFmtId="11">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="4.7300000000000002E-2" maxValue="0.99299999999999999"/>
+    </cacheField>
+    <cacheField name="dp (Pa)" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-54.3" maxValue="-2.4700000000000002"/>
+    </cacheField>
+    <cacheField name="IoS * dp" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2.4527100000000002" maxValue="2.6825999999999999"/>
+    </cacheField>
+    <cacheField name="IoS + dp" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="3.4630000000000001" maxValue="54.347299999999997"/>
+    </cacheField>
+    <cacheField name="nor(IoS * dp)" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1" maxValue="1.0937289773352739"/>
+    </cacheField>
+    <cacheField name="(nor(IoS) + nor(dp))" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1" maxValue="11.01571955102723"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Admin" refreshedDate="43195.824022800924" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="13">
   <cacheSource type="worksheet">
     <worksheetSource ref="C1:M14" sheet="Baffle_Down_Up"/>
   </cacheSource>
@@ -5287,150 +5425,306 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Admin" refreshedDate="43195.669390625" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="15">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="C1:I16" sheet="LengthBaffle"/>
-  </cacheSource>
-  <cacheFields count="7">
-    <cacheField name="LengthBaffle" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="32" count="15">
-        <n v="0"/>
-        <n v="4"/>
-        <n v="6"/>
-        <n v="8"/>
-        <n v="10"/>
-        <n v="12"/>
-        <n v="14"/>
-        <n v="16"/>
-        <n v="18"/>
-        <n v="20"/>
-        <n v="22"/>
-        <n v="24"/>
-        <n v="26"/>
-        <n v="28"/>
-        <n v="32"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="IoS" numFmtId="11">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="4.7300000000000002E-2" maxValue="0.99299999999999999"/>
-    </cacheField>
-    <cacheField name="dp (Pa)" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-54.3" maxValue="-2.4700000000000002"/>
-    </cacheField>
-    <cacheField name="IoS * dp" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2.4527100000000002" maxValue="2.6825999999999999"/>
-    </cacheField>
-    <cacheField name="IoS + dp" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="3.4630000000000001" maxValue="54.347299999999997"/>
-    </cacheField>
-    <cacheField name="nor(IoS * dp)" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1" maxValue="1.0937289773352739"/>
-    </cacheField>
-    <cacheField name="(nor(IoS) + nor(dp))" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1" maxValue="11.01571955102723"/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="7">
+  <r>
+    <x v="0"/>
+    <n v="1.2200000000000001E-2"/>
+    <n v="-66"/>
+    <n v="66"/>
+    <n v="0.80520000000000003"/>
+    <n v="1.0076335877862594"/>
+    <n v="1"/>
+    <n v="1.0076335877862594"/>
+    <n v="1.0038167938931297"/>
+    <n v="5000"/>
+    <n v="1E-3"/>
+    <n v="50000"/>
+    <n v="1.23E-2"/>
+    <n v="-330"/>
+    <n v="330"/>
+    <n v="4.0590000000000002"/>
+    <n v="5.0794643974471283"/>
+    <n v="1.0081967213114753"/>
+    <n v="5.0381679389312977"/>
+    <n v="3.0231823301213865"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="1.18E-2"/>
+    <n v="-65.900000000000006"/>
+    <n v="65.900000000000006"/>
+    <n v="0.77762000000000009"/>
+    <n v="0.973119759729696"/>
+    <n v="0.96721311475409832"/>
+    <n v="1.0061068702290077"/>
+    <n v="0.98665999249155301"/>
+    <n v="10000"/>
+    <n v="1E-3"/>
+    <n v="100000"/>
+    <n v="1.23E-2"/>
+    <n v="-658"/>
+    <n v="658"/>
+    <n v="8.0934000000000008"/>
+    <n v="10.128144162182457"/>
+    <n v="1.0081967213114753"/>
+    <n v="10.045801526717558"/>
+    <n v="5.526999124014516"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1.14E-2"/>
+    <n v="-65.599999999999994"/>
+    <n v="65.599999999999994"/>
+    <n v="0.74783999999999995"/>
+    <n v="0.93585283443874345"/>
+    <n v="0.93442622950819665"/>
+    <n v="1.0015267175572518"/>
+    <n v="0.9679764735327242"/>
+    <n v="100000"/>
+    <n v="1E-3"/>
+    <n v="1000000"/>
+    <n v="1.1900000000000001E-2"/>
+    <n v="-6560"/>
+    <n v="6560"/>
+    <n v="78.064000000000007"/>
+    <n v="97.689901138781138"/>
+    <n v="0.97540983606557374"/>
+    <n v="100.15267175572519"/>
+    <n v="50.564040795895387"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="1.34E-2"/>
+    <n v="-66.400000000000006"/>
+    <n v="66.400000000000006"/>
+    <n v="0.88976000000000011"/>
+    <n v="1.1134526342134903"/>
+    <n v="1.0983606557377048"/>
+    <n v="1.0137404580152674"/>
+    <n v="1.0560505568764862"/>
+    <n v="500"/>
+    <n v="1E-3"/>
+    <n v="5000"/>
+    <n v="1.34E-2"/>
+    <n v="-33.200000000000003"/>
+    <n v="33.200000000000003"/>
+    <n v="0.44488000000000005"/>
+    <n v="0.55672631710674514"/>
+    <n v="1.0983606557377048"/>
+    <n v="0.50687022900763368"/>
+    <n v="0.80261544237266924"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="1.4200000000000001E-2"/>
+    <n v="-70.099999999999994"/>
+    <n v="70.099999999999994"/>
+    <n v="0.99541999999999997"/>
+    <n v="1.245676385934176"/>
+    <n v="1.1639344262295082"/>
+    <n v="1.0702290076335876"/>
+    <n v="1.1170817169315479"/>
+    <n v="200"/>
+    <n v="1E-3"/>
+    <n v="2000"/>
+    <n v="1.41E-2"/>
+    <n v="-14"/>
+    <n v="14"/>
+    <n v="0.19739999999999999"/>
+    <n v="0.24702790639469402"/>
+    <n v="1.1557377049180326"/>
+    <n v="0.21374045801526717"/>
+    <n v="0.68473908146664986"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="1.4500000000000001E-2"/>
+    <n v="-77"/>
+    <n v="77"/>
+    <n v="1.1165"/>
+    <n v="1.3971968464522588"/>
+    <n v="1.1885245901639343"/>
+    <n v="1.1755725190839694"/>
+    <n v="1.1820485546239519"/>
+    <n v="100"/>
+    <n v="1E-3"/>
+    <n v="1000"/>
+    <n v="1.41E-2"/>
+    <n v="-7.7"/>
+    <n v="7.7"/>
+    <n v="0.10857"/>
+    <n v="0.13586534851708171"/>
+    <n v="1.1557377049180326"/>
+    <n v="0.11755725190839694"/>
+    <n v="0.63664747841321478"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="1.5900000000000001E-2"/>
+    <n v="-138"/>
+    <n v="138"/>
+    <n v="2.1941999999999999"/>
+    <n v="2.7458390689525713"/>
+    <n v="1.3032786885245902"/>
+    <n v="2.1068702290076335"/>
+    <n v="1.705074458766112"/>
+    <n v="10"/>
+    <n v="1E-3"/>
+    <n v="100"/>
+    <n v="6.8900000000000003E-3"/>
+    <n v="-1.38"/>
+    <n v="1.38"/>
+    <n v="9.5081999999999996E-3"/>
+    <n v="1.1898635965461143E-2"/>
+    <n v="0.56475409836065571"/>
+    <n v="2.1068702290076333E-2"/>
+    <n v="0.292911400325366"/>
+  </r>
+</pivotCacheRecords>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Admin" refreshedDate="43195.79275335648" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="8">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="D7:W15" sheet="Baffle_down_up Re"/>
-  </cacheSource>
-  <cacheFields count="20">
-    <cacheField name="Reynolds" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="100" maxValue="999999.99999999988" count="8">
-        <n v="20000"/>
-        <n v="50000"/>
-        <n v="100000"/>
-        <n v="999999.99999999988"/>
-        <n v="5000"/>
-        <n v="2000"/>
-        <n v="1000"/>
-        <n v="100"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="IoS Visco" numFmtId="11">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.14E-2" maxValue="1.5900000000000001E-2"/>
-    </cacheField>
-    <cacheField name="dp" numFmtId="11">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-138" maxValue="-65.599999999999994"/>
-    </cacheField>
-    <cacheField name="abs(dp)" numFmtId="11">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="65.599999999999994" maxValue="138"/>
-    </cacheField>
-    <cacheField name="IoS*dp" numFmtId="11">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.74783999999999995" maxValue="2.1941999999999999"/>
-    </cacheField>
-    <cacheField name="Nor(IoS*dp)" numFmtId="11">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.93585283443874345" maxValue="2.7458390689525713"/>
-    </cacheField>
-    <cacheField name="nor(IoS)" numFmtId="11">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.93442622950819665" maxValue="1.3032786885245902"/>
-    </cacheField>
-    <cacheField name="nor(dp)" numFmtId="11">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.0015267175572518" maxValue="2.1068702290076335"/>
-    </cacheField>
-    <cacheField name="nor(IoS) + nor(dp)" numFmtId="11">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.9679764735327242" maxValue="1.705074458766112"/>
-    </cacheField>
-    <cacheField name="Density" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="10" maxValue="100000"/>
-    </cacheField>
-    <cacheField name="Viscosity" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1E-3" maxValue="1E-3"/>
-    </cacheField>
-    <cacheField name="Reynolds2" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="100" maxValue="1000000"/>
-    </cacheField>
-    <cacheField name="IoS Dens" numFmtId="11">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="6.8900000000000003E-3" maxValue="1.41E-2" count="6">
-        <m/>
-        <n v="1.23E-2"/>
-        <n v="1.1900000000000001E-2"/>
-        <n v="1.34E-2"/>
-        <n v="1.41E-2"/>
-        <n v="6.8900000000000003E-3"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="dp2" numFmtId="11">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="-6560" maxValue="-1.38"/>
-    </cacheField>
-    <cacheField name="abs(dp)2" numFmtId="11">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="6560"/>
-    </cacheField>
-    <cacheField name="IoS*dp2" numFmtId="11">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="78.064000000000007"/>
-    </cacheField>
-    <cacheField name="Nor(IoS*dp)2" numFmtId="11">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="97.689901138781138"/>
-    </cacheField>
-    <cacheField name="nor(IoS)2" numFmtId="11">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="1.1557377049180326"/>
-    </cacheField>
-    <cacheField name="nor(dp)2" numFmtId="11">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="100.15267175572519"/>
-    </cacheField>
-    <cacheField name="nor(IoS) + nor(dp)2" numFmtId="11">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="50.564040795895387"/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="15">
+  <r>
+    <x v="0"/>
+    <n v="0.99299999999999999"/>
+    <n v="-2.4700000000000002"/>
+    <n v="2.4527100000000002"/>
+    <n v="3.4630000000000001"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="0.874"/>
+    <n v="-2.83"/>
+    <n v="2.47342"/>
+    <n v="3.7040000000000002"/>
+    <n v="1.008443721434658"/>
+    <n v="1.012955057874759"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="0.81200000000000006"/>
+    <n v="-3.16"/>
+    <n v="2.5659200000000002"/>
+    <n v="3.9720000000000004"/>
+    <n v="1.046157107852131"/>
+    <n v="1.0485381476000015"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="0.72599999999999998"/>
+    <n v="-3.58"/>
+    <n v="2.5990799999999998"/>
+    <n v="4.306"/>
+    <n v="1.0596768472424378"/>
+    <n v="1.0902552686620106"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="0.623"/>
+    <n v="-4.12"/>
+    <n v="2.5667599999999999"/>
+    <n v="4.7430000000000003"/>
+    <n v="1.0464995861720301"/>
+    <n v="1.1477039682636756"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="0.52100000000000002"/>
+    <n v="-4.83"/>
+    <n v="2.5164300000000002"/>
+    <n v="5.351"/>
+    <n v="1.0259794268380689"/>
+    <n v="1.2400691480036368"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="0.432"/>
+    <n v="-5.74"/>
+    <n v="2.4796800000000001"/>
+    <n v="6.1720000000000006"/>
+    <n v="1.0109960003424783"/>
+    <n v="1.3794659784483285"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="0.35499999999999998"/>
+    <n v="-7.01"/>
+    <n v="2.4885499999999996"/>
+    <n v="7.3650000000000002"/>
+    <n v="1.0146124083156995"/>
+    <n v="1.5977795988926533"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="0.28699999999999998"/>
+    <n v="-8.75"/>
+    <n v="2.51125"/>
+    <n v="9.0370000000000008"/>
+    <n v="1.0238674771986904"/>
+    <n v="1.9157666417962171"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="0.23"/>
+    <n v="-11.1"/>
+    <n v="2.5529999999999999"/>
+    <n v="11.33"/>
+    <n v="1.0408894651222524"/>
+    <n v="2.3627742374760978"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="0.18"/>
+    <n v="-14.5"/>
+    <n v="2.61"/>
+    <n v="14.68"/>
+    <n v="1.0641290654011275"/>
+    <n v="3.0258571131523904"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="0.13600000000000001"/>
+    <n v="-19.3"/>
+    <n v="2.6248000000000005"/>
+    <n v="19.436"/>
+    <n v="1.0701632072279235"/>
+    <n v="3.9753619465815362"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <n v="0.10199999999999999"/>
+    <n v="-26.3"/>
+    <n v="2.6825999999999999"/>
+    <n v="26.402000000000001"/>
+    <n v="1.0937289773352739"/>
+    <n v="5.3752461562924267"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <n v="7.0699999999999999E-2"/>
+    <n v="-37"/>
+    <n v="2.6158999999999999"/>
+    <n v="37.070700000000002"/>
+    <n v="1.066534567886134"/>
+    <n v="7.5254777368706449"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <n v="4.7300000000000002E-2"/>
+    <n v="-54.3"/>
+    <n v="2.56839"/>
+    <n v="54.347299999999997"/>
+    <n v="1.0471641571975487"/>
+    <n v="11.01571955102723"/>
+  </r>
+</pivotCacheRecords>
 </file>
 
-<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotCache/pivotCacheRecords3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="13">
   <r>
     <x v="0"/>
@@ -5604,329 +5898,8 @@
 </pivotCacheRecords>
 </file>
 
-<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="15">
-  <r>
-    <x v="0"/>
-    <n v="0.99299999999999999"/>
-    <n v="-2.4700000000000002"/>
-    <n v="2.4527100000000002"/>
-    <n v="3.4630000000000001"/>
-    <n v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="0.874"/>
-    <n v="-2.83"/>
-    <n v="2.47342"/>
-    <n v="3.7040000000000002"/>
-    <n v="1.008443721434658"/>
-    <n v="1.012955057874759"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="0.81200000000000006"/>
-    <n v="-3.16"/>
-    <n v="2.5659200000000002"/>
-    <n v="3.9720000000000004"/>
-    <n v="1.046157107852131"/>
-    <n v="1.0485381476000015"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="0.72599999999999998"/>
-    <n v="-3.58"/>
-    <n v="2.5990799999999998"/>
-    <n v="4.306"/>
-    <n v="1.0596768472424378"/>
-    <n v="1.0902552686620106"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="0.623"/>
-    <n v="-4.12"/>
-    <n v="2.5667599999999999"/>
-    <n v="4.7430000000000003"/>
-    <n v="1.0464995861720301"/>
-    <n v="1.1477039682636756"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <n v="0.52100000000000002"/>
-    <n v="-4.83"/>
-    <n v="2.5164300000000002"/>
-    <n v="5.351"/>
-    <n v="1.0259794268380689"/>
-    <n v="1.2400691480036368"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <n v="0.432"/>
-    <n v="-5.74"/>
-    <n v="2.4796800000000001"/>
-    <n v="6.1720000000000006"/>
-    <n v="1.0109960003424783"/>
-    <n v="1.3794659784483285"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <n v="0.35499999999999998"/>
-    <n v="-7.01"/>
-    <n v="2.4885499999999996"/>
-    <n v="7.3650000000000002"/>
-    <n v="1.0146124083156995"/>
-    <n v="1.5977795988926533"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <n v="0.28699999999999998"/>
-    <n v="-8.75"/>
-    <n v="2.51125"/>
-    <n v="9.0370000000000008"/>
-    <n v="1.0238674771986904"/>
-    <n v="1.9157666417962171"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <n v="0.23"/>
-    <n v="-11.1"/>
-    <n v="2.5529999999999999"/>
-    <n v="11.33"/>
-    <n v="1.0408894651222524"/>
-    <n v="2.3627742374760978"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <n v="0.18"/>
-    <n v="-14.5"/>
-    <n v="2.61"/>
-    <n v="14.68"/>
-    <n v="1.0641290654011275"/>
-    <n v="3.0258571131523904"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <n v="0.13600000000000001"/>
-    <n v="-19.3"/>
-    <n v="2.6248000000000005"/>
-    <n v="19.436"/>
-    <n v="1.0701632072279235"/>
-    <n v="3.9753619465815362"/>
-  </r>
-  <r>
-    <x v="12"/>
-    <n v="0.10199999999999999"/>
-    <n v="-26.3"/>
-    <n v="2.6825999999999999"/>
-    <n v="26.402000000000001"/>
-    <n v="1.0937289773352739"/>
-    <n v="5.3752461562924267"/>
-  </r>
-  <r>
-    <x v="13"/>
-    <n v="7.0699999999999999E-2"/>
-    <n v="-37"/>
-    <n v="2.6158999999999999"/>
-    <n v="37.070700000000002"/>
-    <n v="1.066534567886134"/>
-    <n v="7.5254777368706449"/>
-  </r>
-  <r>
-    <x v="14"/>
-    <n v="4.7300000000000002E-2"/>
-    <n v="-54.3"/>
-    <n v="2.56839"/>
-    <n v="54.347299999999997"/>
-    <n v="1.0471641571975487"/>
-    <n v="11.01571955102723"/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="8">
-  <r>
-    <x v="0"/>
-    <n v="1.18E-2"/>
-    <n v="-65.900000000000006"/>
-    <n v="65.900000000000006"/>
-    <n v="0.77762000000000009"/>
-    <n v="0.973119759729696"/>
-    <n v="0.96721311475409832"/>
-    <n v="1.0061068702290077"/>
-    <n v="0.98665999249155301"/>
-    <n v="2000"/>
-    <n v="1E-3"/>
-    <n v="20000"/>
-    <x v="0"/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="1.2200000000000001E-2"/>
-    <n v="-66"/>
-    <n v="66"/>
-    <n v="0.80520000000000003"/>
-    <n v="1.0076335877862594"/>
-    <n v="1"/>
-    <n v="1.0076335877862594"/>
-    <n v="1.0038167938931297"/>
-    <n v="5000"/>
-    <n v="1E-3"/>
-    <n v="50000"/>
-    <x v="1"/>
-    <n v="-330"/>
-    <n v="330"/>
-    <n v="4.0590000000000002"/>
-    <n v="5.0794643974471283"/>
-    <n v="1.0081967213114753"/>
-    <n v="5.0381679389312977"/>
-    <n v="3.0231823301213865"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="1.18E-2"/>
-    <n v="-65.900000000000006"/>
-    <n v="65.900000000000006"/>
-    <n v="0.77762000000000009"/>
-    <n v="0.973119759729696"/>
-    <n v="0.96721311475409832"/>
-    <n v="1.0061068702290077"/>
-    <n v="0.98665999249155301"/>
-    <n v="10000"/>
-    <n v="1E-3"/>
-    <n v="100000"/>
-    <x v="1"/>
-    <n v="-658"/>
-    <n v="658"/>
-    <n v="8.0934000000000008"/>
-    <n v="10.128144162182457"/>
-    <n v="1.0081967213114753"/>
-    <n v="10.045801526717558"/>
-    <n v="5.526999124014516"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="1.14E-2"/>
-    <n v="-65.599999999999994"/>
-    <n v="65.599999999999994"/>
-    <n v="0.74783999999999995"/>
-    <n v="0.93585283443874345"/>
-    <n v="0.93442622950819665"/>
-    <n v="1.0015267175572518"/>
-    <n v="0.9679764735327242"/>
-    <n v="100000"/>
-    <n v="1E-3"/>
-    <n v="1000000"/>
-    <x v="2"/>
-    <n v="-6560"/>
-    <n v="6560"/>
-    <n v="78.064000000000007"/>
-    <n v="97.689901138781138"/>
-    <n v="0.97540983606557374"/>
-    <n v="100.15267175572519"/>
-    <n v="50.564040795895387"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="1.34E-2"/>
-    <n v="-66.400000000000006"/>
-    <n v="66.400000000000006"/>
-    <n v="0.88976000000000011"/>
-    <n v="1.1134526342134903"/>
-    <n v="1.0983606557377048"/>
-    <n v="1.0137404580152674"/>
-    <n v="1.0560505568764862"/>
-    <n v="500"/>
-    <n v="1E-3"/>
-    <n v="5000"/>
-    <x v="3"/>
-    <n v="-33.200000000000003"/>
-    <n v="33.200000000000003"/>
-    <n v="0.44488000000000005"/>
-    <n v="0.55672631710674514"/>
-    <n v="1.0983606557377048"/>
-    <n v="0.50687022900763368"/>
-    <n v="0.80261544237266924"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <n v="1.4200000000000001E-2"/>
-    <n v="-70.099999999999994"/>
-    <n v="70.099999999999994"/>
-    <n v="0.99541999999999997"/>
-    <n v="1.245676385934176"/>
-    <n v="1.1639344262295082"/>
-    <n v="1.0702290076335876"/>
-    <n v="1.1170817169315479"/>
-    <n v="200"/>
-    <n v="1E-3"/>
-    <n v="2000"/>
-    <x v="4"/>
-    <n v="-14"/>
-    <n v="14"/>
-    <n v="0.19739999999999999"/>
-    <n v="0.24702790639469402"/>
-    <n v="1.1557377049180326"/>
-    <n v="0.21374045801526717"/>
-    <n v="0.68473908146664986"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <n v="1.4500000000000001E-2"/>
-    <n v="-77"/>
-    <n v="77"/>
-    <n v="1.1165"/>
-    <n v="1.3971968464522588"/>
-    <n v="1.1885245901639343"/>
-    <n v="1.1755725190839694"/>
-    <n v="1.1820485546239519"/>
-    <n v="100"/>
-    <n v="1E-3"/>
-    <n v="1000"/>
-    <x v="4"/>
-    <n v="-7.7"/>
-    <n v="7.7"/>
-    <n v="0.10857"/>
-    <n v="0.13586534851708171"/>
-    <n v="1.1557377049180326"/>
-    <n v="0.11755725190839694"/>
-    <n v="0.63664747841321478"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <n v="1.5900000000000001E-2"/>
-    <n v="-138"/>
-    <n v="138"/>
-    <n v="2.1941999999999999"/>
-    <n v="2.7458390689525713"/>
-    <n v="1.3032786885245902"/>
-    <n v="2.1068702290076335"/>
-    <n v="1.705074458766112"/>
-    <n v="10"/>
-    <n v="1E-3"/>
-    <n v="100"/>
-    <x v="5"/>
-    <n v="-1.38"/>
-    <n v="1.38"/>
-    <n v="9.5081999999999996E-3"/>
-    <n v="1.1898635965461143E-2"/>
-    <n v="0.56475409836065571"/>
-    <n v="2.1068702290076333E-2"/>
-    <n v="0.292911400325366"/>
-  </r>
-</pivotCacheRecords>
-</file>
-
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="91" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="104" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="D22:E38" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
@@ -6036,7 +6009,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="88" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="107" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="I38:J51" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
@@ -6140,7 +6113,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="88" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="107" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
   <location ref="B38:C51" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
@@ -6244,19 +6217,19 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="98" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="F38:H47" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="101" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="F37:H45" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="20">
     <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
       <items count="8">
-        <item x="7"/>
         <item x="6"/>
         <item x="5"/>
         <item x="4"/>
+        <item x="3"/>
+        <item m="1" x="7"/>
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
-        <item x="3"/>
       </items>
     </pivotField>
     <pivotField dataField="1" numFmtId="11" showAll="0" defaultSubtotal="0"/>
@@ -6270,16 +6243,7 @@
     <pivotField showAll="0" defaultSubtotal="0"/>
     <pivotField showAll="0" defaultSubtotal="0"/>
     <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" showAll="0" defaultSubtotal="0">
-      <items count="6">
-        <item x="5"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="0"/>
-      </items>
-    </pivotField>
+    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
     <pivotField showAll="0" defaultSubtotal="0"/>
     <pivotField numFmtId="11" showAll="0" defaultSubtotal="0"/>
     <pivotField numFmtId="11" showAll="0" defaultSubtotal="0"/>
@@ -6291,7 +6255,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="9">
+  <rowItems count="8">
     <i>
       <x/>
     </i>
@@ -6303,9 +6267,6 @@
     </i>
     <i>
       <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
     </i>
     <i>
       <x v="5"/>
@@ -7336,8 +7297,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q53"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:E4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9257,10 +9218,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W47"/>
+  <dimension ref="A1:W45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9352,7 +9313,7 @@
         <v>1</v>
       </c>
       <c r="L2" s="4">
-        <f t="shared" ref="L2:L15" si="0">(J2+K2)/2</f>
+        <f t="shared" ref="L2:L14" si="0">(J2+K2)/2</f>
         <v>1</v>
       </c>
       <c r="O2" t="s">
@@ -9585,154 +9546,158 @@
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>5</v>
-      </c>
       <c r="B8">
         <v>1000</v>
       </c>
       <c r="C8">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="D8">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="D8" s="11">
         <f>B8*$P$2*$P$3/C8</f>
-        <v>20000</v>
+        <v>50000</v>
       </c>
       <c r="E8" s="8">
-        <v>1.18E-2</v>
+        <v>1.2200000000000001E-2</v>
       </c>
       <c r="F8" s="8">
-        <v>-65.900000000000006</v>
+        <v>-66</v>
       </c>
       <c r="G8" s="4">
         <f>ABS(F8)</f>
-        <v>65.900000000000006</v>
+        <v>66</v>
       </c>
       <c r="H8" s="4">
         <f>E8*ABS(F8)</f>
-        <v>0.77762000000000009</v>
+        <v>0.80520000000000003</v>
       </c>
       <c r="I8" s="4">
         <f>H8/$H$2</f>
-        <v>0.973119759729696</v>
+        <v>1.0076335877862594</v>
       </c>
       <c r="J8" s="4">
         <f>E8/$E$2</f>
-        <v>0.96721311475409832</v>
+        <v>1</v>
       </c>
       <c r="K8" s="4">
         <f>F8/$F$2</f>
+        <v>1.0076335877862594</v>
+      </c>
+      <c r="L8" s="4">
+        <f t="shared" ref="L8" si="1">(J8+K8)/2</f>
+        <v>1.0038167938931297</v>
+      </c>
+      <c r="M8" s="9">
+        <v>5000</v>
+      </c>
+      <c r="N8">
+        <v>1E-3</v>
+      </c>
+      <c r="O8" s="11">
+        <f>M8*$P$2*$P$3/N8</f>
+        <v>50000</v>
+      </c>
+      <c r="P8" s="8">
+        <v>1.23E-2</v>
+      </c>
+      <c r="Q8" s="8">
+        <v>-330</v>
+      </c>
+      <c r="R8" s="4">
+        <f>ABS(Q8)</f>
+        <v>330</v>
+      </c>
+      <c r="S8" s="4">
+        <f>P8*ABS(Q8)</f>
+        <v>4.0590000000000002</v>
+      </c>
+      <c r="T8" s="4">
+        <f>S8/$H$2</f>
+        <v>5.0794643974471283</v>
+      </c>
+      <c r="U8" s="4">
+        <f>P8/$E$2</f>
+        <v>1.0081967213114753</v>
+      </c>
+      <c r="V8" s="4">
+        <f>Q8/$F$2</f>
+        <v>5.0381679389312977</v>
+      </c>
+      <c r="W8" s="4">
+        <f>(U8+V8)/2</f>
+        <v>3.0231823301213865</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>1000</v>
+      </c>
+      <c r="C9">
+        <v>1E-4</v>
+      </c>
+      <c r="D9" s="11">
+        <f>B9*$P$2*$P$3/C9</f>
+        <v>100000</v>
+      </c>
+      <c r="E9" s="8">
+        <v>1.18E-2</v>
+      </c>
+      <c r="F9" s="8">
+        <v>-65.900000000000006</v>
+      </c>
+      <c r="G9" s="4">
+        <f>ABS(F9)</f>
+        <v>65.900000000000006</v>
+      </c>
+      <c r="H9" s="4">
+        <f>E9*ABS(F9)</f>
+        <v>0.77762000000000009</v>
+      </c>
+      <c r="I9" s="4">
+        <f>H9/$H$2</f>
+        <v>0.973119759729696</v>
+      </c>
+      <c r="J9" s="4">
+        <f>E9/$E$2</f>
+        <v>0.96721311475409832</v>
+      </c>
+      <c r="K9" s="4">
+        <f>F9/$F$2</f>
         <v>1.0061068702290077</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L9" s="4">
         <f t="shared" si="0"/>
         <v>0.98665999249155301</v>
       </c>
-      <c r="M8" s="9">
-        <v>2000</v>
-      </c>
-      <c r="N8">
-        <v>1E-3</v>
-      </c>
-      <c r="O8">
-        <f>M8*$P$2*$P$3/N8</f>
-        <v>20000</v>
-      </c>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="4">
-        <f>ABS(Q8)</f>
-        <v>0</v>
-      </c>
-      <c r="S8" s="4">
-        <f>P8*ABS(Q8)</f>
-        <v>0</v>
-      </c>
-      <c r="T8" s="4">
-        <f>S8/$H$2</f>
-        <v>0</v>
-      </c>
-      <c r="U8" s="4">
-        <f>P8/$E$2</f>
-        <v>0</v>
-      </c>
-      <c r="V8" s="4">
-        <f>Q8/$F$2</f>
-        <v>0</v>
-      </c>
-      <c r="W8" s="4">
-        <f>(U8+V8)/2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B9">
-        <v>1000</v>
-      </c>
-      <c r="C9">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="D9">
-        <f>B9*$P$2*$P$3/C9</f>
-        <v>50000</v>
-      </c>
-      <c r="E9" s="8">
-        <v>1.2200000000000001E-2</v>
-      </c>
-      <c r="F9" s="8">
-        <v>-66</v>
-      </c>
-      <c r="G9" s="4">
-        <f>ABS(F9)</f>
-        <v>66</v>
-      </c>
-      <c r="H9" s="4">
-        <f>E9*ABS(F9)</f>
-        <v>0.80520000000000003</v>
-      </c>
-      <c r="I9" s="4">
-        <f>H9/$H$2</f>
-        <v>1.0076335877862594</v>
-      </c>
-      <c r="J9" s="4">
-        <f>E9/$E$2</f>
-        <v>1</v>
-      </c>
-      <c r="K9" s="4">
-        <f>F9/$F$2</f>
-        <v>1.0076335877862594</v>
-      </c>
-      <c r="L9" s="4">
-        <f t="shared" ref="L9" si="1">(J9+K9)/2</f>
-        <v>1.0038167938931297</v>
-      </c>
       <c r="M9" s="9">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="N9">
         <v>1E-3</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="11">
         <f>M9*$P$2*$P$3/N9</f>
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="P9" s="8">
         <v>1.23E-2</v>
       </c>
       <c r="Q9" s="8">
-        <v>-330</v>
+        <v>-658</v>
       </c>
       <c r="R9" s="4">
         <f>ABS(Q9)</f>
-        <v>330</v>
+        <v>658</v>
       </c>
       <c r="S9" s="4">
         <f>P9*ABS(Q9)</f>
-        <v>4.0590000000000002</v>
+        <v>8.0934000000000008</v>
       </c>
       <c r="T9" s="4">
         <f>S9/$H$2</f>
-        <v>5.0794643974471283</v>
+        <v>10.128144162182457</v>
       </c>
       <c r="U9" s="4">
         <f>P9/$E$2</f>
@@ -9740,336 +9705,336 @@
       </c>
       <c r="V9" s="4">
         <f>Q9/$F$2</f>
-        <v>5.0381679389312977</v>
+        <v>10.045801526717558</v>
       </c>
       <c r="W9" s="4">
         <f>(U9+V9)/2</f>
-        <v>3.0231823301213865</v>
+        <v>5.526999124014516</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B10">
         <v>1000</v>
       </c>
       <c r="C10">
-        <v>1E-4</v>
-      </c>
-      <c r="D10">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D10" s="11">
         <f>B10*$P$2*$P$3/C10</f>
-        <v>100000</v>
+        <v>999999.99999999988</v>
       </c>
       <c r="E10" s="8">
-        <v>1.18E-2</v>
+        <v>1.14E-2</v>
       </c>
       <c r="F10" s="8">
-        <v>-65.900000000000006</v>
+        <v>-65.599999999999994</v>
       </c>
       <c r="G10" s="4">
         <f>ABS(F10)</f>
-        <v>65.900000000000006</v>
+        <v>65.599999999999994</v>
       </c>
       <c r="H10" s="4">
         <f>E10*ABS(F10)</f>
-        <v>0.77762000000000009</v>
+        <v>0.74783999999999995</v>
       </c>
       <c r="I10" s="4">
         <f>H10/$H$2</f>
-        <v>0.973119759729696</v>
+        <v>0.93585283443874345</v>
       </c>
       <c r="J10" s="4">
         <f>E10/$E$2</f>
-        <v>0.96721311475409832</v>
+        <v>0.93442622950819665</v>
       </c>
       <c r="K10" s="4">
         <f>F10/$F$2</f>
-        <v>1.0061068702290077</v>
+        <v>1.0015267175572518</v>
       </c>
       <c r="L10" s="4">
         <f t="shared" si="0"/>
-        <v>0.98665999249155301</v>
+        <v>0.9679764735327242</v>
       </c>
       <c r="M10" s="9">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="N10">
         <v>1E-3</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="11">
         <f>M10*$P$2*$P$3/N10</f>
-        <v>100000</v>
+        <v>1000000</v>
       </c>
       <c r="P10" s="8">
-        <v>1.23E-2</v>
+        <v>1.1900000000000001E-2</v>
       </c>
       <c r="Q10" s="8">
-        <v>-658</v>
+        <v>-6560</v>
       </c>
       <c r="R10" s="4">
         <f>ABS(Q10)</f>
-        <v>658</v>
+        <v>6560</v>
       </c>
       <c r="S10" s="4">
         <f>P10*ABS(Q10)</f>
-        <v>8.0934000000000008</v>
+        <v>78.064000000000007</v>
       </c>
       <c r="T10" s="4">
         <f>S10/$H$2</f>
-        <v>10.128144162182457</v>
+        <v>97.689901138781138</v>
       </c>
       <c r="U10" s="4">
         <f>P10/$E$2</f>
-        <v>1.0081967213114753</v>
+        <v>0.97540983606557374</v>
       </c>
       <c r="V10" s="4">
         <f>Q10/$F$2</f>
-        <v>10.045801526717558</v>
+        <v>100.15267175572519</v>
       </c>
       <c r="W10" s="4">
         <f>(U10+V10)/2</f>
-        <v>5.526999124014516</v>
+        <v>50.564040795895387</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>7</v>
-      </c>
       <c r="B11">
         <v>1000</v>
       </c>
       <c r="C11">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="D11">
+        <v>2E-3</v>
+      </c>
+      <c r="D11" s="11">
         <f>B11*$P$2*$P$3/C11</f>
-        <v>999999.99999999988</v>
+        <v>5000</v>
       </c>
       <c r="E11" s="8">
-        <v>1.14E-2</v>
+        <v>1.34E-2</v>
       </c>
       <c r="F11" s="8">
-        <v>-65.599999999999994</v>
+        <v>-66.400000000000006</v>
       </c>
       <c r="G11" s="4">
         <f>ABS(F11)</f>
-        <v>65.599999999999994</v>
+        <v>66.400000000000006</v>
       </c>
       <c r="H11" s="4">
         <f>E11*ABS(F11)</f>
-        <v>0.74783999999999995</v>
+        <v>0.88976000000000011</v>
       </c>
       <c r="I11" s="4">
         <f>H11/$H$2</f>
-        <v>0.93585283443874345</v>
+        <v>1.1134526342134903</v>
       </c>
       <c r="J11" s="4">
         <f>E11/$E$2</f>
-        <v>0.93442622950819665</v>
+        <v>1.0983606557377048</v>
       </c>
       <c r="K11" s="4">
         <f>F11/$F$2</f>
-        <v>1.0015267175572518</v>
+        <v>1.0137404580152674</v>
       </c>
       <c r="L11" s="4">
-        <f t="shared" si="0"/>
-        <v>0.9679764735327242</v>
+        <f t="shared" ref="L11" si="2">(J11+K11)/2</f>
+        <v>1.0560505568764862</v>
       </c>
       <c r="M11" s="9">
-        <v>100000</v>
+        <v>500</v>
       </c>
       <c r="N11">
         <v>1E-3</v>
       </c>
-      <c r="O11">
+      <c r="O11" s="11">
         <f>M11*$P$2*$P$3/N11</f>
-        <v>1000000</v>
+        <v>5000</v>
       </c>
       <c r="P11" s="8">
-        <v>1.1900000000000001E-2</v>
+        <v>1.34E-2</v>
       </c>
       <c r="Q11" s="8">
-        <v>-6560</v>
+        <v>-33.200000000000003</v>
       </c>
       <c r="R11" s="4">
         <f>ABS(Q11)</f>
-        <v>6560</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="S11" s="4">
         <f>P11*ABS(Q11)</f>
-        <v>78.064000000000007</v>
+        <v>0.44488000000000005</v>
       </c>
       <c r="T11" s="4">
         <f>S11/$H$2</f>
-        <v>97.689901138781138</v>
+        <v>0.55672631710674514</v>
       </c>
       <c r="U11" s="4">
         <f>P11/$E$2</f>
-        <v>0.97540983606557374</v>
+        <v>1.0983606557377048</v>
       </c>
       <c r="V11" s="4">
         <f>Q11/$F$2</f>
-        <v>100.15267175572519</v>
+        <v>0.50687022900763368</v>
       </c>
       <c r="W11" s="4">
         <f>(U11+V11)/2</f>
-        <v>50.564040795895387</v>
+        <v>0.80261544237266924</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>8</v>
+      </c>
       <c r="B12">
         <v>1000</v>
       </c>
       <c r="C12">
-        <v>2E-3</v>
-      </c>
-      <c r="D12">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D12" s="11">
         <f>B12*$P$2*$P$3/C12</f>
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="E12" s="8">
-        <v>1.34E-2</v>
+        <v>1.4200000000000001E-2</v>
       </c>
       <c r="F12" s="8">
-        <v>-66.400000000000006</v>
+        <v>-70.099999999999994</v>
       </c>
       <c r="G12" s="4">
         <f>ABS(F12)</f>
-        <v>66.400000000000006</v>
+        <v>70.099999999999994</v>
       </c>
       <c r="H12" s="4">
         <f>E12*ABS(F12)</f>
-        <v>0.88976000000000011</v>
+        <v>0.99541999999999997</v>
       </c>
       <c r="I12" s="4">
         <f>H12/$H$2</f>
-        <v>1.1134526342134903</v>
+        <v>1.245676385934176</v>
       </c>
       <c r="J12" s="4">
         <f>E12/$E$2</f>
-        <v>1.0983606557377048</v>
+        <v>1.1639344262295082</v>
       </c>
       <c r="K12" s="4">
         <f>F12/$F$2</f>
-        <v>1.0137404580152674</v>
+        <v>1.0702290076335876</v>
       </c>
       <c r="L12" s="4">
-        <f t="shared" ref="L12" si="2">(J12+K12)/2</f>
-        <v>1.0560505568764862</v>
+        <f t="shared" si="0"/>
+        <v>1.1170817169315479</v>
       </c>
       <c r="M12" s="9">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="N12">
         <v>1E-3</v>
       </c>
-      <c r="O12">
+      <c r="O12" s="11">
         <f>M12*$P$2*$P$3/N12</f>
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="P12" s="8">
-        <v>1.34E-2</v>
+        <v>1.41E-2</v>
       </c>
       <c r="Q12" s="8">
-        <v>-33.200000000000003</v>
+        <v>-14</v>
       </c>
       <c r="R12" s="4">
         <f>ABS(Q12)</f>
-        <v>33.200000000000003</v>
+        <v>14</v>
       </c>
       <c r="S12" s="4">
         <f>P12*ABS(Q12)</f>
-        <v>0.44488000000000005</v>
+        <v>0.19739999999999999</v>
       </c>
       <c r="T12" s="4">
         <f>S12/$H$2</f>
-        <v>0.55672631710674514</v>
+        <v>0.24702790639469402</v>
       </c>
       <c r="U12" s="4">
         <f>P12/$E$2</f>
-        <v>1.0983606557377048</v>
+        <v>1.1557377049180326</v>
       </c>
       <c r="V12" s="4">
         <f>Q12/$F$2</f>
-        <v>0.50687022900763368</v>
+        <v>0.21374045801526717</v>
       </c>
       <c r="W12" s="4">
         <f>(U12+V12)/2</f>
-        <v>0.80261544237266924</v>
+        <v>0.68473908146664986</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B13">
         <v>1000</v>
       </c>
       <c r="C13">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="D13">
+        <v>0.01</v>
+      </c>
+      <c r="D13" s="11">
         <f>B13*$P$2*$P$3/C13</f>
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="E13" s="8">
-        <v>1.4200000000000001E-2</v>
+        <v>1.4500000000000001E-2</v>
       </c>
       <c r="F13" s="8">
-        <v>-70.099999999999994</v>
+        <v>-77</v>
       </c>
       <c r="G13" s="4">
         <f>ABS(F13)</f>
-        <v>70.099999999999994</v>
+        <v>77</v>
       </c>
       <c r="H13" s="4">
         <f>E13*ABS(F13)</f>
-        <v>0.99541999999999997</v>
+        <v>1.1165</v>
       </c>
       <c r="I13" s="4">
         <f>H13/$H$2</f>
-        <v>1.245676385934176</v>
+        <v>1.3971968464522588</v>
       </c>
       <c r="J13" s="4">
         <f>E13/$E$2</f>
-        <v>1.1639344262295082</v>
+        <v>1.1885245901639343</v>
       </c>
       <c r="K13" s="4">
         <f>F13/$F$2</f>
-        <v>1.0702290076335876</v>
+        <v>1.1755725190839694</v>
       </c>
       <c r="L13" s="4">
         <f t="shared" si="0"/>
-        <v>1.1170817169315479</v>
+        <v>1.1820485546239519</v>
       </c>
       <c r="M13" s="9">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N13">
         <v>1E-3</v>
       </c>
-      <c r="O13">
+      <c r="O13" s="11">
         <f>M13*$P$2*$P$3/N13</f>
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="P13" s="8">
         <v>1.41E-2</v>
       </c>
       <c r="Q13" s="8">
-        <v>-14</v>
+        <v>-7.7</v>
       </c>
       <c r="R13" s="4">
         <f>ABS(Q13)</f>
-        <v>14</v>
+        <v>7.7</v>
       </c>
       <c r="S13" s="4">
         <f>P13*ABS(Q13)</f>
-        <v>0.19739999999999999</v>
+        <v>0.10857</v>
       </c>
       <c r="T13" s="4">
         <f>S13/$H$2</f>
-        <v>0.24702790639469402</v>
+        <v>0.13586534851708171</v>
       </c>
       <c r="U13" s="4">
         <f>P13/$E$2</f>
@@ -10077,187 +10042,112 @@
       </c>
       <c r="V13" s="4">
         <f>Q13/$F$2</f>
-        <v>0.21374045801526717</v>
+        <v>0.11755725190839694</v>
       </c>
       <c r="W13" s="4">
         <f>(U13+V13)/2</f>
-        <v>0.68473908146664986</v>
+        <v>0.63664747841321478</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B14">
         <v>1000</v>
       </c>
       <c r="C14">
-        <v>0.01</v>
-      </c>
-      <c r="D14">
+        <v>0.1</v>
+      </c>
+      <c r="D14" s="11">
         <f>B14*$P$2*$P$3/C14</f>
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="E14" s="8">
-        <v>1.4500000000000001E-2</v>
+        <v>1.5900000000000001E-2</v>
       </c>
       <c r="F14" s="8">
-        <v>-77</v>
+        <v>-138</v>
       </c>
       <c r="G14" s="4">
         <f>ABS(F14)</f>
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="H14" s="4">
         <f>E14*ABS(F14)</f>
-        <v>1.1165</v>
+        <v>2.1941999999999999</v>
       </c>
       <c r="I14" s="4">
         <f>H14/$H$2</f>
-        <v>1.3971968464522588</v>
+        <v>2.7458390689525713</v>
       </c>
       <c r="J14" s="4">
         <f>E14/$E$2</f>
-        <v>1.1885245901639343</v>
+        <v>1.3032786885245902</v>
       </c>
       <c r="K14" s="4">
         <f>F14/$F$2</f>
-        <v>1.1755725190839694</v>
+        <v>2.1068702290076335</v>
       </c>
       <c r="L14" s="4">
         <f t="shared" si="0"/>
-        <v>1.1820485546239519</v>
+        <v>1.705074458766112</v>
       </c>
       <c r="M14" s="9">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="N14">
         <v>1E-3</v>
       </c>
-      <c r="O14">
+      <c r="O14" s="11">
         <f>M14*$P$2*$P$3/N14</f>
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="P14" s="8">
-        <v>1.41E-2</v>
+        <v>6.8900000000000003E-3</v>
       </c>
       <c r="Q14" s="8">
-        <v>-7.7</v>
+        <v>-1.38</v>
       </c>
       <c r="R14" s="4">
         <f>ABS(Q14)</f>
-        <v>7.7</v>
+        <v>1.38</v>
       </c>
       <c r="S14" s="4">
         <f>P14*ABS(Q14)</f>
-        <v>0.10857</v>
+        <v>9.5081999999999996E-3</v>
       </c>
       <c r="T14" s="4">
         <f>S14/$H$2</f>
-        <v>0.13586534851708171</v>
+        <v>1.1898635965461143E-2</v>
       </c>
       <c r="U14" s="4">
         <f>P14/$E$2</f>
-        <v>1.1557377049180326</v>
+        <v>0.56475409836065571</v>
       </c>
       <c r="V14" s="4">
         <f>Q14/$F$2</f>
-        <v>0.11755725190839694</v>
+        <v>2.1068702290076333E-2</v>
       </c>
       <c r="W14" s="4">
         <f>(U14+V14)/2</f>
-        <v>0.63664747841321478</v>
+        <v>0.292911400325366</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>10</v>
-      </c>
-      <c r="B15">
-        <v>1000</v>
-      </c>
-      <c r="C15">
-        <v>0.1</v>
-      </c>
-      <c r="D15">
-        <f>B15*$P$2*$P$3/C15</f>
-        <v>100</v>
-      </c>
-      <c r="E15" s="8">
-        <v>1.5900000000000001E-2</v>
-      </c>
-      <c r="F15" s="8">
-        <v>-138</v>
-      </c>
-      <c r="G15" s="4">
-        <f>ABS(F15)</f>
-        <v>138</v>
-      </c>
-      <c r="H15" s="4">
-        <f>E15*ABS(F15)</f>
-        <v>2.1941999999999999</v>
-      </c>
-      <c r="I15" s="4">
-        <f>H15/$H$2</f>
-        <v>2.7458390689525713</v>
-      </c>
-      <c r="J15" s="4">
-        <f>E15/$E$2</f>
-        <v>1.3032786885245902</v>
-      </c>
-      <c r="K15" s="4">
-        <f>F15/$F$2</f>
-        <v>2.1068702290076335</v>
-      </c>
-      <c r="L15" s="4">
-        <f t="shared" si="0"/>
-        <v>1.705074458766112</v>
-      </c>
-      <c r="M15" s="9">
-        <v>10</v>
-      </c>
-      <c r="N15">
-        <v>1E-3</v>
-      </c>
-      <c r="O15">
-        <f>M15*$P$2*$P$3/N15</f>
-        <v>100</v>
-      </c>
-      <c r="P15" s="8">
-        <v>6.8900000000000003E-3</v>
-      </c>
-      <c r="Q15" s="8">
-        <v>-1.38</v>
-      </c>
-      <c r="R15" s="4">
-        <f>ABS(Q15)</f>
-        <v>1.38</v>
-      </c>
-      <c r="S15" s="4">
-        <f>P15*ABS(Q15)</f>
-        <v>9.5081999999999996E-3</v>
-      </c>
-      <c r="T15" s="4">
-        <f>S15/$H$2</f>
-        <v>1.1898635965461143E-2</v>
-      </c>
-      <c r="U15" s="4">
-        <f>P15/$E$2</f>
-        <v>0.56475409836065571</v>
-      </c>
-      <c r="V15" s="4">
-        <f>Q15/$F$2</f>
-        <v>2.1068702290076333E-2</v>
-      </c>
-      <c r="W15" s="4">
-        <f>(U15+V15)/2</f>
-        <v>0.292911400325366</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>11</v>
-      </c>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="4"/>
@@ -10278,7 +10168,6 @@
       <c r="L17" s="4"/>
     </row>
     <row r="18" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
@@ -10333,7 +10222,6 @@
       <c r="L23" s="4"/>
     </row>
     <row r="24" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="F24" s="8"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
@@ -10341,45 +10229,48 @@
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
+    <row r="36" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="H36" s="8"/>
     </row>
     <row r="37" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="H37" s="8"/>
+      <c r="F37" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G37" t="s">
+        <v>100</v>
+      </c>
+      <c r="H37" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="38" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F38" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="G38" t="s">
+      <c r="F38" s="6">
         <v>100</v>
       </c>
-      <c r="H38" t="s">
-        <v>101</v>
+      <c r="G38" s="7">
+        <v>1.5900000000000001E-2</v>
+      </c>
+      <c r="H38" s="7">
+        <v>6.8900000000000003E-3</v>
       </c>
     </row>
     <row r="39" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F39" s="6">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G39" s="7">
-        <v>1.5900000000000001E-2</v>
+        <v>1.4500000000000001E-2</v>
       </c>
       <c r="H39" s="7">
-        <v>6.8900000000000003E-3</v>
+        <v>1.41E-2</v>
       </c>
     </row>
     <row r="40" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F40" s="6">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G40" s="7">
-        <v>1.4500000000000001E-2</v>
+        <v>1.4200000000000001E-2</v>
       </c>
       <c r="H40" s="7">
         <v>1.41E-2</v>
@@ -10387,76 +10278,56 @@
     </row>
     <row r="41" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F41" s="6">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="G41" s="7">
-        <v>1.4200000000000001E-2</v>
+        <v>1.34E-2</v>
       </c>
       <c r="H41" s="7">
-        <v>1.41E-2</v>
+        <v>1.34E-2</v>
       </c>
     </row>
     <row r="42" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F42" s="6">
-        <v>5000</v>
+        <v>50000</v>
       </c>
       <c r="G42" s="7">
-        <v>1.34E-2</v>
+        <v>1.2200000000000001E-2</v>
       </c>
       <c r="H42" s="7">
-        <v>1.34E-2</v>
+        <v>1.23E-2</v>
       </c>
     </row>
     <row r="43" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F43" s="6">
-        <v>20000</v>
+        <v>100000</v>
       </c>
       <c r="G43" s="7">
         <v>1.18E-2</v>
       </c>
-      <c r="H43" s="7"/>
+      <c r="H43" s="7">
+        <v>1.23E-2</v>
+      </c>
     </row>
     <row r="44" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F44" s="6">
-        <v>50000</v>
+        <v>999999.99999999988</v>
       </c>
       <c r="G44" s="7">
-        <v>1.2200000000000001E-2</v>
+        <v>1.14E-2</v>
       </c>
       <c r="H44" s="7">
-        <v>1.23E-2</v>
+        <v>1.1900000000000001E-2</v>
       </c>
     </row>
     <row r="45" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F45" s="6">
-        <v>100000</v>
+      <c r="F45" s="6" t="s">
+        <v>65</v>
       </c>
       <c r="G45" s="7">
-        <v>1.18E-2</v>
+        <v>9.3400000000000011E-2</v>
       </c>
       <c r="H45" s="7">
-        <v>1.23E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F46" s="6">
-        <v>999999.99999999988</v>
-      </c>
-      <c r="G46" s="7">
-        <v>1.14E-2</v>
-      </c>
-      <c r="H46" s="7">
-        <v>1.1900000000000001E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F47" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="G47" s="7">
-        <v>0.10520000000000002</v>
-      </c>
-      <c r="H47" s="7">
         <v>8.499000000000001E-2</v>
       </c>
     </row>
@@ -10467,6 +10338,590 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="4">
+        <v>1.2200000000000001E-2</v>
+      </c>
+      <c r="E2" s="4">
+        <v>-65</v>
+      </c>
+      <c r="F2" s="4">
+        <f>ABS(E2)</f>
+        <v>65</v>
+      </c>
+      <c r="G2" s="4">
+        <f>D2*ABS(E2)</f>
+        <v>0.79300000000000004</v>
+      </c>
+      <c r="H2" s="4">
+        <f>G2/$G$2</f>
+        <v>1</v>
+      </c>
+      <c r="I2" s="4">
+        <f>D2/$D$2</f>
+        <v>1</v>
+      </c>
+      <c r="J2" s="4">
+        <f>E2/$E$2</f>
+        <v>1</v>
+      </c>
+      <c r="K2" s="4">
+        <f t="shared" ref="K2:K14" si="0">(I2+J2)/2</f>
+        <v>1</v>
+      </c>
+      <c r="L2" s="4">
+        <f>F2*(C2+20)</f>
+        <v>1300</v>
+      </c>
+      <c r="M2" s="4">
+        <f>L2/$L$2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="4">
+        <f>ABS(E3)</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
+        <f>D3*ABS(E3)</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="4">
+        <f>G3/$G$2</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="4">
+        <f>D3/$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="4">
+        <f>E3/$E$2</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L3" s="4">
+        <f>F3*(C3+20)</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="4">
+        <f>L3/$L$2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="4">
+        <f t="shared" ref="F4:F14" si="1">ABS(E4)</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <f t="shared" ref="G4:G14" si="2">D4*ABS(E4)</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
+        <f t="shared" ref="H4:H14" si="3">G4/$G$2</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <f>D4/$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
+        <f>E4/$E$2</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L4" s="4">
+        <f t="shared" ref="L4:L14" si="4">F4*(C4+20)</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="4">
+        <f t="shared" ref="M4:M14" si="5">L4/$L$2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="4">
+        <f>ABS(E5)</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <f>D5*ABS(E5)</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I5" s="4">
+        <f>D5/$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="4">
+        <f>E5/$E$2</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L5" s="4">
+        <f>F5*(C5+20)</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <f>D6/$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
+        <f>E6/$E$2</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L6" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M6" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
+        <f>D7/$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="4">
+        <f>E7/$E$2</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L7" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M7" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <f>D8/$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="4">
+        <f>E8/$E$2</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L8" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M8" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <f>D9/$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="4">
+        <f>E9/$E$2</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L9" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="4">
+        <f>D10/$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="4">
+        <f>E10/$E$2</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L10" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M10" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="4">
+        <f>D11/$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="4">
+        <f>E11/$E$2</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L11" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <f>D12/$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
+        <f>E12/$E$2</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="4">
+        <f>D13/$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="4">
+        <f>E13/$E$2</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="4">
+        <f>D14/$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="4">
+        <f>E14/$E$2</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD26"/>
   <sheetViews>

--- a/Results_water_Up_Down_Baffle.xlsx
+++ b/Results_water_Up_Down_Baffle.xlsx
@@ -2,31 +2,30 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s137552\Documents\aTUe\2017-2018\kwartiel 3\introduction to CFD\final assignment\git\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9120" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9120" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="LengthBaffle" sheetId="2" r:id="rId1"/>
     <sheet name="Baffle_Down_Up" sheetId="3" r:id="rId2"/>
     <sheet name="Baffle_Down_Up_Rep " sheetId="5" r:id="rId3"/>
-    <sheet name="Mesh_analyses" sheetId="4" r:id="rId4"/>
-    <sheet name="Baffle_down_up Re" sheetId="7" r:id="rId5"/>
-    <sheet name="Baffle_down_up_multiple" sheetId="8" r:id="rId6"/>
+    <sheet name="Baffle_Down_Up_Rep1_dist" sheetId="9" r:id="rId4"/>
+    <sheet name="Mesh_analyses" sheetId="4" r:id="rId5"/>
+    <sheet name="Baffle_down_up Re _ oud" sheetId="7" r:id="rId6"/>
     <sheet name="oud" sheetId="1" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="101" r:id="rId8"/>
-    <pivotCache cacheId="104" r:id="rId9"/>
-    <pivotCache cacheId="107" r:id="rId10"/>
+    <pivotCache cacheId="5" r:id="rId8"/>
+    <pivotCache cacheId="8" r:id="rId9"/>
+    <pivotCache cacheId="11" r:id="rId10"/>
   </pivotCaches>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="127">
   <si>
     <t>LengthBaffle</t>
   </si>
@@ -342,6 +341,81 @@
   </si>
   <si>
     <t>Sum of IoS Dens</t>
+  </si>
+  <si>
+    <t>Time step [s]</t>
+  </si>
+  <si>
+    <t>IoS [-]</t>
+  </si>
+  <si>
+    <t>computing time [s]</t>
+  </si>
+  <si>
+    <t>dt = 0.01</t>
+  </si>
+  <si>
+    <t>dt = 0.1</t>
+  </si>
+  <si>
+    <t>dt = 0.5</t>
+  </si>
+  <si>
+    <t>dt = 1.0</t>
+  </si>
+  <si>
+    <t>0.10 * NPI</t>
+  </si>
+  <si>
+    <t>Orifice</t>
+  </si>
+  <si>
+    <t>nulmeting</t>
+  </si>
+  <si>
+    <t>4 up + 4 down (0,1 NPI gap)</t>
+  </si>
+  <si>
+    <t>4 up + 4 down (0,05 NPI gap)</t>
+  </si>
+  <si>
+    <t>Literature</t>
+  </si>
+  <si>
+    <t>Repetitions 1 -&gt; dist inbetween</t>
+  </si>
+  <si>
+    <t>0,1 NPI</t>
+  </si>
+  <si>
+    <t>Baffle up/down with 0,05 NPI inbetween</t>
+  </si>
+  <si>
+    <t>0,1 NPI inbetween repetitions (DistBaffle = 0,15 NPI)</t>
+  </si>
+  <si>
+    <t>0,05 NPI</t>
+  </si>
+  <si>
+    <t>0,15 MPI</t>
+  </si>
+  <si>
+    <t>0,20 NPI</t>
+  </si>
+  <si>
+    <t>0,25 NPI</t>
+  </si>
+  <si>
+    <t>0,3 NPI</t>
+  </si>
+  <si>
+    <t>0,4 NPI</t>
+  </si>
+  <si>
+    <t>0,5 NPI</t>
+  </si>
+  <si>
+    <t>0,6 NPI</t>
   </si>
 </sst>
 </file>
@@ -412,7 +486,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -427,6 +501,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -585,6 +660,9 @@
       <c:pivotFmt>
         <c:idx val="5"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -600,6 +678,9 @@
       <c:pivotFmt>
         <c:idx val="6"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -615,6 +696,9 @@
       <c:pivotFmt>
         <c:idx val="7"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -630,6 +714,9 @@
       <c:pivotFmt>
         <c:idx val="8"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -645,6 +732,9 @@
       <c:pivotFmt>
         <c:idx val="9"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -660,6 +750,9 @@
       <c:pivotFmt>
         <c:idx val="10"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -822,11 +915,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="237558432"/>
-        <c:axId val="237555688"/>
+        <c:axId val="420853072"/>
+        <c:axId val="420851896"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="237558432"/>
+        <c:axId val="420853072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -869,7 +962,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="237555688"/>
+        <c:crossAx val="420851896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -877,7 +970,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="237555688"/>
+        <c:axId val="420851896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -928,7 +1021,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="237558432"/>
+        <c:crossAx val="420853072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1099,6 +1192,9 @@
       <c:pivotFmt>
         <c:idx val="0"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1173,6 +1269,9 @@
       <c:pivotFmt>
         <c:idx val="2"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1306,6 +1405,9 @@
       <c:pivotFmt>
         <c:idx val="5"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1321,6 +1423,9 @@
       <c:pivotFmt>
         <c:idx val="6"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1351,6 +1456,9 @@
       <c:pivotFmt>
         <c:idx val="8"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1374,7 +1482,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Baffle_Down_Up!$C$38</c:f>
+              <c:f>Baffle_Down_Up!$C$39</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1397,7 +1505,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Baffle_Down_Up!$B$39:$B$51</c:f>
+              <c:f>Baffle_Down_Up!$B$40:$B$52</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -1441,45 +1549,45 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Baffle_Down_Up!$C$39:$C$51</c:f>
+              <c:f>Baffle_Down_Up!$C$40:$C$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>3.5699999999999998E-3</c:v>
+                  <c:v>4.6899999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.9199999999999999E-3</c:v>
+                  <c:v>6.59E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2200000000000001E-2</c:v>
+                  <c:v>9.6500000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.5599999999999999E-2</c:v>
+                  <c:v>0.111</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.7100000000000001E-2</c:v>
+                  <c:v>0.12</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.8100000000000002E-2</c:v>
+                  <c:v>0.12</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.8800000000000001E-2</c:v>
+                  <c:v>0.127</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.8800000000000001E-2</c:v>
+                  <c:v>0.128</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.9199999999999998E-2</c:v>
+                  <c:v>0.128</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.9400000000000001E-2</c:v>
+                  <c:v>0.127</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.83E-2</c:v>
+                  <c:v>0.125</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.5599999999999999E-2</c:v>
+                  <c:v>0.13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1495,11 +1603,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="237558824"/>
-        <c:axId val="237561176"/>
+        <c:axId val="420852288"/>
+        <c:axId val="420853464"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="237558824"/>
+        <c:axId val="420852288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1542,7 +1650,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="237561176"/>
+        <c:crossAx val="420853464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1550,7 +1658,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="237561176"/>
+        <c:axId val="420853464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1601,7 +1709,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="237558824"/>
+        <c:crossAx val="420852288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1835,6 +1943,9 @@
       <c:pivotFmt>
         <c:idx val="1"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1968,6 +2079,9 @@
       <c:pivotFmt>
         <c:idx val="4"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1983,6 +2097,9 @@
       <c:pivotFmt>
         <c:idx val="5"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1998,6 +2115,9 @@
       <c:pivotFmt>
         <c:idx val="6"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2013,6 +2133,9 @@
       <c:pivotFmt>
         <c:idx val="7"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2028,6 +2151,9 @@
       <c:pivotFmt>
         <c:idx val="8"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2043,6 +2169,9 @@
       <c:pivotFmt>
         <c:idx val="9"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2081,7 +2210,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Baffle_Down_Up!$J$38</c:f>
+              <c:f>Baffle_Down_Up!$J$39</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2104,7 +2233,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Baffle_Down_Up!$I$39:$I$51</c:f>
+              <c:f>Baffle_Down_Up!$I$40:$I$52</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -2148,45 +2277,45 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Baffle_Down_Up!$J$39:$J$51</c:f>
+              <c:f>Baffle_Down_Up!$J$40:$J$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>9.6792935161515201E-2</c:v>
+                  <c:v>0.34610288211814688</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.18338898606031692</c:v>
+                  <c:v>0.46213372147542919</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.32580288741840657</c:v>
+                  <c:v>0.68065527518540714</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.39115916679917312</c:v>
+                  <c:v>0.74672505106596376</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.39460841273530095</c:v>
+                  <c:v>0.75345230377826966</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.38373880320135684</c:v>
+                  <c:v>0.75345230377826966</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.36638656832646338</c:v>
+                  <c:v>0.72491244378666864</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.30430014147616313</c:v>
+                  <c:v>0.67321452597331111</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.26380615727093698</c:v>
+                  <c:v>0.63668350518406158</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.22146931353482474</c:v>
+                  <c:v>0.60064173913752539</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.16563719314554104</c:v>
+                  <c:v>0.5555079891222362</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.10240101764986484</c:v>
+                  <c:v>0.54592675041077021</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2202,11 +2331,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="237561960"/>
-        <c:axId val="237562744"/>
+        <c:axId val="420854248"/>
+        <c:axId val="420854640"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="237561960"/>
+        <c:axId val="420854248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2249,7 +2378,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="237562744"/>
+        <c:crossAx val="420854640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2257,7 +2386,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="237562744"/>
+        <c:axId val="420854640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2308,7 +2437,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="237561960"/>
+        <c:crossAx val="420854248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2414,7 +2543,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Results_water_Up_Down_Baffle.xlsx]Baffle_down_up Re!PivotTable1</c:name>
+    <c:name>[Results_water_Up_Down_Baffle.xlsx]Baffle_down_up Re _ oud!PivotTable1</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -2423,6 +2552,9 @@
       <c:pivotFmt>
         <c:idx val="0"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2438,6 +2570,9 @@
       <c:pivotFmt>
         <c:idx val="1"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2491,7 +2626,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Baffle_down_up Re'!$G$37</c:f>
+              <c:f>'Baffle_down_up Re _ oud'!$G$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2514,7 +2649,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Baffle_down_up Re'!$F$38:$F$45</c:f>
+              <c:f>'Baffle_down_up Re _ oud'!$F$38:$F$45</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -2543,7 +2678,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Baffle_down_up Re'!$G$38:$G$45</c:f>
+              <c:f>'Baffle_down_up Re _ oud'!$G$38:$G$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2578,7 +2713,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Baffle_down_up Re'!$H$37</c:f>
+              <c:f>'Baffle_down_up Re _ oud'!$H$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2601,7 +2736,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Baffle_down_up Re'!$F$38:$F$45</c:f>
+              <c:f>'Baffle_down_up Re _ oud'!$F$38:$F$45</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -2630,7 +2765,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Baffle_down_up Re'!$H$38:$H$45</c:f>
+              <c:f>'Baffle_down_up Re _ oud'!$H$38:$H$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2669,11 +2804,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="481038792"/>
-        <c:axId val="481040752"/>
+        <c:axId val="422768328"/>
+        <c:axId val="422769112"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="481038792"/>
+        <c:axId val="422768328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2716,7 +2851,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="481040752"/>
+        <c:crossAx val="422769112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2724,7 +2859,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="481040752"/>
+        <c:axId val="422769112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2775,7 +2910,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="481038792"/>
+        <c:crossAx val="422768328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5132,13 +5267,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>579120</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>84667</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5162,13 +5297,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>819572</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>677333</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>4233</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5227,9 +5362,125 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Admin" refreshedDate="43195.8240224537" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="7">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Admin" refreshedDate="43207.611564814812" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="14">
   <cacheSource type="worksheet">
-    <worksheetSource ref="D7:W14" sheet="Baffle_down_up Re"/>
+    <worksheetSource ref="C1:M15" sheet="Baffle_Down_Up"/>
+  </cacheSource>
+  <cacheFields count="11">
+    <cacheField name="gridcels" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="10" maxValue="90" count="15">
+        <m/>
+        <n v="10"/>
+        <n v="13"/>
+        <n v="15"/>
+        <n v="20"/>
+        <n v="25"/>
+        <n v="30"/>
+        <n v="35"/>
+        <n v="40"/>
+        <n v="50"/>
+        <n v="60"/>
+        <n v="70"/>
+        <n v="80"/>
+        <n v="90"/>
+        <n v="14" u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="IoS" numFmtId="11">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="4.6899999999999997E-2" maxValue="0.99299999999999999"/>
+    </cacheField>
+    <cacheField name="dp" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-71.77" maxValue="-2.4700000000000002"/>
+    </cacheField>
+    <cacheField name="abs(dp)" numFmtId="11">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2.4700000000000002" maxValue="71.77"/>
+    </cacheField>
+    <cacheField name="IoS*dp" numFmtId="11">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.84889000000000003" maxValue="16.542985000000002"/>
+    </cacheField>
+    <cacheField name="Nor(IoS*dp)" numFmtId="11">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.34610288211814688" maxValue="6.7447782249022508"/>
+    </cacheField>
+    <cacheField name="nor(IoS)" numFmtId="11">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="4.7230614300100705E-2" maxValue="1"/>
+    </cacheField>
+    <cacheField name="nor(dp)" numFmtId="11">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1" maxValue="29.056680161943316"/>
+    </cacheField>
+    <cacheField name="nor(IoS) + nor(dp)" numFmtId="11">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1" maxValue="14.644402518031074"/>
+    </cacheField>
+    <cacheField name="dp*L" numFmtId="11">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="49.400000000000006" maxValue="2153.1"/>
+    </cacheField>
+    <cacheField name="nor(dp*L)" numFmtId="11">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1" maxValue="43.585020242914972"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Admin" refreshedDate="43207.611565162035" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="15">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="C1:I16" sheet="LengthBaffle"/>
+  </cacheSource>
+  <cacheFields count="7">
+    <cacheField name="LengthBaffle" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="32" count="15">
+        <n v="0"/>
+        <n v="4"/>
+        <n v="6"/>
+        <n v="8"/>
+        <n v="10"/>
+        <n v="12"/>
+        <n v="14"/>
+        <n v="16"/>
+        <n v="18"/>
+        <n v="20"/>
+        <n v="22"/>
+        <n v="24"/>
+        <n v="26"/>
+        <n v="28"/>
+        <n v="32"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="IoS" numFmtId="11">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="4.7300000000000002E-2" maxValue="0.99299999999999999"/>
+    </cacheField>
+    <cacheField name="dp (Pa)" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-54.3" maxValue="-2.4700000000000002"/>
+    </cacheField>
+    <cacheField name="IoS * dp" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2.4527100000000002" maxValue="2.6825999999999999"/>
+    </cacheField>
+    <cacheField name="IoS + dp" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="3.4630000000000001" maxValue="54.347299999999997"/>
+    </cacheField>
+    <cacheField name="nor(IoS * dp)" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1" maxValue="1.0937289773352739"/>
+    </cacheField>
+    <cacheField name="(nor(IoS) + nor(dp))" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1" maxValue="11.01571955102723"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Admin" refreshedDate="43207.611565509258" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="7">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="D7:W14" sheet="Baffle_down_up Re _ oud"/>
   </cacheSource>
   <cacheFields count="20">
     <cacheField name="Reynolds" numFmtId="0">
@@ -5310,122 +5561,334 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Admin" refreshedDate="43195.824022569446" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="15">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="C1:I16" sheet="LengthBaffle"/>
-  </cacheSource>
-  <cacheFields count="7">
-    <cacheField name="LengthBaffle" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="32" count="15">
-        <n v="0"/>
-        <n v="4"/>
-        <n v="6"/>
-        <n v="8"/>
-        <n v="10"/>
-        <n v="12"/>
-        <n v="14"/>
-        <n v="16"/>
-        <n v="18"/>
-        <n v="20"/>
-        <n v="22"/>
-        <n v="24"/>
-        <n v="26"/>
-        <n v="28"/>
-        <n v="32"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="IoS" numFmtId="11">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="4.7300000000000002E-2" maxValue="0.99299999999999999"/>
-    </cacheField>
-    <cacheField name="dp (Pa)" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-54.3" maxValue="-2.4700000000000002"/>
-    </cacheField>
-    <cacheField name="IoS * dp" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2.4527100000000002" maxValue="2.6825999999999999"/>
-    </cacheField>
-    <cacheField name="IoS + dp" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="3.4630000000000001" maxValue="54.347299999999997"/>
-    </cacheField>
-    <cacheField name="nor(IoS * dp)" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1" maxValue="1.0937289773352739"/>
-    </cacheField>
-    <cacheField name="(nor(IoS) + nor(dp))" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1" maxValue="11.01571955102723"/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="14">
+  <r>
+    <x v="0"/>
+    <n v="0.99299999999999999"/>
+    <n v="-2.4700000000000002"/>
+    <n v="2.4700000000000002"/>
+    <n v="2.4527100000000002"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="49.400000000000006"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="0.23050000000000001"/>
+    <n v="-71.77"/>
+    <n v="71.77"/>
+    <n v="16.542985000000002"/>
+    <n v="6.7447782249022508"/>
+    <n v="0.23212487411883184"/>
+    <n v="29.056680161943316"/>
+    <n v="14.644402518031074"/>
+    <n v="2153.1"/>
+    <n v="43.585020242914972"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="4.6899999999999997E-2"/>
+    <n v="-18.100000000000001"/>
+    <n v="18.100000000000001"/>
+    <n v="0.84889000000000003"/>
+    <n v="0.34610288211814688"/>
+    <n v="4.7230614300100705E-2"/>
+    <n v="7.3279352226720649"/>
+    <n v="3.6875829184860827"/>
+    <n v="597.30000000000007"/>
+    <n v="12.091093117408906"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="6.59E-2"/>
+    <n v="-17.2"/>
+    <n v="17.2"/>
+    <n v="1.13348"/>
+    <n v="0.46213372147542919"/>
+    <n v="6.6364551863041285E-2"/>
+    <n v="6.9635627530364363"/>
+    <n v="3.514963652449739"/>
+    <n v="602"/>
+    <n v="12.186234817813764"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="9.6500000000000002E-2"/>
+    <n v="-17.3"/>
+    <n v="17.3"/>
+    <n v="1.6694500000000001"/>
+    <n v="0.68065527518540714"/>
+    <n v="9.7180261832829809E-2"/>
+    <n v="7.0040485829959511"/>
+    <n v="3.5506144224143905"/>
+    <n v="692"/>
+    <n v="14.0080971659919"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="0.111"/>
+    <n v="-16.5"/>
+    <n v="16.5"/>
+    <n v="1.8315000000000001"/>
+    <n v="0.74672505106596376"/>
+    <n v="0.11178247734138973"/>
+    <n v="6.6801619433198374"/>
+    <n v="3.3959722103306134"/>
+    <n v="742.5"/>
+    <n v="15.030364372469634"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="0.12"/>
+    <n v="-15.4"/>
+    <n v="15.4"/>
+    <n v="1.8479999999999999"/>
+    <n v="0.75345230377826966"/>
+    <n v="0.12084592145015105"/>
+    <n v="6.234817813765182"/>
+    <n v="3.1778318676076664"/>
+    <n v="770"/>
+    <n v="15.587044534412954"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="0.12"/>
+    <n v="-15.4"/>
+    <n v="15.4"/>
+    <n v="1.8479999999999999"/>
+    <n v="0.75345230377826966"/>
+    <n v="0.12084592145015105"/>
+    <n v="6.234817813765182"/>
+    <n v="3.1778318676076664"/>
+    <n v="847"/>
+    <n v="17.145748987854248"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="0.127"/>
+    <n v="-14"/>
+    <n v="14"/>
+    <n v="1.778"/>
+    <n v="0.72491244378666864"/>
+    <n v="0.12789526686807653"/>
+    <n v="5.6680161943319831"/>
+    <n v="2.8979557306000299"/>
+    <n v="840"/>
+    <n v="17.004048582995949"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="0.128"/>
+    <n v="-12.9"/>
+    <n v="12.9"/>
+    <n v="1.6512"/>
+    <n v="0.67321452597331111"/>
+    <n v="0.12890231621349446"/>
+    <n v="5.2226720647773277"/>
+    <n v="2.6757871904954111"/>
+    <n v="903"/>
+    <n v="18.279352226720647"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="0.128"/>
+    <n v="-12.2"/>
+    <n v="12.2"/>
+    <n v="1.5615999999999999"/>
+    <n v="0.63668350518406158"/>
+    <n v="0.12890231621349446"/>
+    <n v="4.9392712550607278"/>
+    <n v="2.5340867856371112"/>
+    <n v="976"/>
+    <n v="19.757085020242911"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="0.127"/>
+    <n v="-11.6"/>
+    <n v="11.6"/>
+    <n v="1.4732000000000001"/>
+    <n v="0.60064173913752539"/>
+    <n v="0.12789526686807653"/>
+    <n v="4.6963562753036436"/>
+    <n v="2.4121257710858601"/>
+    <n v="1044"/>
+    <n v="21.133603238866396"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <n v="0.125"/>
+    <n v="-10.9"/>
+    <n v="10.9"/>
+    <n v="1.3625"/>
+    <n v="0.5555079891222362"/>
+    <n v="0.12588116817724068"/>
+    <n v="4.4129554655870447"/>
+    <n v="2.2694183168821427"/>
+    <n v="1090"/>
+    <n v="22.064777327935222"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <n v="0.13"/>
+    <n v="-10.3"/>
+    <n v="10.3"/>
+    <n v="1.3390000000000002"/>
+    <n v="0.54592675041077021"/>
+    <n v="0.13091641490433031"/>
+    <n v="4.1700404858299596"/>
+    <n v="2.150478450367145"/>
+    <n v="1133"/>
+    <n v="22.935222672064775"/>
+  </r>
+</pivotCacheRecords>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Admin" refreshedDate="43195.824022800924" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="13">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="C1:M14" sheet="Baffle_Down_Up"/>
-  </cacheSource>
-  <cacheFields count="11">
-    <cacheField name="gridcels" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="13" maxValue="90" count="14">
-        <m/>
-        <n v="13"/>
-        <n v="15"/>
-        <n v="20"/>
-        <n v="25"/>
-        <n v="30"/>
-        <n v="35"/>
-        <n v="40"/>
-        <n v="50"/>
-        <n v="60"/>
-        <n v="70"/>
-        <n v="80"/>
-        <n v="90"/>
-        <n v="14" u="1"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="IoS" numFmtId="11">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="3.5699999999999998E-3" maxValue="0.99299999999999999"/>
-    </cacheField>
-    <cacheField name="dp" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-66.5" maxValue="-2.4700000000000002"/>
-    </cacheField>
-    <cacheField name="abs(dp)" numFmtId="11">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2.4700000000000002" maxValue="66.5"/>
-    </cacheField>
-    <cacheField name="IoS*dp" numFmtId="11">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.23740499999999998" maxValue="2.4527100000000002"/>
-    </cacheField>
-    <cacheField name="Nor(IoS*dp)" numFmtId="11">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="9.6792935161515201E-2" maxValue="1"/>
-    </cacheField>
-    <cacheField name="nor(IoS)" numFmtId="11">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="3.5951661631419937E-3" maxValue="1"/>
-    </cacheField>
-    <cacheField name="nor(dp)" numFmtId="11">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1" maxValue="26.92307692307692"/>
-    </cacheField>
-    <cacheField name="nor(IoS) + nor(dp)" numFmtId="11">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1" maxValue="13.46333604462003"/>
-    </cacheField>
-    <cacheField name="dp*L" numFmtId="11">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="49.400000000000006" maxValue="2868"/>
-    </cacheField>
-    <cacheField name="nor(dp*L)" numFmtId="11">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1" maxValue="58.056680161943312"/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="15">
+  <r>
+    <x v="0"/>
+    <n v="0.99299999999999999"/>
+    <n v="-2.4700000000000002"/>
+    <n v="2.4527100000000002"/>
+    <n v="3.4630000000000001"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="0.874"/>
+    <n v="-2.83"/>
+    <n v="2.47342"/>
+    <n v="3.7040000000000002"/>
+    <n v="1.008443721434658"/>
+    <n v="1.012955057874759"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="0.81200000000000006"/>
+    <n v="-3.16"/>
+    <n v="2.5659200000000002"/>
+    <n v="3.9720000000000004"/>
+    <n v="1.046157107852131"/>
+    <n v="1.0485381476000015"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="0.72599999999999998"/>
+    <n v="-3.58"/>
+    <n v="2.5990799999999998"/>
+    <n v="4.306"/>
+    <n v="1.0596768472424378"/>
+    <n v="1.0902552686620106"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="0.623"/>
+    <n v="-4.12"/>
+    <n v="2.5667599999999999"/>
+    <n v="4.7430000000000003"/>
+    <n v="1.0464995861720301"/>
+    <n v="1.1477039682636756"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="0.52100000000000002"/>
+    <n v="-4.83"/>
+    <n v="2.5164300000000002"/>
+    <n v="5.351"/>
+    <n v="1.0259794268380689"/>
+    <n v="1.2400691480036368"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="0.432"/>
+    <n v="-5.74"/>
+    <n v="2.4796800000000001"/>
+    <n v="6.1720000000000006"/>
+    <n v="1.0109960003424783"/>
+    <n v="1.3794659784483285"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="0.35499999999999998"/>
+    <n v="-7.01"/>
+    <n v="2.4885499999999996"/>
+    <n v="7.3650000000000002"/>
+    <n v="1.0146124083156995"/>
+    <n v="1.5977795988926533"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="0.28699999999999998"/>
+    <n v="-8.75"/>
+    <n v="2.51125"/>
+    <n v="9.0370000000000008"/>
+    <n v="1.0238674771986904"/>
+    <n v="1.9157666417962171"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="0.23"/>
+    <n v="-11.1"/>
+    <n v="2.5529999999999999"/>
+    <n v="11.33"/>
+    <n v="1.0408894651222524"/>
+    <n v="2.3627742374760978"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="0.18"/>
+    <n v="-14.5"/>
+    <n v="2.61"/>
+    <n v="14.68"/>
+    <n v="1.0641290654011275"/>
+    <n v="3.0258571131523904"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="0.13600000000000001"/>
+    <n v="-19.3"/>
+    <n v="2.6248000000000005"/>
+    <n v="19.436"/>
+    <n v="1.0701632072279235"/>
+    <n v="3.9753619465815362"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <n v="0.10199999999999999"/>
+    <n v="-26.3"/>
+    <n v="2.6825999999999999"/>
+    <n v="26.402000000000001"/>
+    <n v="1.0937289773352739"/>
+    <n v="5.3752461562924267"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <n v="7.0699999999999999E-2"/>
+    <n v="-37"/>
+    <n v="2.6158999999999999"/>
+    <n v="37.070700000000002"/>
+    <n v="1.066534567886134"/>
+    <n v="7.5254777368706449"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <n v="4.7300000000000002E-2"/>
+    <n v="-54.3"/>
+    <n v="2.56839"/>
+    <n v="54.347299999999997"/>
+    <n v="1.0471641571975487"/>
+    <n v="11.01571955102723"/>
+  </r>
+</pivotCacheRecords>
 </file>
 
-<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotCache/pivotCacheRecords3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="7">
   <r>
     <x v="0"/>
@@ -5584,322 +6047,8 @@
 </pivotCacheRecords>
 </file>
 
-<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="15">
-  <r>
-    <x v="0"/>
-    <n v="0.99299999999999999"/>
-    <n v="-2.4700000000000002"/>
-    <n v="2.4527100000000002"/>
-    <n v="3.4630000000000001"/>
-    <n v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="0.874"/>
-    <n v="-2.83"/>
-    <n v="2.47342"/>
-    <n v="3.7040000000000002"/>
-    <n v="1.008443721434658"/>
-    <n v="1.012955057874759"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="0.81200000000000006"/>
-    <n v="-3.16"/>
-    <n v="2.5659200000000002"/>
-    <n v="3.9720000000000004"/>
-    <n v="1.046157107852131"/>
-    <n v="1.0485381476000015"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="0.72599999999999998"/>
-    <n v="-3.58"/>
-    <n v="2.5990799999999998"/>
-    <n v="4.306"/>
-    <n v="1.0596768472424378"/>
-    <n v="1.0902552686620106"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="0.623"/>
-    <n v="-4.12"/>
-    <n v="2.5667599999999999"/>
-    <n v="4.7430000000000003"/>
-    <n v="1.0464995861720301"/>
-    <n v="1.1477039682636756"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <n v="0.52100000000000002"/>
-    <n v="-4.83"/>
-    <n v="2.5164300000000002"/>
-    <n v="5.351"/>
-    <n v="1.0259794268380689"/>
-    <n v="1.2400691480036368"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <n v="0.432"/>
-    <n v="-5.74"/>
-    <n v="2.4796800000000001"/>
-    <n v="6.1720000000000006"/>
-    <n v="1.0109960003424783"/>
-    <n v="1.3794659784483285"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <n v="0.35499999999999998"/>
-    <n v="-7.01"/>
-    <n v="2.4885499999999996"/>
-    <n v="7.3650000000000002"/>
-    <n v="1.0146124083156995"/>
-    <n v="1.5977795988926533"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <n v="0.28699999999999998"/>
-    <n v="-8.75"/>
-    <n v="2.51125"/>
-    <n v="9.0370000000000008"/>
-    <n v="1.0238674771986904"/>
-    <n v="1.9157666417962171"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <n v="0.23"/>
-    <n v="-11.1"/>
-    <n v="2.5529999999999999"/>
-    <n v="11.33"/>
-    <n v="1.0408894651222524"/>
-    <n v="2.3627742374760978"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <n v="0.18"/>
-    <n v="-14.5"/>
-    <n v="2.61"/>
-    <n v="14.68"/>
-    <n v="1.0641290654011275"/>
-    <n v="3.0258571131523904"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <n v="0.13600000000000001"/>
-    <n v="-19.3"/>
-    <n v="2.6248000000000005"/>
-    <n v="19.436"/>
-    <n v="1.0701632072279235"/>
-    <n v="3.9753619465815362"/>
-  </r>
-  <r>
-    <x v="12"/>
-    <n v="0.10199999999999999"/>
-    <n v="-26.3"/>
-    <n v="2.6825999999999999"/>
-    <n v="26.402000000000001"/>
-    <n v="1.0937289773352739"/>
-    <n v="5.3752461562924267"/>
-  </r>
-  <r>
-    <x v="13"/>
-    <n v="7.0699999999999999E-2"/>
-    <n v="-37"/>
-    <n v="2.6158999999999999"/>
-    <n v="37.070700000000002"/>
-    <n v="1.066534567886134"/>
-    <n v="7.5254777368706449"/>
-  </r>
-  <r>
-    <x v="14"/>
-    <n v="4.7300000000000002E-2"/>
-    <n v="-54.3"/>
-    <n v="2.56839"/>
-    <n v="54.347299999999997"/>
-    <n v="1.0471641571975487"/>
-    <n v="11.01571955102723"/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="13">
-  <r>
-    <x v="0"/>
-    <n v="0.99299999999999999"/>
-    <n v="-2.4700000000000002"/>
-    <n v="2.4700000000000002"/>
-    <n v="2.4527100000000002"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="49.400000000000006"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="3.5699999999999998E-3"/>
-    <n v="-66.5"/>
-    <n v="66.5"/>
-    <n v="0.23740499999999998"/>
-    <n v="9.6792935161515201E-2"/>
-    <n v="3.5951661631419937E-3"/>
-    <n v="26.92307692307692"/>
-    <n v="13.46333604462003"/>
-    <n v="2194.5"/>
-    <n v="44.42307692307692"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="6.9199999999999999E-3"/>
-    <n v="-65"/>
-    <n v="65"/>
-    <n v="0.44979999999999998"/>
-    <n v="0.18338898606031692"/>
-    <n v="6.9687814702920443E-3"/>
-    <n v="26.315789473684209"/>
-    <n v="13.16137912757725"/>
-    <n v="2275"/>
-    <n v="46.052631578947363"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="1.2200000000000001E-2"/>
-    <n v="-65.5"/>
-    <n v="65.5"/>
-    <n v="0.79910000000000003"/>
-    <n v="0.32580288741840657"/>
-    <n v="1.2286002014098692E-2"/>
-    <n v="26.518218623481779"/>
-    <n v="13.26525231274794"/>
-    <n v="2620"/>
-    <n v="53.036437246963558"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="1.5599999999999999E-2"/>
-    <n v="-61.5"/>
-    <n v="61.5"/>
-    <n v="0.95939999999999992"/>
-    <n v="0.39115916679917312"/>
-    <n v="1.5709969788519636E-2"/>
-    <n v="24.898785425101213"/>
-    <n v="12.457247697444867"/>
-    <n v="2767.5"/>
-    <n v="56.022267206477729"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <n v="1.7100000000000001E-2"/>
-    <n v="-56.6"/>
-    <n v="56.6"/>
-    <n v="0.96786000000000005"/>
-    <n v="0.39460841273530095"/>
-    <n v="1.7220543806646525E-2"/>
-    <n v="22.914979757085018"/>
-    <n v="11.466100150445833"/>
-    <n v="2830"/>
-    <n v="57.287449392712546"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <n v="1.8100000000000002E-2"/>
-    <n v="-52"/>
-    <n v="52"/>
-    <n v="0.94120000000000004"/>
-    <n v="0.38373880320135684"/>
-    <n v="1.8227593152064452E-2"/>
-    <n v="21.052631578947366"/>
-    <n v="10.535429586049716"/>
-    <n v="2860"/>
-    <n v="57.894736842105253"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <n v="1.8800000000000001E-2"/>
-    <n v="-47.8"/>
-    <n v="47.8"/>
-    <n v="0.89863999999999999"/>
-    <n v="0.36638656832646338"/>
-    <n v="1.8932527693857001E-2"/>
-    <n v="19.352226720647771"/>
-    <n v="9.6855796241708134"/>
-    <n v="2868"/>
-    <n v="58.056680161943312"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <n v="1.8800000000000001E-2"/>
-    <n v="-39.700000000000003"/>
-    <n v="39.700000000000003"/>
-    <n v="0.74636000000000013"/>
-    <n v="0.30430014147616313"/>
-    <n v="1.8932527693857001E-2"/>
-    <n v="16.072874493927124"/>
-    <n v="8.0459035108104899"/>
-    <n v="2779"/>
-    <n v="56.25506072874493"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <n v="1.9199999999999998E-2"/>
-    <n v="-33.700000000000003"/>
-    <n v="33.700000000000003"/>
-    <n v="0.64703999999999995"/>
-    <n v="0.26380615727093698"/>
-    <n v="1.9335347432024169E-2"/>
-    <n v="13.643724696356275"/>
-    <n v="6.8315300218941495"/>
-    <n v="2696"/>
-    <n v="54.574898785425098"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <n v="1.9400000000000001E-2"/>
-    <n v="-28"/>
-    <n v="28"/>
-    <n v="0.54320000000000002"/>
-    <n v="0.22146931353482474"/>
-    <n v="1.9536757301107755E-2"/>
-    <n v="11.336032388663966"/>
-    <n v="5.6777845729825369"/>
-    <n v="2520"/>
-    <n v="51.012145748987848"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <n v="1.83E-2"/>
-    <n v="-22.2"/>
-    <n v="22.2"/>
-    <n v="0.40626000000000001"/>
-    <n v="0.16563719314554104"/>
-    <n v="1.8429003021148038E-2"/>
-    <n v="8.9878542510121449"/>
-    <n v="4.5031416270166469"/>
-    <n v="2220"/>
-    <n v="44.939271255060724"/>
-  </r>
-  <r>
-    <x v="12"/>
-    <n v="1.5599999999999999E-2"/>
-    <n v="-16.100000000000001"/>
-    <n v="16.100000000000001"/>
-    <n v="0.25115999999999999"/>
-    <n v="0.10240101764986484"/>
-    <n v="1.5709969788519636E-2"/>
-    <n v="6.5182186234817818"/>
-    <n v="3.2669642966351509"/>
-    <n v="1771.0000000000002"/>
-    <n v="35.850202429149796"/>
-  </r>
-</pivotCacheRecords>
-</file>
-
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="104" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="D22:E38" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
@@ -6009,14 +6158,14 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="107" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="I38:J51" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="I39:J52" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
-      <items count="15">
-        <item x="1"/>
-        <item m="1" x="13"/>
+      <items count="16">
+        <item h="1" x="1"/>
         <item x="2"/>
+        <item m="1" x="14"/>
         <item x="3"/>
         <item x="4"/>
         <item x="5"/>
@@ -6027,6 +6176,7 @@
         <item x="10"/>
         <item x="11"/>
         <item x="12"/>
+        <item x="13"/>
         <item h="1" x="0"/>
         <item t="default"/>
       </items>
@@ -6047,10 +6197,7 @@
   </rowFields>
   <rowItems count="13">
     <i>
-      <x/>
-    </i>
-    <i>
-      <x v="2"/>
+      <x v="1"/>
     </i>
     <i>
       <x v="3"/>
@@ -6081,6 +6228,9 @@
     </i>
     <i>
       <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
     </i>
     <i t="grand">
       <x/>
@@ -6113,14 +6263,14 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="107" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
-  <location ref="B38:C51" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+  <location ref="B39:C52" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
-      <items count="15">
-        <item x="1"/>
-        <item m="1" x="13"/>
+      <items count="16">
+        <item h="1" x="1"/>
         <item x="2"/>
+        <item m="1" x="14"/>
         <item x="3"/>
         <item x="4"/>
         <item x="5"/>
@@ -6131,6 +6281,7 @@
         <item x="10"/>
         <item x="11"/>
         <item x="12"/>
+        <item x="13"/>
         <item h="1" x="0"/>
         <item t="default"/>
       </items>
@@ -6151,10 +6302,7 @@
   </rowFields>
   <rowItems count="13">
     <i>
-      <x/>
-    </i>
-    <i>
-      <x v="2"/>
+      <x v="1"/>
     </i>
     <i>
       <x v="3"/>
@@ -6185,6 +6333,9 @@
     </i>
     <i>
       <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
     </i>
     <i t="grand">
       <x/>
@@ -6217,7 +6368,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="101" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="F37:H45" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="20">
     <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
@@ -6591,7 +6742,7 @@
   <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I16"/>
+      <selection activeCell="D2" sqref="D2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7295,10 +7446,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q53"/>
+  <dimension ref="A1:Q54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7361,7 +7512,9 @@
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="4">
@@ -7391,7 +7544,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="4">
-        <f t="shared" ref="K2" si="0">(I2+J2)/2</f>
+        <f t="shared" ref="K2:K3" si="0">(I2+J2)/2</f>
         <v>1</v>
       </c>
       <c r="L2" s="4">
@@ -7404,640 +7557,685 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C3">
-        <v>13</v>
-      </c>
-      <c r="D3" s="8">
-        <v>3.5699999999999998E-3</v>
-      </c>
-      <c r="E3" s="8">
-        <v>-66.5</v>
+      <c r="A3" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="1">
+        <v>10</v>
+      </c>
+      <c r="D3" s="12">
+        <v>0.23050000000000001</v>
+      </c>
+      <c r="E3" s="12">
+        <v>-71.77</v>
       </c>
       <c r="F3" s="4">
         <f>ABS(E3)</f>
-        <v>66.5</v>
+        <v>71.77</v>
       </c>
       <c r="G3" s="4">
         <f>D3*ABS(E3)</f>
-        <v>0.23740499999999998</v>
+        <v>16.542985000000002</v>
       </c>
       <c r="H3" s="4">
         <f>G3/$G$2</f>
-        <v>9.6792935161515201E-2</v>
+        <v>6.7447782249022508</v>
       </c>
       <c r="I3" s="4">
         <f>D3/$D$2</f>
-        <v>3.5951661631419937E-3</v>
+        <v>0.23212487411883184</v>
       </c>
       <c r="J3" s="4">
         <f>E3/$E$2</f>
-        <v>26.92307692307692</v>
+        <v>29.056680161943316</v>
       </c>
       <c r="K3" s="4">
-        <f t="shared" ref="K3" si="1">(I3+J3)/2</f>
-        <v>13.46333604462003</v>
+        <f t="shared" si="0"/>
+        <v>14.644402518031074</v>
       </c>
       <c r="L3" s="4">
         <f>F3*(C3+20)</f>
-        <v>2194.5</v>
+        <v>2153.1</v>
       </c>
       <c r="M3" s="4">
         <f>L3/$L$2</f>
-        <v>44.42307692307692</v>
-      </c>
-      <c r="P3" s="1" t="s">
+        <v>43.585020242914972</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4">
+        <v>13</v>
+      </c>
+      <c r="D4" s="8">
+        <v>4.6899999999999997E-2</v>
+      </c>
+      <c r="E4" s="8">
+        <v>-18.100000000000001</v>
+      </c>
+      <c r="F4" s="4">
+        <f>ABS(E4)</f>
+        <v>18.100000000000001</v>
+      </c>
+      <c r="G4" s="4">
+        <f>D4*ABS(E4)</f>
+        <v>0.84889000000000003</v>
+      </c>
+      <c r="H4" s="4">
+        <f>G4/$G$2</f>
+        <v>0.34610288211814688</v>
+      </c>
+      <c r="I4" s="4">
+        <f>D4/$D$2</f>
+        <v>4.7230614300100705E-2</v>
+      </c>
+      <c r="J4" s="4">
+        <f>E4/$E$2</f>
+        <v>7.3279352226720649</v>
+      </c>
+      <c r="K4" s="4">
+        <f t="shared" ref="K4" si="1">(I4+J4)/2</f>
+        <v>3.6875829184860827</v>
+      </c>
+      <c r="L4" s="4">
+        <f>F4*(C4+20)</f>
+        <v>597.30000000000007</v>
+      </c>
+      <c r="M4" s="4">
+        <f>L4/$L$2</f>
+        <v>12.091093117408906</v>
+      </c>
+      <c r="P4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="Q3" s="4"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+      <c r="Q4" s="4"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C5" s="1">
         <v>15</v>
       </c>
-      <c r="D4" s="8">
-        <v>6.9199999999999999E-3</v>
-      </c>
-      <c r="E4" s="8">
-        <v>-65</v>
-      </c>
-      <c r="F4" s="4">
-        <f t="shared" ref="F4:F14" si="2">ABS(E4)</f>
-        <v>65</v>
-      </c>
-      <c r="G4" s="4">
-        <f t="shared" ref="G4:G14" si="3">D4*ABS(E4)</f>
-        <v>0.44979999999999998</v>
-      </c>
-      <c r="H4" s="4">
-        <f t="shared" ref="H4:H14" si="4">G4/$G$2</f>
-        <v>0.18338898606031692</v>
-      </c>
-      <c r="I4" s="4">
-        <f t="shared" ref="I4:I14" si="5">D4/$D$2</f>
-        <v>6.9687814702920443E-3</v>
-      </c>
-      <c r="J4" s="4">
-        <f t="shared" ref="J4:J14" si="6">E4/$E$2</f>
-        <v>26.315789473684209</v>
-      </c>
-      <c r="K4" s="4">
-        <f t="shared" ref="K4:K14" si="7">(I4+J4)/2</f>
-        <v>13.16137912757725</v>
-      </c>
-      <c r="L4" s="4">
-        <f t="shared" ref="L4:L14" si="8">F4*(C4+20)</f>
-        <v>2275</v>
-      </c>
-      <c r="M4" s="4">
-        <f t="shared" ref="M4:M14" si="9">L4/$L$2</f>
-        <v>46.052631578947363</v>
-      </c>
-      <c r="P4" s="3" t="s">
+      <c r="D5" s="8">
+        <v>6.59E-2</v>
+      </c>
+      <c r="E5" s="8">
+        <v>-17.2</v>
+      </c>
+      <c r="F5" s="4">
+        <f t="shared" ref="F5:F15" si="2">ABS(E5)</f>
+        <v>17.2</v>
+      </c>
+      <c r="G5" s="4">
+        <f t="shared" ref="G5:G15" si="3">D5*ABS(E5)</f>
+        <v>1.13348</v>
+      </c>
+      <c r="H5" s="4">
+        <f t="shared" ref="H5:H15" si="4">G5/$G$2</f>
+        <v>0.46213372147542919</v>
+      </c>
+      <c r="I5" s="4">
+        <f t="shared" ref="I5:I15" si="5">D5/$D$2</f>
+        <v>6.6364551863041285E-2</v>
+      </c>
+      <c r="J5" s="4">
+        <f t="shared" ref="J5:J15" si="6">E5/$E$2</f>
+        <v>6.9635627530364363</v>
+      </c>
+      <c r="K5" s="4">
+        <f t="shared" ref="K5:K15" si="7">(I5+J5)/2</f>
+        <v>3.514963652449739</v>
+      </c>
+      <c r="L5" s="4">
+        <f t="shared" ref="L5:L15" si="8">F5*(C5+20)</f>
+        <v>602</v>
+      </c>
+      <c r="M5" s="4">
+        <f t="shared" ref="M5:M15" si="9">L5/$L$2</f>
+        <v>12.186234817813764</v>
+      </c>
+      <c r="P5" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="Q4" s="4"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
+      <c r="Q5" s="4"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B6" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C6" s="3">
         <v>20</v>
       </c>
-      <c r="D5" s="8">
-        <v>1.2200000000000001E-2</v>
-      </c>
-      <c r="E5" s="8">
-        <v>-65.5</v>
-      </c>
-      <c r="F5" s="4">
-        <f t="shared" si="2"/>
-        <v>65.5</v>
-      </c>
-      <c r="G5" s="4">
-        <f t="shared" si="3"/>
-        <v>0.79910000000000003</v>
-      </c>
-      <c r="H5" s="4">
-        <f t="shared" si="4"/>
-        <v>0.32580288741840657</v>
-      </c>
-      <c r="I5" s="4">
-        <f t="shared" si="5"/>
-        <v>1.2286002014098692E-2</v>
-      </c>
-      <c r="J5" s="4">
-        <f t="shared" si="6"/>
-        <v>26.518218623481779</v>
-      </c>
-      <c r="K5" s="4">
-        <f t="shared" si="7"/>
-        <v>13.26525231274794</v>
-      </c>
-      <c r="L5" s="4">
-        <f t="shared" si="8"/>
-        <v>2620</v>
-      </c>
-      <c r="M5" s="4">
-        <f t="shared" si="9"/>
-        <v>53.036437246963558</v>
-      </c>
-      <c r="P5" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="4"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6">
-        <v>25</v>
-      </c>
       <c r="D6" s="8">
-        <v>1.5599999999999999E-2</v>
+        <v>9.6500000000000002E-2</v>
       </c>
       <c r="E6" s="8">
-        <v>-61.5</v>
+        <v>-17.3</v>
       </c>
       <c r="F6" s="4">
         <f t="shared" si="2"/>
-        <v>61.5</v>
+        <v>17.3</v>
       </c>
       <c r="G6" s="4">
         <f t="shared" si="3"/>
-        <v>0.95939999999999992</v>
+        <v>1.6694500000000001</v>
       </c>
       <c r="H6" s="4">
         <f t="shared" si="4"/>
-        <v>0.39115916679917312</v>
+        <v>0.68065527518540714</v>
       </c>
       <c r="I6" s="4">
         <f t="shared" si="5"/>
-        <v>1.5709969788519636E-2</v>
+        <v>9.7180261832829809E-2</v>
       </c>
       <c r="J6" s="4">
         <f t="shared" si="6"/>
-        <v>24.898785425101213</v>
+        <v>7.0040485829959511</v>
       </c>
       <c r="K6" s="4">
         <f t="shared" si="7"/>
-        <v>12.457247697444867</v>
+        <v>3.5506144224143905</v>
       </c>
       <c r="L6" s="4">
         <f t="shared" si="8"/>
-        <v>2767.5</v>
+        <v>692</v>
       </c>
       <c r="M6" s="4">
         <f t="shared" si="9"/>
-        <v>56.022267206477729</v>
+        <v>14.0080971659919</v>
       </c>
       <c r="P6" t="s">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="4"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C7">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D7" s="8">
-        <v>1.7100000000000001E-2</v>
+        <v>0.111</v>
       </c>
       <c r="E7" s="8">
-        <v>-56.6</v>
+        <v>-16.5</v>
       </c>
       <c r="F7" s="4">
         <f t="shared" si="2"/>
-        <v>56.6</v>
+        <v>16.5</v>
       </c>
       <c r="G7" s="4">
         <f t="shared" si="3"/>
-        <v>0.96786000000000005</v>
+        <v>1.8315000000000001</v>
       </c>
       <c r="H7" s="4">
         <f t="shared" si="4"/>
-        <v>0.39460841273530095</v>
+        <v>0.74672505106596376</v>
       </c>
       <c r="I7" s="4">
         <f t="shared" si="5"/>
-        <v>1.7220543806646525E-2</v>
+        <v>0.11178247734138973</v>
       </c>
       <c r="J7" s="4">
         <f t="shared" si="6"/>
-        <v>22.914979757085018</v>
+        <v>6.6801619433198374</v>
       </c>
       <c r="K7" s="4">
         <f t="shared" si="7"/>
-        <v>11.466100150445833</v>
+        <v>3.3959722103306134</v>
       </c>
       <c r="L7" s="4">
         <f t="shared" si="8"/>
-        <v>2830</v>
+        <v>742.5</v>
       </c>
       <c r="M7" s="4">
         <f t="shared" si="9"/>
-        <v>57.287449392712546</v>
+        <v>15.030364372469634</v>
+      </c>
+      <c r="P7" t="s">
+        <v>90</v>
       </c>
       <c r="Q7" s="4"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C8">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D8" s="8">
-        <v>1.8100000000000002E-2</v>
+        <v>0.12</v>
       </c>
       <c r="E8" s="8">
-        <v>-52</v>
+        <v>-15.4</v>
       </c>
       <c r="F8" s="4">
         <f t="shared" si="2"/>
-        <v>52</v>
+        <v>15.4</v>
       </c>
       <c r="G8" s="4">
         <f t="shared" si="3"/>
-        <v>0.94120000000000004</v>
+        <v>1.8479999999999999</v>
       </c>
       <c r="H8" s="4">
         <f t="shared" si="4"/>
-        <v>0.38373880320135684</v>
+        <v>0.75345230377826966</v>
       </c>
       <c r="I8" s="4">
         <f t="shared" si="5"/>
-        <v>1.8227593152064452E-2</v>
+        <v>0.12084592145015105</v>
       </c>
       <c r="J8" s="4">
         <f t="shared" si="6"/>
-        <v>21.052631578947366</v>
+        <v>6.234817813765182</v>
       </c>
       <c r="K8" s="4">
         <f t="shared" si="7"/>
-        <v>10.535429586049716</v>
+        <v>3.1778318676076664</v>
       </c>
       <c r="L8" s="4">
         <f t="shared" si="8"/>
-        <v>2860</v>
+        <v>770</v>
       </c>
       <c r="M8" s="4">
         <f t="shared" si="9"/>
-        <v>57.894736842105253</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>7</v>
+        <v>15.587044534412954</v>
       </c>
       <c r="Q8" s="4"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C9">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D9" s="8">
-        <v>1.8800000000000001E-2</v>
+        <v>0.12</v>
       </c>
       <c r="E9" s="8">
-        <v>-47.8</v>
+        <v>-15.4</v>
       </c>
       <c r="F9" s="4">
         <f t="shared" si="2"/>
-        <v>47.8</v>
+        <v>15.4</v>
       </c>
       <c r="G9" s="4">
         <f t="shared" si="3"/>
-        <v>0.89863999999999999</v>
+        <v>1.8479999999999999</v>
       </c>
       <c r="H9" s="4">
         <f t="shared" si="4"/>
-        <v>0.36638656832646338</v>
+        <v>0.75345230377826966</v>
       </c>
       <c r="I9" s="4">
         <f t="shared" si="5"/>
-        <v>1.8932527693857001E-2</v>
+        <v>0.12084592145015105</v>
       </c>
       <c r="J9" s="4">
         <f t="shared" si="6"/>
-        <v>19.352226720647771</v>
+        <v>6.234817813765182</v>
       </c>
       <c r="K9" s="4">
         <f t="shared" si="7"/>
-        <v>9.6855796241708134</v>
+        <v>3.1778318676076664</v>
       </c>
       <c r="L9" s="4">
         <f t="shared" si="8"/>
-        <v>2868</v>
+        <v>847</v>
       </c>
       <c r="M9" s="4">
         <f t="shared" si="9"/>
-        <v>58.056680161943312</v>
+        <v>17.145748987854248</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>81</v>
+        <v>7</v>
       </c>
       <c r="Q9" s="4"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C10">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D10" s="8">
-        <v>1.8800000000000001E-2</v>
+        <v>0.127</v>
       </c>
       <c r="E10" s="8">
-        <v>-39.700000000000003</v>
+        <v>-14</v>
       </c>
       <c r="F10" s="4">
         <f t="shared" si="2"/>
-        <v>39.700000000000003</v>
+        <v>14</v>
       </c>
       <c r="G10" s="4">
         <f t="shared" si="3"/>
-        <v>0.74636000000000013</v>
+        <v>1.778</v>
       </c>
       <c r="H10" s="4">
         <f t="shared" si="4"/>
-        <v>0.30430014147616313</v>
+        <v>0.72491244378666864</v>
       </c>
       <c r="I10" s="4">
         <f t="shared" si="5"/>
-        <v>1.8932527693857001E-2</v>
+        <v>0.12789526686807653</v>
       </c>
       <c r="J10" s="4">
         <f t="shared" si="6"/>
-        <v>16.072874493927124</v>
+        <v>5.6680161943319831</v>
       </c>
       <c r="K10" s="4">
         <f t="shared" si="7"/>
-        <v>8.0459035108104899</v>
+        <v>2.8979557306000299</v>
       </c>
       <c r="L10" s="4">
         <f t="shared" si="8"/>
-        <v>2779</v>
+        <v>840</v>
       </c>
       <c r="M10" s="4">
         <f t="shared" si="9"/>
-        <v>56.25506072874493</v>
+        <v>17.004048582995949</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="Q10" s="4"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C11">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D11" s="8">
-        <v>1.9199999999999998E-2</v>
+        <v>0.128</v>
       </c>
       <c r="E11" s="8">
-        <v>-33.700000000000003</v>
+        <v>-12.9</v>
       </c>
       <c r="F11" s="4">
         <f t="shared" si="2"/>
-        <v>33.700000000000003</v>
+        <v>12.9</v>
       </c>
       <c r="G11" s="4">
         <f t="shared" si="3"/>
-        <v>0.64703999999999995</v>
+        <v>1.6512</v>
       </c>
       <c r="H11" s="4">
         <f t="shared" si="4"/>
-        <v>0.26380615727093698</v>
+        <v>0.67321452597331111</v>
       </c>
       <c r="I11" s="4">
         <f t="shared" si="5"/>
-        <v>1.9335347432024169E-2</v>
+        <v>0.12890231621349446</v>
       </c>
       <c r="J11" s="4">
         <f t="shared" si="6"/>
-        <v>13.643724696356275</v>
+        <v>5.2226720647773277</v>
       </c>
       <c r="K11" s="4">
         <f t="shared" si="7"/>
-        <v>6.8315300218941495</v>
+        <v>2.6757871904954111</v>
       </c>
       <c r="L11" s="4">
         <f t="shared" si="8"/>
-        <v>2696</v>
+        <v>903</v>
       </c>
       <c r="M11" s="4">
         <f t="shared" si="9"/>
-        <v>54.574898785425098</v>
+        <v>18.279352226720647</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="Q11" s="4"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C12">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D12" s="8">
-        <v>1.9400000000000001E-2</v>
+        <v>0.128</v>
       </c>
       <c r="E12" s="8">
-        <v>-28</v>
+        <v>-12.2</v>
       </c>
       <c r="F12" s="4">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>12.2</v>
       </c>
       <c r="G12" s="4">
         <f t="shared" si="3"/>
-        <v>0.54320000000000002</v>
+        <v>1.5615999999999999</v>
       </c>
       <c r="H12" s="4">
         <f t="shared" si="4"/>
-        <v>0.22146931353482474</v>
+        <v>0.63668350518406158</v>
       </c>
       <c r="I12" s="4">
         <f t="shared" si="5"/>
-        <v>1.9536757301107755E-2</v>
+        <v>0.12890231621349446</v>
       </c>
       <c r="J12" s="4">
         <f t="shared" si="6"/>
-        <v>11.336032388663966</v>
+        <v>4.9392712550607278</v>
       </c>
       <c r="K12" s="4">
         <f t="shared" si="7"/>
-        <v>5.6777845729825369</v>
+        <v>2.5340867856371112</v>
       </c>
       <c r="L12" s="4">
         <f t="shared" si="8"/>
-        <v>2520</v>
+        <v>976</v>
       </c>
       <c r="M12" s="4">
         <f t="shared" si="9"/>
-        <v>51.012145748987848</v>
+        <v>19.757085020242911</v>
       </c>
       <c r="Q12" s="4"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C13">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D13" s="8">
-        <v>1.83E-2</v>
+        <v>0.127</v>
       </c>
       <c r="E13" s="8">
-        <v>-22.2</v>
+        <v>-11.6</v>
       </c>
       <c r="F13" s="4">
         <f t="shared" si="2"/>
-        <v>22.2</v>
+        <v>11.6</v>
       </c>
       <c r="G13" s="4">
         <f t="shared" si="3"/>
-        <v>0.40626000000000001</v>
+        <v>1.4732000000000001</v>
       </c>
       <c r="H13" s="4">
         <f t="shared" si="4"/>
-        <v>0.16563719314554104</v>
+        <v>0.60064173913752539</v>
       </c>
       <c r="I13" s="4">
         <f t="shared" si="5"/>
-        <v>1.8429003021148038E-2</v>
+        <v>0.12789526686807653</v>
       </c>
       <c r="J13" s="4">
         <f t="shared" si="6"/>
-        <v>8.9878542510121449</v>
+        <v>4.6963562753036436</v>
       </c>
       <c r="K13" s="4">
         <f t="shared" si="7"/>
-        <v>4.5031416270166469</v>
+        <v>2.4121257710858601</v>
       </c>
       <c r="L13" s="4">
         <f t="shared" si="8"/>
-        <v>2220</v>
+        <v>1044</v>
       </c>
       <c r="M13" s="4">
         <f t="shared" si="9"/>
-        <v>44.939271255060724</v>
-      </c>
+        <v>21.133603238866396</v>
+      </c>
+      <c r="Q13" s="4"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C14">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D14" s="8">
-        <v>1.5599999999999999E-2</v>
+        <v>0.125</v>
       </c>
       <c r="E14" s="8">
-        <v>-16.100000000000001</v>
+        <v>-10.9</v>
       </c>
       <c r="F14" s="4">
         <f t="shared" si="2"/>
-        <v>16.100000000000001</v>
+        <v>10.9</v>
       </c>
       <c r="G14" s="4">
         <f t="shared" si="3"/>
-        <v>0.25115999999999999</v>
+        <v>1.3625</v>
       </c>
       <c r="H14" s="4">
         <f t="shared" si="4"/>
-        <v>0.10240101764986484</v>
+        <v>0.5555079891222362</v>
       </c>
       <c r="I14" s="4">
         <f t="shared" si="5"/>
-        <v>1.5709969788519636E-2</v>
+        <v>0.12588116817724068</v>
       </c>
       <c r="J14" s="4">
         <f t="shared" si="6"/>
-        <v>6.5182186234817818</v>
+        <v>4.4129554655870447</v>
       </c>
       <c r="K14" s="4">
         <f t="shared" si="7"/>
-        <v>3.2669642966351509</v>
+        <v>2.2694183168821427</v>
       </c>
       <c r="L14" s="4">
         <f t="shared" si="8"/>
-        <v>1771.0000000000002</v>
+        <v>1090</v>
       </c>
       <c r="M14" s="4">
         <f t="shared" si="9"/>
-        <v>35.850202429149796</v>
+        <v>22.064777327935222</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-    </row>
-    <row r="23" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15">
+        <v>90</v>
+      </c>
+      <c r="D15" s="8">
+        <v>0.13</v>
+      </c>
+      <c r="E15" s="8">
+        <v>-10.3</v>
+      </c>
+      <c r="F15" s="4">
+        <f t="shared" si="2"/>
+        <v>10.3</v>
+      </c>
+      <c r="G15" s="4">
+        <f t="shared" si="3"/>
+        <v>1.3390000000000002</v>
+      </c>
+      <c r="H15" s="4">
+        <f t="shared" si="4"/>
+        <v>0.54592675041077021</v>
+      </c>
+      <c r="I15" s="4">
+        <f t="shared" si="5"/>
+        <v>0.13091641490433031</v>
+      </c>
+      <c r="J15" s="4">
+        <f t="shared" si="6"/>
+        <v>4.1700404858299596</v>
+      </c>
+      <c r="K15" s="4">
+        <f t="shared" si="7"/>
+        <v>2.150478450367145</v>
+      </c>
+      <c r="L15" s="4">
+        <f t="shared" si="8"/>
+        <v>1133</v>
+      </c>
+      <c r="M15" s="4">
+        <f t="shared" si="9"/>
+        <v>22.935222672064775</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
     </row>
     <row r="24" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H24" s="7"/>
@@ -8096,49 +8294,36 @@
       <c r="I37" s="7"/>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B38" s="5" t="s">
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B39" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C39" t="s">
         <v>66</v>
       </c>
-      <c r="H38" s="7"/>
-      <c r="I38" s="5" t="s">
+      <c r="H39" s="7"/>
+      <c r="I39" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="J38" t="s">
+      <c r="J39" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B39" s="6">
-        <v>13</v>
-      </c>
-      <c r="C39" s="7">
-        <v>3.5699999999999998E-3</v>
-      </c>
-      <c r="I39" s="6">
-        <v>13</v>
-      </c>
-      <c r="J39" s="7">
-        <v>9.6792935161515201E-2</v>
-      </c>
-      <c r="N39" s="7"/>
-      <c r="O39" s="7"/>
-      <c r="P39" s="7"/>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B40" s="6">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C40" s="7">
-        <v>6.9199999999999999E-3</v>
+        <v>4.6899999999999997E-2</v>
       </c>
       <c r="I40" s="6">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J40" s="7">
-        <v>0.18338898606031692</v>
+        <v>0.34610288211814688</v>
       </c>
       <c r="N40" s="7"/>
       <c r="O40" s="7"/>
@@ -8146,16 +8331,16 @@
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B41" s="6">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C41" s="7">
-        <v>1.2200000000000001E-2</v>
+        <v>6.59E-2</v>
       </c>
       <c r="I41" s="6">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J41" s="7">
-        <v>0.32580288741840657</v>
+        <v>0.46213372147542919</v>
       </c>
       <c r="N41" s="7"/>
       <c r="O41" s="7"/>
@@ -8163,16 +8348,16 @@
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B42" s="6">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C42" s="7">
-        <v>1.5599999999999999E-2</v>
+        <v>9.6500000000000002E-2</v>
       </c>
       <c r="I42" s="6">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J42" s="7">
-        <v>0.39115916679917312</v>
+        <v>0.68065527518540714</v>
       </c>
       <c r="N42" s="7"/>
       <c r="O42" s="7"/>
@@ -8180,16 +8365,16 @@
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B43" s="6">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C43" s="7">
-        <v>1.7100000000000001E-2</v>
+        <v>0.111</v>
       </c>
       <c r="I43" s="6">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="J43" s="7">
-        <v>0.39460841273530095</v>
+        <v>0.74672505106596376</v>
       </c>
       <c r="N43" s="7"/>
       <c r="O43" s="7"/>
@@ -8197,16 +8382,16 @@
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B44" s="6">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C44" s="7">
-        <v>1.8100000000000002E-2</v>
+        <v>0.12</v>
       </c>
       <c r="I44" s="6">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J44" s="7">
-        <v>0.38373880320135684</v>
+        <v>0.75345230377826966</v>
       </c>
       <c r="N44" s="7"/>
       <c r="O44" s="7"/>
@@ -8214,16 +8399,16 @@
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B45" s="6">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C45" s="7">
-        <v>1.8800000000000001E-2</v>
+        <v>0.12</v>
       </c>
       <c r="I45" s="6">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="J45" s="7">
-        <v>0.36638656832646338</v>
+        <v>0.75345230377826966</v>
       </c>
       <c r="N45" s="7"/>
       <c r="O45" s="7"/>
@@ -8231,16 +8416,16 @@
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B46" s="6">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C46" s="7">
-        <v>1.8800000000000001E-2</v>
+        <v>0.127</v>
       </c>
       <c r="I46" s="6">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J46" s="7">
-        <v>0.30430014147616313</v>
+        <v>0.72491244378666864</v>
       </c>
       <c r="N46" s="7"/>
       <c r="O46" s="7"/>
@@ -8248,16 +8433,16 @@
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B47" s="6">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C47" s="7">
-        <v>1.9199999999999998E-2</v>
+        <v>0.128</v>
       </c>
       <c r="I47" s="6">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="J47" s="7">
-        <v>0.26380615727093698</v>
+        <v>0.67321452597331111</v>
       </c>
       <c r="N47" s="7"/>
       <c r="O47" s="7"/>
@@ -8265,16 +8450,16 @@
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B48" s="6">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C48" s="7">
-        <v>1.9400000000000001E-2</v>
+        <v>0.128</v>
       </c>
       <c r="I48" s="6">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="J48" s="7">
-        <v>0.22146931353482474</v>
+        <v>0.63668350518406158</v>
       </c>
       <c r="N48" s="7"/>
       <c r="O48" s="7"/>
@@ -8282,16 +8467,16 @@
     </row>
     <row r="49" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B49" s="6">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C49" s="7">
-        <v>1.83E-2</v>
+        <v>0.127</v>
       </c>
       <c r="I49" s="6">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="J49" s="7">
-        <v>0.16563719314554104</v>
+        <v>0.60064173913752539</v>
       </c>
       <c r="N49" s="7"/>
       <c r="O49" s="7"/>
@@ -8299,39 +8484,51 @@
     </row>
     <row r="50" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B50" s="6">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C50" s="7">
-        <v>1.5599999999999999E-2</v>
+        <v>0.125</v>
       </c>
       <c r="I50" s="6">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="J50" s="7">
-        <v>0.10240101764986484</v>
+        <v>0.5555079891222362</v>
       </c>
       <c r="N50" s="7"/>
       <c r="O50" s="7"/>
       <c r="P50" s="7"/>
     </row>
     <row r="51" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B51" s="6" t="s">
-        <v>65</v>
+      <c r="B51" s="6">
+        <v>90</v>
       </c>
       <c r="C51" s="7">
-        <v>0.18359000000000003</v>
-      </c>
-      <c r="I51" s="6" t="s">
-        <v>65</v>
+        <v>0.13</v>
+      </c>
+      <c r="I51" s="6">
+        <v>90</v>
       </c>
       <c r="J51" s="7">
-        <v>3.1994915827798636</v>
+        <v>0.54592675041077021</v>
       </c>
       <c r="N51" s="7"/>
       <c r="O51" s="7"/>
       <c r="P51" s="7"/>
     </row>
     <row r="52" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B52" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C52" s="7">
+        <v>1.3252999999999999</v>
+      </c>
+      <c r="I52" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="J52" s="7">
+        <v>7.4794084910160592</v>
+      </c>
       <c r="N52" s="7"/>
       <c r="O52" s="7"/>
       <c r="P52" s="7"/>
@@ -8340,6 +8537,11 @@
       <c r="N53" s="7"/>
       <c r="O53" s="7"/>
       <c r="P53" s="7"/>
+    </row>
+    <row r="54" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="N54" s="7"/>
+      <c r="O54" s="7"/>
+      <c r="P54" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8350,16 +8552,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J15"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.33203125" customWidth="1"/>
     <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.77734375" customWidth="1"/>
@@ -8406,25 +8608,23 @@
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2" s="8">
-        <v>6.9199999999999999E-3</v>
-      </c>
-      <c r="D2" s="8">
-        <v>-65</v>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="D2">
+        <v>-2.4700000000000002</v>
       </c>
       <c r="E2" s="4">
-        <f>ABS(D2)</f>
-        <v>65</v>
+        <f t="shared" ref="E2" si="0">ABS(D2)</f>
+        <v>2.4700000000000002</v>
       </c>
       <c r="F2" s="4">
-        <f>C2*ABS(D2)</f>
-        <v>0.44979999999999998</v>
+        <f t="shared" ref="F2" si="1">C2*ABS(D2)</f>
+        <v>2.4527100000000002</v>
       </c>
       <c r="G2" s="4">
         <f>F2/$F$2</f>
@@ -8439,240 +8639,245 @@
         <v>1</v>
       </c>
       <c r="J2" s="4">
-        <f t="shared" ref="J2:J15" si="0">(H2+I2)/2</f>
+        <f t="shared" ref="J2" si="2">(H2+I2)/2</f>
         <v>1</v>
       </c>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="8">
-        <v>1.1299999999999999E-2</v>
+        <v>6.59E-2</v>
       </c>
       <c r="D3" s="8">
-        <v>-148</v>
+        <v>-17.2</v>
       </c>
       <c r="E3" s="4">
-        <f>ABS(D3)</f>
-        <v>148</v>
+        <f t="shared" ref="E3:E16" si="3">ABS(D3)</f>
+        <v>17.2</v>
       </c>
       <c r="F3" s="4">
-        <f>C3*ABS(D3)</f>
-        <v>1.6723999999999999</v>
+        <f t="shared" ref="F3:F16" si="4">C3*ABS(D3)</f>
+        <v>1.13348</v>
       </c>
       <c r="G3" s="4">
-        <f>F3/$F$2</f>
-        <v>3.7180969319697641</v>
+        <f t="shared" ref="G3:G16" si="5">F3/$F$2</f>
+        <v>0.46213372147542919</v>
       </c>
       <c r="H3" s="4">
-        <f>C3/$C$2</f>
-        <v>1.6329479768786126</v>
+        <f t="shared" ref="H3:H16" si="6">C3/$C$2</f>
+        <v>6.6364551863041285E-2</v>
       </c>
       <c r="I3" s="4">
-        <f>D3/$D$2</f>
-        <v>2.2769230769230768</v>
+        <f t="shared" ref="I3:I16" si="7">D3/$D$2</f>
+        <v>6.9635627530364363</v>
       </c>
       <c r="J3" s="4">
-        <f t="shared" si="0"/>
-        <v>1.9549355269008446</v>
+        <f t="shared" ref="J3:J16" si="8">(H3+I3)/2</f>
+        <v>3.514963652449739</v>
       </c>
       <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
+      <c r="L3" s="4" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="8">
-        <v>2.1600000000000001E-2</v>
+        <v>9.6799999999999994E-3</v>
       </c>
       <c r="D4" s="8">
-        <v>-219</v>
+        <v>-34.6</v>
       </c>
       <c r="E4" s="4">
-        <f>ABS(D4)</f>
-        <v>219</v>
+        <f t="shared" si="3"/>
+        <v>34.6</v>
       </c>
       <c r="F4" s="4">
-        <f>C4*ABS(D4)</f>
-        <v>4.7304000000000004</v>
+        <f t="shared" si="4"/>
+        <v>0.334928</v>
       </c>
       <c r="G4" s="4">
-        <f>F4/$F$2</f>
-        <v>10.516674077367721</v>
+        <f t="shared" si="5"/>
+        <v>0.13655426038952831</v>
       </c>
       <c r="H4" s="4">
-        <f>C4/$C$2</f>
-        <v>3.1213872832369942</v>
+        <f t="shared" si="6"/>
+        <v>9.7482376636455186E-3</v>
       </c>
       <c r="I4" s="4">
-        <f>D4/$D$2</f>
-        <v>3.3692307692307693</v>
+        <f t="shared" si="7"/>
+        <v>14.008097165991902</v>
       </c>
       <c r="J4" s="4">
-        <f t="shared" si="0"/>
-        <v>3.2453090262338815</v>
+        <f t="shared" si="8"/>
+        <v>7.0089227018277738</v>
       </c>
       <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
+      <c r="L4" s="4" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
       </c>
       <c r="C5" s="8">
-        <v>3.4000000000000002E-2</v>
+        <v>1.0200000000000001E-2</v>
       </c>
       <c r="D5" s="8">
-        <v>-279</v>
+        <v>-49</v>
       </c>
       <c r="E5" s="4">
-        <f>ABS(D5)</f>
-        <v>279</v>
+        <f t="shared" si="3"/>
+        <v>49</v>
       </c>
       <c r="F5" s="4">
-        <f>C5*ABS(D5)</f>
-        <v>9.4860000000000007</v>
+        <f t="shared" si="4"/>
+        <v>0.49980000000000002</v>
       </c>
       <c r="G5" s="4">
-        <f>F5/$F$2</f>
-        <v>21.089373054690977</v>
+        <f t="shared" si="5"/>
+        <v>0.20377460034003203</v>
       </c>
       <c r="H5" s="4">
-        <f>C5/$C$2</f>
-        <v>4.913294797687862</v>
+        <f t="shared" si="6"/>
+        <v>1.0271903323262841E-2</v>
       </c>
       <c r="I5" s="4">
-        <f>D5/$D$2</f>
-        <v>4.2923076923076922</v>
+        <f t="shared" si="7"/>
+        <v>19.838056680161941</v>
       </c>
       <c r="J5" s="4">
-        <f t="shared" si="0"/>
-        <v>4.6028012449977771</v>
+        <f t="shared" si="8"/>
+        <v>9.9241642917426027</v>
       </c>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="8">
-        <v>4.7899999999999998E-2</v>
+        <v>1.37E-2</v>
       </c>
       <c r="D6" s="8">
-        <v>-328</v>
+        <v>-59.4</v>
       </c>
       <c r="E6" s="4">
-        <f>ABS(D6)</f>
-        <v>328</v>
+        <f t="shared" si="3"/>
+        <v>59.4</v>
       </c>
       <c r="F6" s="4">
-        <f>C6*ABS(D6)</f>
-        <v>15.7112</v>
+        <f t="shared" si="4"/>
+        <v>0.81377999999999995</v>
       </c>
       <c r="G6" s="4">
-        <f>F6/$F$2</f>
-        <v>34.92930191196087</v>
+        <f t="shared" si="5"/>
+        <v>0.33178810377093088</v>
       </c>
       <c r="H6" s="4">
-        <f>C6/$C$2</f>
-        <v>6.9219653179190752</v>
+        <f t="shared" si="6"/>
+        <v>1.3796576032225579E-2</v>
       </c>
       <c r="I6" s="4">
-        <f>D6/$D$2</f>
-        <v>5.046153846153846</v>
+        <f t="shared" si="7"/>
+        <v>24.048582995951413</v>
       </c>
       <c r="J6" s="4">
-        <f t="shared" si="0"/>
-        <v>5.9840595820364602</v>
+        <f t="shared" si="8"/>
+        <v>12.031189785991819</v>
       </c>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" s="8">
-        <v>6.2700000000000006E-2</v>
+        <v>1.77E-2</v>
       </c>
       <c r="D7" s="8">
-        <v>-365</v>
+        <v>-65.400000000000006</v>
       </c>
       <c r="E7" s="4">
-        <f>ABS(D7)</f>
-        <v>365</v>
+        <f t="shared" si="3"/>
+        <v>65.400000000000006</v>
       </c>
       <c r="F7" s="4">
-        <f>C7*ABS(D7)</f>
-        <v>22.8855</v>
+        <f t="shared" si="4"/>
+        <v>1.1575800000000001</v>
       </c>
       <c r="G7" s="4">
-        <f>F7/$F$2</f>
-        <v>50.879279679857717</v>
+        <f t="shared" si="5"/>
+        <v>0.4719595875582519</v>
       </c>
       <c r="H7" s="4">
-        <f>C7/$C$2</f>
-        <v>9.0606936416184976</v>
+        <f t="shared" si="6"/>
+        <v>1.7824773413897283E-2</v>
       </c>
       <c r="I7" s="4">
-        <f>D7/$D$2</f>
-        <v>5.615384615384615</v>
+        <f t="shared" si="7"/>
+        <v>26.477732793522268</v>
       </c>
       <c r="J7" s="4">
-        <f t="shared" si="0"/>
-        <v>7.3380391285015563</v>
+        <f t="shared" si="8"/>
+        <v>13.247778783468082</v>
       </c>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>6</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="B8" s="3"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="4">
-        <f>ABS(D8)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F8" s="4">
-        <f>C8*ABS(D8)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G8" s="4">
-        <f>F8/$F$2</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H8" s="4">
-        <f>C8/$C$2</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I8" s="4">
-        <f>D8/$D$2</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J8" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K8" s="4"/>
@@ -8680,32 +8885,32 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="4">
-        <f>ABS(D9)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F9" s="4">
-        <f>C9*ABS(D9)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G9" s="4">
-        <f>F9/$F$2</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H9" s="4">
-        <f>C9/$C$2</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I9" s="4">
-        <f>D9/$D$2</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J9" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K9" s="4"/>
@@ -8713,32 +8918,35 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>114</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="4">
-        <f>ABS(D10)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F10" s="4">
-        <f>C10*ABS(D10)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G10" s="4">
-        <f>F10/$F$2</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H10" s="4">
-        <f>C10/$C$2</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I10" s="4">
-        <f>D10/$D$2</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J10" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K10" s="4"/>
@@ -8746,139 +8954,145 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C11" s="8">
+        <v>1.9400000000000001E-2</v>
+      </c>
+      <c r="D11" s="8">
+        <v>-56</v>
+      </c>
       <c r="E11" s="4">
-        <f>ABS(D11)</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>56</v>
       </c>
       <c r="F11" s="4">
-        <f>C11*ABS(D11)</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1.0864</v>
       </c>
       <c r="G11" s="4">
-        <f>F11/$F$2</f>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>0.44293862706964948</v>
       </c>
       <c r="H11" s="4">
-        <f>C11/$C$2</f>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1.9536757301107755E-2</v>
       </c>
       <c r="I11" s="4">
-        <f>D11/$D$2</f>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>22.672064777327932</v>
       </c>
       <c r="J11" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>11.34580076731452</v>
       </c>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>112</v>
       </c>
       <c r="C12" s="8">
-        <v>0.23300000000000001</v>
+        <v>1.6299999999999999E-2</v>
       </c>
       <c r="D12" s="8">
-        <v>169</v>
+        <v>-39.200000000000003</v>
       </c>
       <c r="E12" s="4">
-        <f>ABS(D12)</f>
-        <v>169</v>
+        <f t="shared" si="3"/>
+        <v>39.200000000000003</v>
       </c>
       <c r="F12" s="4">
-        <f>C12*ABS(D12)</f>
-        <v>39.377000000000002</v>
+        <f t="shared" si="4"/>
+        <v>0.63895999999999997</v>
       </c>
       <c r="G12" s="4">
-        <f>F12/$F$2</f>
-        <v>87.543352601156073</v>
+        <f t="shared" si="5"/>
+        <v>0.26051184200333505</v>
       </c>
       <c r="H12" s="4">
-        <f>C12/$C$2</f>
-        <v>33.670520231213878</v>
+        <f t="shared" si="6"/>
+        <v>1.6414904330312185E-2</v>
       </c>
       <c r="I12" s="4">
-        <f>D12/$D$2</f>
-        <v>-2.6</v>
+        <f t="shared" si="7"/>
+        <v>15.870445344129555</v>
       </c>
       <c r="J12" s="4">
-        <f t="shared" si="0"/>
-        <v>15.535260115606938</v>
+        <f t="shared" si="8"/>
+        <v>7.9434301242299341</v>
       </c>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="C13" s="8">
-        <v>3.0800000000000001E-2</v>
-      </c>
-      <c r="D13" s="8">
-        <v>-172</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
       <c r="E13" s="4">
-        <f>ABS(D13)</f>
-        <v>172</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="F13" s="4">
-        <f>C13*ABS(D13)</f>
-        <v>5.2976000000000001</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="G13" s="4">
-        <f>F13/$F$2</f>
-        <v>11.777678968430415</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="H13" s="4">
-        <f>C13/$C$2</f>
-        <v>4.4508670520231215</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="I13" s="4">
-        <f>D13/$D$2</f>
-        <v>2.6461538461538461</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="J13" s="4">
-        <f t="shared" si="0"/>
-        <v>3.548510449088484</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="4">
-        <f>ABS(D14)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F14" s="4">
-        <f>C14*ABS(D14)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G14" s="4">
-        <f>F14/$F$2</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H14" s="4">
-        <f>C14/$C$2</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I14" s="4">
-        <f>D14/$D$2</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J14" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K14" s="4"/>
@@ -8886,48 +9100,708 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="4">
-        <f>ABS(D15)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F15" s="4">
-        <f>C15*ABS(D15)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G15" s="4">
-        <f>F15/$F$2</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H15" s="4">
-        <f>C15/$C$2</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I15" s="4">
-        <f>D15/$D$2</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J15" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
     </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.33203125" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.77734375" customWidth="1"/>
+    <col min="7" max="7" width="13.5546875" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="D2">
+        <v>-2.4700000000000002</v>
+      </c>
+      <c r="E2" s="4">
+        <f t="shared" ref="E2:E16" si="0">ABS(D2)</f>
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="F2" s="4">
+        <f t="shared" ref="F2:F16" si="1">C2*ABS(D2)</f>
+        <v>2.4527100000000002</v>
+      </c>
+      <c r="G2" s="4">
+        <f>F2/$F$2</f>
+        <v>1</v>
+      </c>
+      <c r="H2" s="4">
+        <f>C2/$C$2</f>
+        <v>1</v>
+      </c>
+      <c r="I2" s="4">
+        <f>D2/$D$2</f>
+        <v>1</v>
+      </c>
+      <c r="J2" s="4">
+        <f t="shared" ref="J2:J16" si="2">(H2+I2)/2</f>
+        <v>1</v>
+      </c>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3" s="8">
+        <v>9.4699999999999993E-3</v>
+      </c>
+      <c r="D3" s="8">
+        <v>-35.9</v>
+      </c>
+      <c r="E3" s="4">
+        <f t="shared" si="0"/>
+        <v>35.9</v>
+      </c>
+      <c r="F3" s="4">
+        <f t="shared" si="1"/>
+        <v>0.33997299999999997</v>
+      </c>
+      <c r="G3" s="4">
+        <f t="shared" ref="G3:G16" si="3">F3/$F$2</f>
+        <v>0.13861116887035155</v>
+      </c>
+      <c r="H3" s="4">
+        <f t="shared" ref="H3:H16" si="4">C3/$C$2</f>
+        <v>9.5367573011077532E-3</v>
+      </c>
+      <c r="I3" s="4">
+        <f t="shared" ref="I3:I16" si="5">D3/$D$2</f>
+        <v>14.534412955465585</v>
+      </c>
+      <c r="J3" s="4">
+        <f t="shared" si="2"/>
+        <v>7.2719748563833466</v>
+      </c>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" s="8">
+        <v>9.6799999999999994E-3</v>
+      </c>
+      <c r="D4" s="8">
+        <v>-34.6</v>
+      </c>
+      <c r="E4" s="4">
+        <f t="shared" si="0"/>
+        <v>34.6</v>
+      </c>
+      <c r="F4" s="4">
+        <f t="shared" si="1"/>
+        <v>0.334928</v>
+      </c>
+      <c r="G4" s="4">
+        <f t="shared" si="3"/>
+        <v>0.13655426038952831</v>
+      </c>
+      <c r="H4" s="4">
+        <f t="shared" si="4"/>
+        <v>9.7482376636455186E-3</v>
+      </c>
+      <c r="I4" s="4">
+        <f t="shared" si="5"/>
+        <v>14.008097165991902</v>
+      </c>
+      <c r="J4" s="4">
+        <f t="shared" si="2"/>
+        <v>7.0089227018277738</v>
+      </c>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="8">
+        <v>1.03E-2</v>
+      </c>
+      <c r="D5" s="8">
+        <v>-32.6</v>
+      </c>
+      <c r="E5" s="4">
+        <f t="shared" si="0"/>
+        <v>32.6</v>
+      </c>
+      <c r="F5" s="4">
+        <f t="shared" si="1"/>
+        <v>0.33578000000000002</v>
+      </c>
+      <c r="G5" s="4">
+        <f t="shared" si="3"/>
+        <v>0.13690163125685467</v>
+      </c>
+      <c r="H5" s="4">
+        <f t="shared" si="4"/>
+        <v>1.0372608257804632E-2</v>
+      </c>
+      <c r="I5" s="4">
+        <f t="shared" si="5"/>
+        <v>13.198380566801619</v>
+      </c>
+      <c r="J5" s="4">
+        <f t="shared" si="2"/>
+        <v>6.6043765875297122</v>
+      </c>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="8">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="D6" s="8">
+        <v>-30.6</v>
+      </c>
+      <c r="E6" s="4">
+        <f t="shared" si="0"/>
+        <v>30.6</v>
+      </c>
+      <c r="F6" s="4">
+        <f t="shared" si="1"/>
+        <v>0.33660000000000001</v>
+      </c>
+      <c r="G6" s="4">
+        <f t="shared" si="3"/>
+        <v>0.13723595533104199</v>
+      </c>
+      <c r="H6" s="4">
+        <f t="shared" si="4"/>
+        <v>1.1077542799597179E-2</v>
+      </c>
+      <c r="I6" s="4">
+        <f t="shared" si="5"/>
+        <v>12.388663967611336</v>
+      </c>
+      <c r="J6" s="4">
+        <f t="shared" si="2"/>
+        <v>6.1998707552054668</v>
+      </c>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" s="8">
+        <v>1.14E-2</v>
+      </c>
+      <c r="D7" s="8">
+        <v>-28.9</v>
+      </c>
+      <c r="E7" s="4">
+        <f t="shared" si="0"/>
+        <v>28.9</v>
+      </c>
+      <c r="F7" s="4">
+        <f t="shared" si="1"/>
+        <v>0.32945999999999998</v>
+      </c>
+      <c r="G7" s="4">
+        <f t="shared" si="3"/>
+        <v>0.13432488961189865</v>
+      </c>
+      <c r="H7" s="4">
+        <f t="shared" si="4"/>
+        <v>1.1480362537764351E-2</v>
+      </c>
+      <c r="I7" s="4">
+        <f t="shared" si="5"/>
+        <v>11.700404858299594</v>
+      </c>
+      <c r="J7" s="4">
+        <f t="shared" si="2"/>
+        <v>5.8559426104186789</v>
+      </c>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C8" s="8">
+        <v>1.18E-2</v>
+      </c>
+      <c r="D8" s="8">
+        <v>-27.5</v>
+      </c>
+      <c r="E8" s="4">
+        <f t="shared" si="0"/>
+        <v>27.5</v>
+      </c>
+      <c r="F8" s="4">
+        <f t="shared" si="1"/>
+        <v>0.32450000000000001</v>
+      </c>
+      <c r="G8" s="4">
+        <f t="shared" si="3"/>
+        <v>0.13230263667535094</v>
+      </c>
+      <c r="H8" s="4">
+        <f t="shared" si="4"/>
+        <v>1.188318227593152E-2</v>
+      </c>
+      <c r="I8" s="4">
+        <f t="shared" si="5"/>
+        <v>11.133603238866396</v>
+      </c>
+      <c r="J8" s="4">
+        <f t="shared" si="2"/>
+        <v>5.5727432105711641</v>
+      </c>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" s="8">
+        <v>1.26E-2</v>
+      </c>
+      <c r="D9" s="8">
+        <v>-25.1</v>
+      </c>
+      <c r="E9" s="4">
+        <f t="shared" si="0"/>
+        <v>25.1</v>
+      </c>
+      <c r="F9" s="4">
+        <f t="shared" si="1"/>
+        <v>0.31626000000000004</v>
+      </c>
+      <c r="G9" s="4">
+        <f t="shared" si="3"/>
+        <v>0.12894308744205391</v>
+      </c>
+      <c r="H9" s="4">
+        <f t="shared" si="4"/>
+        <v>1.2688821752265862E-2</v>
+      </c>
+      <c r="I9" s="4">
+        <f t="shared" si="5"/>
+        <v>10.161943319838057</v>
+      </c>
+      <c r="J9" s="4">
+        <f t="shared" si="2"/>
+        <v>5.0873160707951612</v>
+      </c>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" s="8">
+        <v>1.29E-2</v>
+      </c>
+      <c r="D10" s="8">
+        <v>-23.3</v>
+      </c>
+      <c r="E10" s="4">
+        <f t="shared" si="0"/>
+        <v>23.3</v>
+      </c>
+      <c r="F10" s="4">
+        <f t="shared" si="1"/>
+        <v>0.30057</v>
+      </c>
+      <c r="G10" s="4">
+        <f t="shared" si="3"/>
+        <v>0.12254608168107929</v>
+      </c>
+      <c r="H10" s="4">
+        <f t="shared" si="4"/>
+        <v>1.2990936555891239E-2</v>
+      </c>
+      <c r="I10" s="4">
+        <f t="shared" si="5"/>
+        <v>9.433198380566802</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" si="2"/>
+        <v>4.7230946585613465</v>
+      </c>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C11" s="8">
+        <v>1.32E-2</v>
+      </c>
+      <c r="D11" s="8">
+        <v>-21.6</v>
+      </c>
+      <c r="E11" s="4">
+        <f t="shared" si="0"/>
+        <v>21.6</v>
+      </c>
+      <c r="F11" s="4">
+        <f t="shared" si="1"/>
+        <v>0.28512000000000004</v>
+      </c>
+      <c r="G11" s="4">
+        <f t="shared" si="3"/>
+        <v>0.11624692686864734</v>
+      </c>
+      <c r="H11" s="4">
+        <f t="shared" si="4"/>
+        <v>1.3293051359516616E-2</v>
+      </c>
+      <c r="I11" s="4">
+        <f t="shared" si="5"/>
+        <v>8.7449392712550598</v>
+      </c>
+      <c r="J11" s="4">
+        <f t="shared" si="2"/>
+        <v>4.3791161613072882</v>
+      </c>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F12" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F14" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P16" sqref="P16:V24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9137,7 +10011,7 @@
         <v>6.4000000000000001E-2</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
         <v>42</v>
       </c>
@@ -9158,7 +10032,7 @@
         <v>4.0000000000000008E-2</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>45</v>
       </c>
@@ -9178,8 +10052,20 @@
         <f>D18-D17</f>
         <v>2.9999999999999971E-2</v>
       </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="P18" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>48</v>
       </c>
@@ -9199,8 +10085,20 @@
         <f>D19-D18</f>
         <v>1.9000000000000017E-2</v>
       </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="P19" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q19" s="4">
+        <v>0.432</v>
+      </c>
+      <c r="R19">
+        <v>-5.81</v>
+      </c>
+      <c r="S19">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="20" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>51</v>
       </c>
@@ -9208,6 +10106,54 @@
         <v>52</v>
       </c>
       <c r="F20" t="s">
+        <v>31</v>
+      </c>
+      <c r="P20" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q20" s="4">
+        <v>0.432</v>
+      </c>
+      <c r="R20">
+        <v>-5.74</v>
+      </c>
+      <c r="S20">
+        <v>29</v>
+      </c>
+      <c r="U20" s="4">
+        <f>Q19/Q20</f>
+        <v>1</v>
+      </c>
+      <c r="V20">
+        <f>R20/R19</f>
+        <v>0.98795180722891573</v>
+      </c>
+    </row>
+    <row r="21" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="P21" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q21" s="4">
+        <v>433.2</v>
+      </c>
+      <c r="R21">
+        <v>-5.0599999999999996</v>
+      </c>
+      <c r="S21">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="22" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="P22" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>31</v>
+      </c>
+      <c r="R22" t="s">
+        <v>31</v>
+      </c>
+      <c r="S22" t="s">
         <v>31</v>
       </c>
     </row>
@@ -9216,12 +10162,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W45"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9553,7 +10499,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="D8" s="11">
-        <f>B8*$P$2*$P$3/C8</f>
+        <f t="shared" ref="D8:D14" si="1">B8*$P$2*$P$3/C8</f>
         <v>50000</v>
       </c>
       <c r="E8" s="8">
@@ -9563,27 +10509,27 @@
         <v>-66</v>
       </c>
       <c r="G8" s="4">
-        <f>ABS(F8)</f>
+        <f t="shared" ref="G8:G14" si="2">ABS(F8)</f>
         <v>66</v>
       </c>
       <c r="H8" s="4">
-        <f>E8*ABS(F8)</f>
+        <f t="shared" ref="H8:H14" si="3">E8*ABS(F8)</f>
         <v>0.80520000000000003</v>
       </c>
       <c r="I8" s="4">
-        <f>H8/$H$2</f>
+        <f t="shared" ref="I8:I14" si="4">H8/$H$2</f>
         <v>1.0076335877862594</v>
       </c>
       <c r="J8" s="4">
-        <f>E8/$E$2</f>
+        <f t="shared" ref="J8:J14" si="5">E8/$E$2</f>
         <v>1</v>
       </c>
       <c r="K8" s="4">
-        <f>F8/$F$2</f>
+        <f t="shared" ref="K8:K14" si="6">F8/$F$2</f>
         <v>1.0076335877862594</v>
       </c>
       <c r="L8" s="4">
-        <f t="shared" ref="L8" si="1">(J8+K8)/2</f>
+        <f t="shared" ref="L8" si="7">(J8+K8)/2</f>
         <v>1.0038167938931297</v>
       </c>
       <c r="M8" s="9">
@@ -9593,7 +10539,7 @@
         <v>1E-3</v>
       </c>
       <c r="O8" s="11">
-        <f>M8*$P$2*$P$3/N8</f>
+        <f t="shared" ref="O8:O14" si="8">M8*$P$2*$P$3/N8</f>
         <v>50000</v>
       </c>
       <c r="P8" s="8">
@@ -9603,27 +10549,27 @@
         <v>-330</v>
       </c>
       <c r="R8" s="4">
-        <f>ABS(Q8)</f>
+        <f t="shared" ref="R8:R14" si="9">ABS(Q8)</f>
         <v>330</v>
       </c>
       <c r="S8" s="4">
-        <f>P8*ABS(Q8)</f>
+        <f t="shared" ref="S8:S14" si="10">P8*ABS(Q8)</f>
         <v>4.0590000000000002</v>
       </c>
       <c r="T8" s="4">
-        <f>S8/$H$2</f>
+        <f t="shared" ref="T8:T14" si="11">S8/$H$2</f>
         <v>5.0794643974471283</v>
       </c>
       <c r="U8" s="4">
-        <f>P8/$E$2</f>
+        <f t="shared" ref="U8:U14" si="12">P8/$E$2</f>
         <v>1.0081967213114753</v>
       </c>
       <c r="V8" s="4">
-        <f>Q8/$F$2</f>
+        <f t="shared" ref="V8:V14" si="13">Q8/$F$2</f>
         <v>5.0381679389312977</v>
       </c>
       <c r="W8" s="4">
-        <f>(U8+V8)/2</f>
+        <f t="shared" ref="W8:W14" si="14">(U8+V8)/2</f>
         <v>3.0231823301213865</v>
       </c>
     </row>
@@ -9638,7 +10584,7 @@
         <v>1E-4</v>
       </c>
       <c r="D9" s="11">
-        <f>B9*$P$2*$P$3/C9</f>
+        <f t="shared" si="1"/>
         <v>100000</v>
       </c>
       <c r="E9" s="8">
@@ -9648,23 +10594,23 @@
         <v>-65.900000000000006</v>
       </c>
       <c r="G9" s="4">
-        <f>ABS(F9)</f>
+        <f t="shared" si="2"/>
         <v>65.900000000000006</v>
       </c>
       <c r="H9" s="4">
-        <f>E9*ABS(F9)</f>
+        <f t="shared" si="3"/>
         <v>0.77762000000000009</v>
       </c>
       <c r="I9" s="4">
-        <f>H9/$H$2</f>
+        <f t="shared" si="4"/>
         <v>0.973119759729696</v>
       </c>
       <c r="J9" s="4">
-        <f>E9/$E$2</f>
+        <f t="shared" si="5"/>
         <v>0.96721311475409832</v>
       </c>
       <c r="K9" s="4">
-        <f>F9/$F$2</f>
+        <f t="shared" si="6"/>
         <v>1.0061068702290077</v>
       </c>
       <c r="L9" s="4">
@@ -9678,7 +10624,7 @@
         <v>1E-3</v>
       </c>
       <c r="O9" s="11">
-        <f>M9*$P$2*$P$3/N9</f>
+        <f t="shared" si="8"/>
         <v>100000</v>
       </c>
       <c r="P9" s="8">
@@ -9688,27 +10634,27 @@
         <v>-658</v>
       </c>
       <c r="R9" s="4">
-        <f>ABS(Q9)</f>
+        <f t="shared" si="9"/>
         <v>658</v>
       </c>
       <c r="S9" s="4">
-        <f>P9*ABS(Q9)</f>
+        <f t="shared" si="10"/>
         <v>8.0934000000000008</v>
       </c>
       <c r="T9" s="4">
-        <f>S9/$H$2</f>
+        <f t="shared" si="11"/>
         <v>10.128144162182457</v>
       </c>
       <c r="U9" s="4">
-        <f>P9/$E$2</f>
+        <f t="shared" si="12"/>
         <v>1.0081967213114753</v>
       </c>
       <c r="V9" s="4">
-        <f>Q9/$F$2</f>
+        <f t="shared" si="13"/>
         <v>10.045801526717558</v>
       </c>
       <c r="W9" s="4">
-        <f>(U9+V9)/2</f>
+        <f t="shared" si="14"/>
         <v>5.526999124014516</v>
       </c>
     </row>
@@ -9723,7 +10669,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="D10" s="11">
-        <f>B10*$P$2*$P$3/C10</f>
+        <f t="shared" si="1"/>
         <v>999999.99999999988</v>
       </c>
       <c r="E10" s="8">
@@ -9733,23 +10679,23 @@
         <v>-65.599999999999994</v>
       </c>
       <c r="G10" s="4">
-        <f>ABS(F10)</f>
+        <f t="shared" si="2"/>
         <v>65.599999999999994</v>
       </c>
       <c r="H10" s="4">
-        <f>E10*ABS(F10)</f>
+        <f t="shared" si="3"/>
         <v>0.74783999999999995</v>
       </c>
       <c r="I10" s="4">
-        <f>H10/$H$2</f>
+        <f t="shared" si="4"/>
         <v>0.93585283443874345</v>
       </c>
       <c r="J10" s="4">
-        <f>E10/$E$2</f>
+        <f t="shared" si="5"/>
         <v>0.93442622950819665</v>
       </c>
       <c r="K10" s="4">
-        <f>F10/$F$2</f>
+        <f t="shared" si="6"/>
         <v>1.0015267175572518</v>
       </c>
       <c r="L10" s="4">
@@ -9763,7 +10709,7 @@
         <v>1E-3</v>
       </c>
       <c r="O10" s="11">
-        <f>M10*$P$2*$P$3/N10</f>
+        <f t="shared" si="8"/>
         <v>1000000</v>
       </c>
       <c r="P10" s="8">
@@ -9773,27 +10719,27 @@
         <v>-6560</v>
       </c>
       <c r="R10" s="4">
-        <f>ABS(Q10)</f>
+        <f t="shared" si="9"/>
         <v>6560</v>
       </c>
       <c r="S10" s="4">
-        <f>P10*ABS(Q10)</f>
+        <f t="shared" si="10"/>
         <v>78.064000000000007</v>
       </c>
       <c r="T10" s="4">
-        <f>S10/$H$2</f>
+        <f t="shared" si="11"/>
         <v>97.689901138781138</v>
       </c>
       <c r="U10" s="4">
-        <f>P10/$E$2</f>
+        <f t="shared" si="12"/>
         <v>0.97540983606557374</v>
       </c>
       <c r="V10" s="4">
-        <f>Q10/$F$2</f>
+        <f t="shared" si="13"/>
         <v>100.15267175572519</v>
       </c>
       <c r="W10" s="4">
-        <f>(U10+V10)/2</f>
+        <f t="shared" si="14"/>
         <v>50.564040795895387</v>
       </c>
     </row>
@@ -9805,7 +10751,7 @@
         <v>2E-3</v>
       </c>
       <c r="D11" s="11">
-        <f>B11*$P$2*$P$3/C11</f>
+        <f t="shared" si="1"/>
         <v>5000</v>
       </c>
       <c r="E11" s="8">
@@ -9815,27 +10761,27 @@
         <v>-66.400000000000006</v>
       </c>
       <c r="G11" s="4">
-        <f>ABS(F11)</f>
+        <f t="shared" si="2"/>
         <v>66.400000000000006</v>
       </c>
       <c r="H11" s="4">
-        <f>E11*ABS(F11)</f>
+        <f t="shared" si="3"/>
         <v>0.88976000000000011</v>
       </c>
       <c r="I11" s="4">
-        <f>H11/$H$2</f>
+        <f t="shared" si="4"/>
         <v>1.1134526342134903</v>
       </c>
       <c r="J11" s="4">
-        <f>E11/$E$2</f>
+        <f t="shared" si="5"/>
         <v>1.0983606557377048</v>
       </c>
       <c r="K11" s="4">
-        <f>F11/$F$2</f>
+        <f t="shared" si="6"/>
         <v>1.0137404580152674</v>
       </c>
       <c r="L11" s="4">
-        <f t="shared" ref="L11" si="2">(J11+K11)/2</f>
+        <f t="shared" ref="L11" si="15">(J11+K11)/2</f>
         <v>1.0560505568764862</v>
       </c>
       <c r="M11" s="9">
@@ -9845,7 +10791,7 @@
         <v>1E-3</v>
       </c>
       <c r="O11" s="11">
-        <f>M11*$P$2*$P$3/N11</f>
+        <f t="shared" si="8"/>
         <v>5000</v>
       </c>
       <c r="P11" s="8">
@@ -9855,27 +10801,27 @@
         <v>-33.200000000000003</v>
       </c>
       <c r="R11" s="4">
-        <f>ABS(Q11)</f>
+        <f t="shared" si="9"/>
         <v>33.200000000000003</v>
       </c>
       <c r="S11" s="4">
-        <f>P11*ABS(Q11)</f>
+        <f t="shared" si="10"/>
         <v>0.44488000000000005</v>
       </c>
       <c r="T11" s="4">
-        <f>S11/$H$2</f>
+        <f t="shared" si="11"/>
         <v>0.55672631710674514</v>
       </c>
       <c r="U11" s="4">
-        <f>P11/$E$2</f>
+        <f t="shared" si="12"/>
         <v>1.0983606557377048</v>
       </c>
       <c r="V11" s="4">
-        <f>Q11/$F$2</f>
+        <f t="shared" si="13"/>
         <v>0.50687022900763368</v>
       </c>
       <c r="W11" s="4">
-        <f>(U11+V11)/2</f>
+        <f t="shared" si="14"/>
         <v>0.80261544237266924</v>
       </c>
     </row>
@@ -9890,7 +10836,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="D12" s="11">
-        <f>B12*$P$2*$P$3/C12</f>
+        <f t="shared" si="1"/>
         <v>2000</v>
       </c>
       <c r="E12" s="8">
@@ -9900,23 +10846,23 @@
         <v>-70.099999999999994</v>
       </c>
       <c r="G12" s="4">
-        <f>ABS(F12)</f>
+        <f t="shared" si="2"/>
         <v>70.099999999999994</v>
       </c>
       <c r="H12" s="4">
-        <f>E12*ABS(F12)</f>
+        <f t="shared" si="3"/>
         <v>0.99541999999999997</v>
       </c>
       <c r="I12" s="4">
-        <f>H12/$H$2</f>
+        <f t="shared" si="4"/>
         <v>1.245676385934176</v>
       </c>
       <c r="J12" s="4">
-        <f>E12/$E$2</f>
+        <f t="shared" si="5"/>
         <v>1.1639344262295082</v>
       </c>
       <c r="K12" s="4">
-        <f>F12/$F$2</f>
+        <f t="shared" si="6"/>
         <v>1.0702290076335876</v>
       </c>
       <c r="L12" s="4">
@@ -9930,7 +10876,7 @@
         <v>1E-3</v>
       </c>
       <c r="O12" s="11">
-        <f>M12*$P$2*$P$3/N12</f>
+        <f t="shared" si="8"/>
         <v>2000</v>
       </c>
       <c r="P12" s="8">
@@ -9940,27 +10886,27 @@
         <v>-14</v>
       </c>
       <c r="R12" s="4">
-        <f>ABS(Q12)</f>
+        <f t="shared" si="9"/>
         <v>14</v>
       </c>
       <c r="S12" s="4">
-        <f>P12*ABS(Q12)</f>
+        <f t="shared" si="10"/>
         <v>0.19739999999999999</v>
       </c>
       <c r="T12" s="4">
-        <f>S12/$H$2</f>
+        <f t="shared" si="11"/>
         <v>0.24702790639469402</v>
       </c>
       <c r="U12" s="4">
-        <f>P12/$E$2</f>
+        <f t="shared" si="12"/>
         <v>1.1557377049180326</v>
       </c>
       <c r="V12" s="4">
-        <f>Q12/$F$2</f>
+        <f t="shared" si="13"/>
         <v>0.21374045801526717</v>
       </c>
       <c r="W12" s="4">
-        <f>(U12+V12)/2</f>
+        <f t="shared" si="14"/>
         <v>0.68473908146664986</v>
       </c>
     </row>
@@ -9975,7 +10921,7 @@
         <v>0.01</v>
       </c>
       <c r="D13" s="11">
-        <f>B13*$P$2*$P$3/C13</f>
+        <f t="shared" si="1"/>
         <v>1000</v>
       </c>
       <c r="E13" s="8">
@@ -9985,23 +10931,23 @@
         <v>-77</v>
       </c>
       <c r="G13" s="4">
-        <f>ABS(F13)</f>
+        <f t="shared" si="2"/>
         <v>77</v>
       </c>
       <c r="H13" s="4">
-        <f>E13*ABS(F13)</f>
+        <f t="shared" si="3"/>
         <v>1.1165</v>
       </c>
       <c r="I13" s="4">
-        <f>H13/$H$2</f>
+        <f t="shared" si="4"/>
         <v>1.3971968464522588</v>
       </c>
       <c r="J13" s="4">
-        <f>E13/$E$2</f>
+        <f t="shared" si="5"/>
         <v>1.1885245901639343</v>
       </c>
       <c r="K13" s="4">
-        <f>F13/$F$2</f>
+        <f t="shared" si="6"/>
         <v>1.1755725190839694</v>
       </c>
       <c r="L13" s="4">
@@ -10015,7 +10961,7 @@
         <v>1E-3</v>
       </c>
       <c r="O13" s="11">
-        <f>M13*$P$2*$P$3/N13</f>
+        <f t="shared" si="8"/>
         <v>1000</v>
       </c>
       <c r="P13" s="8">
@@ -10025,27 +10971,27 @@
         <v>-7.7</v>
       </c>
       <c r="R13" s="4">
-        <f>ABS(Q13)</f>
+        <f t="shared" si="9"/>
         <v>7.7</v>
       </c>
       <c r="S13" s="4">
-        <f>P13*ABS(Q13)</f>
+        <f t="shared" si="10"/>
         <v>0.10857</v>
       </c>
       <c r="T13" s="4">
-        <f>S13/$H$2</f>
+        <f t="shared" si="11"/>
         <v>0.13586534851708171</v>
       </c>
       <c r="U13" s="4">
-        <f>P13/$E$2</f>
+        <f t="shared" si="12"/>
         <v>1.1557377049180326</v>
       </c>
       <c r="V13" s="4">
-        <f>Q13/$F$2</f>
+        <f t="shared" si="13"/>
         <v>0.11755725190839694</v>
       </c>
       <c r="W13" s="4">
-        <f>(U13+V13)/2</f>
+        <f t="shared" si="14"/>
         <v>0.63664747841321478</v>
       </c>
     </row>
@@ -10060,7 +11006,7 @@
         <v>0.1</v>
       </c>
       <c r="D14" s="11">
-        <f>B14*$P$2*$P$3/C14</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="E14" s="8">
@@ -10070,23 +11016,23 @@
         <v>-138</v>
       </c>
       <c r="G14" s="4">
-        <f>ABS(F14)</f>
+        <f t="shared" si="2"/>
         <v>138</v>
       </c>
       <c r="H14" s="4">
-        <f>E14*ABS(F14)</f>
+        <f t="shared" si="3"/>
         <v>2.1941999999999999</v>
       </c>
       <c r="I14" s="4">
-        <f>H14/$H$2</f>
+        <f t="shared" si="4"/>
         <v>2.7458390689525713</v>
       </c>
       <c r="J14" s="4">
-        <f>E14/$E$2</f>
+        <f t="shared" si="5"/>
         <v>1.3032786885245902</v>
       </c>
       <c r="K14" s="4">
-        <f>F14/$F$2</f>
+        <f t="shared" si="6"/>
         <v>2.1068702290076335</v>
       </c>
       <c r="L14" s="4">
@@ -10100,7 +11046,7 @@
         <v>1E-3</v>
       </c>
       <c r="O14" s="11">
-        <f>M14*$P$2*$P$3/N14</f>
+        <f t="shared" si="8"/>
         <v>100</v>
       </c>
       <c r="P14" s="8">
@@ -10110,27 +11056,27 @@
         <v>-1.38</v>
       </c>
       <c r="R14" s="4">
-        <f>ABS(Q14)</f>
+        <f t="shared" si="9"/>
         <v>1.38</v>
       </c>
       <c r="S14" s="4">
-        <f>P14*ABS(Q14)</f>
+        <f t="shared" si="10"/>
         <v>9.5081999999999996E-3</v>
       </c>
       <c r="T14" s="4">
-        <f>S14/$H$2</f>
+        <f t="shared" si="11"/>
         <v>1.1898635965461143E-2</v>
       </c>
       <c r="U14" s="4">
-        <f>P14/$E$2</f>
+        <f t="shared" si="12"/>
         <v>0.56475409836065571</v>
       </c>
       <c r="V14" s="4">
-        <f>Q14/$F$2</f>
+        <f t="shared" si="13"/>
         <v>2.1068702290076333E-2</v>
       </c>
       <c r="W14" s="4">
-        <f>(U14+V14)/2</f>
+        <f t="shared" si="14"/>
         <v>0.292911400325366</v>
       </c>
     </row>
@@ -10334,590 +11280,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="4">
-        <v>1.2200000000000001E-2</v>
-      </c>
-      <c r="E2" s="4">
-        <v>-65</v>
-      </c>
-      <c r="F2" s="4">
-        <f>ABS(E2)</f>
-        <v>65</v>
-      </c>
-      <c r="G2" s="4">
-        <f>D2*ABS(E2)</f>
-        <v>0.79300000000000004</v>
-      </c>
-      <c r="H2" s="4">
-        <f>G2/$G$2</f>
-        <v>1</v>
-      </c>
-      <c r="I2" s="4">
-        <f>D2/$D$2</f>
-        <v>1</v>
-      </c>
-      <c r="J2" s="4">
-        <f>E2/$E$2</f>
-        <v>1</v>
-      </c>
-      <c r="K2" s="4">
-        <f t="shared" ref="K2:K14" si="0">(I2+J2)/2</f>
-        <v>1</v>
-      </c>
-      <c r="L2" s="4">
-        <f>F2*(C2+20)</f>
-        <v>1300</v>
-      </c>
-      <c r="M2" s="4">
-        <f>L2/$L$2</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="4">
-        <f>ABS(E3)</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="4">
-        <f>D3*ABS(E3)</f>
-        <v>0</v>
-      </c>
-      <c r="H3" s="4">
-        <f>G3/$G$2</f>
-        <v>0</v>
-      </c>
-      <c r="I3" s="4">
-        <f>D3/$D$2</f>
-        <v>0</v>
-      </c>
-      <c r="J3" s="4">
-        <f>E3/$E$2</f>
-        <v>0</v>
-      </c>
-      <c r="K3" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L3" s="4">
-        <f>F3*(C3+20)</f>
-        <v>0</v>
-      </c>
-      <c r="M3" s="4">
-        <f>L3/$L$2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="4">
-        <f t="shared" ref="F4:F14" si="1">ABS(E4)</f>
-        <v>0</v>
-      </c>
-      <c r="G4" s="4">
-        <f t="shared" ref="G4:G14" si="2">D4*ABS(E4)</f>
-        <v>0</v>
-      </c>
-      <c r="H4" s="4">
-        <f t="shared" ref="H4:H14" si="3">G4/$G$2</f>
-        <v>0</v>
-      </c>
-      <c r="I4" s="4">
-        <f>D4/$D$2</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="4">
-        <f>E4/$E$2</f>
-        <v>0</v>
-      </c>
-      <c r="K4" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L4" s="4">
-        <f t="shared" ref="L4:L14" si="4">F4*(C4+20)</f>
-        <v>0</v>
-      </c>
-      <c r="M4" s="4">
-        <f t="shared" ref="M4:M14" si="5">L4/$L$2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="4">
-        <f>ABS(E5)</f>
-        <v>0</v>
-      </c>
-      <c r="G5" s="4">
-        <f>D5*ABS(E5)</f>
-        <v>0</v>
-      </c>
-      <c r="H5" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I5" s="4">
-        <f>D5/$D$2</f>
-        <v>0</v>
-      </c>
-      <c r="J5" s="4">
-        <f>E5/$E$2</f>
-        <v>0</v>
-      </c>
-      <c r="K5" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L5" s="4">
-        <f>F5*(C5+20)</f>
-        <v>0</v>
-      </c>
-      <c r="M5" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G6" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H6" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I6" s="4">
-        <f>D6/$D$2</f>
-        <v>0</v>
-      </c>
-      <c r="J6" s="4">
-        <f>E6/$E$2</f>
-        <v>0</v>
-      </c>
-      <c r="K6" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L6" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M6" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G7" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H7" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I7" s="4">
-        <f>D7/$D$2</f>
-        <v>0</v>
-      </c>
-      <c r="J7" s="4">
-        <f>E7/$E$2</f>
-        <v>0</v>
-      </c>
-      <c r="K7" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L7" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M7" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G8" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H8" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I8" s="4">
-        <f>D8/$D$2</f>
-        <v>0</v>
-      </c>
-      <c r="J8" s="4">
-        <f>E8/$E$2</f>
-        <v>0</v>
-      </c>
-      <c r="K8" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L8" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M8" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G9" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H9" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I9" s="4">
-        <f>D9/$D$2</f>
-        <v>0</v>
-      </c>
-      <c r="J9" s="4">
-        <f>E9/$E$2</f>
-        <v>0</v>
-      </c>
-      <c r="K9" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L9" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M9" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G10" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H10" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I10" s="4">
-        <f>D10/$D$2</f>
-        <v>0</v>
-      </c>
-      <c r="J10" s="4">
-        <f>E10/$E$2</f>
-        <v>0</v>
-      </c>
-      <c r="K10" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L10" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M10" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H11" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I11" s="4">
-        <f>D11/$D$2</f>
-        <v>0</v>
-      </c>
-      <c r="J11" s="4">
-        <f>E11/$E$2</f>
-        <v>0</v>
-      </c>
-      <c r="K11" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L11" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M11" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G12" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H12" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I12" s="4">
-        <f>D12/$D$2</f>
-        <v>0</v>
-      </c>
-      <c r="J12" s="4">
-        <f>E12/$E$2</f>
-        <v>0</v>
-      </c>
-      <c r="K12" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L12" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M12" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G13" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H13" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I13" s="4">
-        <f>D13/$D$2</f>
-        <v>0</v>
-      </c>
-      <c r="J13" s="4">
-        <f>E13/$E$2</f>
-        <v>0</v>
-      </c>
-      <c r="K13" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L13" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M13" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G14" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H14" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I14" s="4">
-        <f>D14/$D$2</f>
-        <v>0</v>
-      </c>
-      <c r="J14" s="4">
-        <f>E14/$E$2</f>
-        <v>0</v>
-      </c>
-      <c r="K14" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L14" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M14" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
